--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_6.3E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_6.3E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4242 +417,4622 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>100.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B2">
-        <v>34544.82269753586</v>
+        <v>33103.60126606424</v>
       </c>
       <c r="C2">
-        <v>8835.879404590076</v>
+        <v>682.8714977773488</v>
       </c>
       <c r="D2">
-        <v>49471.08053740459</v>
+        <v>3630.361998242528</v>
       </c>
       <c r="E2">
-        <v>3829.527678252641</v>
+        <v>902.2268034965653</v>
       </c>
       <c r="F2">
-        <v>1543.815189924128</v>
+        <v>925.1613000896182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>103.5</v>
+        <v>90.5</v>
       </c>
       <c r="B3">
-        <v>42140.72082289703</v>
+        <v>5200</v>
       </c>
       <c r="C3">
-        <v>7609.69352941084</v>
+        <v>3381.156730070346</v>
       </c>
       <c r="D3">
-        <v>56348.55182233579</v>
+        <v>5665.261778957331</v>
       </c>
       <c r="E3">
-        <v>3516.852165395747</v>
+        <v>1594.946182632554</v>
       </c>
       <c r="F3">
-        <v>1310.906419575116</v>
+        <v>826.282016577049</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>106.3</v>
+        <v>90.5</v>
       </c>
       <c r="B4">
-        <v>40243.87443438285</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4085.500769965703</v>
+        <v>3571.156730070346</v>
       </c>
       <c r="D4">
-        <v>57528.52204374591</v>
+        <v>5255.261778957331</v>
       </c>
       <c r="E4">
-        <v>2028.151633544162</v>
+        <v>2154.946182632554</v>
       </c>
       <c r="F4">
-        <v>1239.371398472435</v>
+        <v>986.282016577049</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>109.4</v>
+        <v>90.5</v>
       </c>
       <c r="B5">
-        <v>44268.79450424205</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1957.287357722874</v>
+        <v>5111.156730070346</v>
       </c>
       <c r="D5">
-        <v>54245.9890745928</v>
+        <v>5035.261778957331</v>
       </c>
       <c r="E5">
-        <v>1691.376044708479</v>
+        <v>2294.946182632554</v>
       </c>
       <c r="F5">
-        <v>2011.957625108752</v>
+        <v>1006.282016577049</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>112.1</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B6">
-        <v>33764.69262960334</v>
+        <v>3203.601266064237</v>
       </c>
       <c r="C6">
-        <v>201.1014825436387</v>
+        <v>4902.871497777349</v>
       </c>
       <c r="D6">
-        <v>47033.46035952399</v>
+        <v>5280.361998242528</v>
       </c>
       <c r="E6">
-        <v>1598.700531851593</v>
+        <v>1732.226803496565</v>
       </c>
       <c r="F6">
-        <v>259.048854759737</v>
+        <v>645.1613000896182</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>114.9</v>
+        <v>90.5</v>
       </c>
       <c r="B7">
-        <v>29267.84624108904</v>
+        <v>12900</v>
       </c>
       <c r="C7">
-        <v>1446.908723098501</v>
+        <v>5411.156730070346</v>
       </c>
       <c r="D7">
-        <v>42173.43058093407</v>
+        <v>6125.261778957331</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1914.946182632554</v>
       </c>
       <c r="F7">
-        <v>407.5138336570557</v>
+        <v>1136.282016577049</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>117.3</v>
+        <v>90.5</v>
       </c>
       <c r="B8">
-        <v>22241.97790807683</v>
+        <v>13100</v>
       </c>
       <c r="C8">
-        <v>1214.743500716957</v>
+        <v>6391.156730070346</v>
       </c>
       <c r="D8">
-        <v>34843.40505642846</v>
+        <v>7105.261778957331</v>
       </c>
       <c r="E8">
-        <v>225.3995441272186</v>
+        <v>2044.946182632554</v>
       </c>
       <c r="F8">
-        <v>200.4838155690447</v>
+        <v>866.282016577049</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="B9">
-        <v>16601.59860281555</v>
+        <v>3903.601266064237</v>
       </c>
       <c r="C9">
-        <v>1348.592046867202</v>
+        <v>7322.871497777349</v>
       </c>
       <c r="D9">
-        <v>32158.38165896499</v>
+        <v>5900.361998242528</v>
       </c>
       <c r="E9">
-        <v>762.8491262438215</v>
+        <v>2522.226803496565</v>
       </c>
       <c r="F9">
-        <v>280.7062989883652</v>
+        <v>635.1613000896182</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>121.7</v>
+        <v>90.5</v>
       </c>
       <c r="B10">
-        <v>9361.219297554402</v>
+        <v>12500</v>
       </c>
       <c r="C10">
-        <v>582.4405930174462</v>
+        <v>6931.156730070346</v>
       </c>
       <c r="D10">
-        <v>26703.3582615015</v>
+        <v>6165.261778957331</v>
       </c>
       <c r="E10">
-        <v>320.2987083604385</v>
+        <v>2164.946182632554</v>
       </c>
       <c r="F10">
-        <v>170.9287824076894</v>
+        <v>1116.282016577049</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>123.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="B11">
-        <v>5013.584506168707</v>
+        <v>7396.398733935759</v>
       </c>
       <c r="C11">
-        <v>624.2960234335942</v>
+        <v>8969.441962363358</v>
       </c>
       <c r="D11">
-        <v>23825.83592755908</v>
+        <v>8940.161559672117</v>
       </c>
       <c r="E11">
-        <v>1413.773309471748</v>
+        <v>2237.665561768551</v>
       </c>
       <c r="F11">
-        <v>69.77751658067587</v>
+        <v>657.4027330644799</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>126</v>
+        <v>90.7</v>
       </c>
       <c r="B12">
-        <v>6473.205200907549</v>
+        <v>8592.797467871522</v>
       </c>
       <c r="C12">
-        <v>2188.144569583853</v>
+        <v>8497.727194656371</v>
       </c>
       <c r="D12">
-        <v>23800.81253009559</v>
+        <v>13945.06134038692</v>
       </c>
       <c r="E12">
-        <v>351.2228915883575</v>
+        <v>3340.38494090454</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>288.5234495519107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>128.1</v>
+        <v>90.8</v>
       </c>
       <c r="B13">
-        <v>2125.570409521861</v>
+        <v>14089.19620180729</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9546.012426949368</v>
       </c>
       <c r="D13">
-        <v>21933.29019615317</v>
+        <v>29019.96112110172</v>
       </c>
       <c r="E13">
-        <v>824.6974926996668</v>
+        <v>3833.104320040529</v>
       </c>
       <c r="F13">
-        <v>518.8487341729863</v>
+        <v>1169.644166039342</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>130.6</v>
+        <v>91.2</v>
       </c>
       <c r="B14">
-        <v>6706.957562634074</v>
+        <v>20374.79113755045</v>
       </c>
       <c r="C14">
-        <v>1769.827893352554</v>
+        <v>16219.15335612139</v>
       </c>
       <c r="D14">
-        <v>21835.76360812648</v>
+        <v>39119.5602439609</v>
       </c>
       <c r="E14">
-        <v>1144.072017832179</v>
+        <v>5133.9818365845</v>
       </c>
       <c r="F14">
-        <v>383.1924653313097</v>
+        <v>3664.127031989061</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>132.7</v>
+        <v>91.8</v>
       </c>
       <c r="B15">
-        <v>11459.32277124837</v>
+        <v>36253.18354116526</v>
       </c>
       <c r="C15">
-        <v>2991.683323768701</v>
+        <v>16888.86474987943</v>
       </c>
       <c r="D15">
-        <v>21718.24127418406</v>
+        <v>55648.95892824967</v>
       </c>
       <c r="E15">
-        <v>1407.546618943488</v>
+        <v>4560.298111400449</v>
       </c>
       <c r="F15">
-        <v>2.041199504295946</v>
+        <v>2060.851330913647</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>134.9</v>
+        <v>92.8</v>
       </c>
       <c r="B16">
-        <v>4918.943465987228</v>
+        <v>41317.17088052312</v>
       </c>
       <c r="C16">
-        <v>3345.53186991896</v>
+        <v>20491.71707280948</v>
       </c>
       <c r="D16">
-        <v>18853.21787672056</v>
+        <v>67817.95673539763</v>
       </c>
       <c r="E16">
-        <v>1614.996201060098</v>
+        <v>8397.491902760368</v>
       </c>
       <c r="F16">
-        <v>972.2636829236201</v>
+        <v>2732.058495787951</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>137.2</v>
+        <v>94.3</v>
       </c>
       <c r="B17">
-        <v>13085.81964685048</v>
+        <v>42763.1518895599</v>
       </c>
       <c r="C17">
-        <v>3561.373531803319</v>
+        <v>17085.99555720456</v>
       </c>
       <c r="D17">
-        <v>19260.69341573602</v>
+        <v>74511.45344611956</v>
       </c>
       <c r="E17">
-        <v>1416.420764182008</v>
+        <v>7748.282589800248</v>
       </c>
       <c r="F17">
-        <v>603.8599155892749</v>
+        <v>2568.869243099407</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139.4</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="B18">
-        <v>16145.44034158932</v>
+        <v>51198.32910040408</v>
       </c>
       <c r="C18">
-        <v>4155.222077953563</v>
+        <v>16585.12973847867</v>
       </c>
       <c r="D18">
-        <v>18365.67001827253</v>
+        <v>78629.64949898591</v>
       </c>
       <c r="E18">
-        <v>2803.870346298619</v>
+        <v>7007.231414248103</v>
       </c>
       <c r="F18">
-        <v>954.0823990085955</v>
+        <v>1719.042139873155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>142</v>
+        <v>98.3</v>
       </c>
       <c r="B19">
-        <v>11234.08298082608</v>
+        <v>60219.10124699144</v>
       </c>
       <c r="C19">
-        <v>3127.043087040215</v>
+        <v>19557.40484892479</v>
       </c>
       <c r="D19">
-        <v>15170.6423667248</v>
+        <v>84937.44467471144</v>
       </c>
       <c r="E19">
-        <v>2427.219852436431</v>
+        <v>7367.057755239921</v>
       </c>
       <c r="F19">
-        <v>1039.79987941325</v>
+        <v>1763.697902596626</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>144.3</v>
+        <v>100.8</v>
       </c>
       <c r="B20">
-        <v>9900.959161689338</v>
+        <v>59629.06959538608</v>
       </c>
       <c r="C20">
-        <v>2592.884748924572</v>
+        <v>22324.53565624993</v>
       </c>
       <c r="D20">
-        <v>14658.11790574023</v>
+        <v>86779.93919258131</v>
       </c>
       <c r="E20">
-        <v>1968.644415558342</v>
+        <v>8555.042233639721</v>
       </c>
       <c r="F20">
-        <v>841.3961120789043</v>
+        <v>2361.71581478239</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>146.6</v>
+        <v>103.5</v>
       </c>
       <c r="B21">
-        <v>5367.835342552593</v>
+        <v>66931.83541165236</v>
       </c>
       <c r="C21">
-        <v>4138.72641080893</v>
+        <v>20998.23692816109</v>
       </c>
       <c r="D21">
-        <v>12105.59344475569</v>
+        <v>93182.2332718808</v>
       </c>
       <c r="E21">
-        <v>3080.068978680253</v>
+        <v>8208.465470311499</v>
       </c>
       <c r="F21">
-        <v>852.992344744559</v>
+        <v>2121.975159943012</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>148.9</v>
+        <v>106.3</v>
       </c>
       <c r="B22">
-        <v>6134.711523415979</v>
+        <v>64730.99996185441</v>
       </c>
       <c r="C22">
-        <v>4984.568072693273</v>
+        <v>17370.22343236524</v>
       </c>
       <c r="D22">
-        <v>11103.06898377113</v>
+        <v>93869.42713189512</v>
       </c>
       <c r="E22">
-        <v>1521.493541802163</v>
+        <v>6684.608086119273</v>
       </c>
       <c r="F22">
-        <v>2004.588577410214</v>
+        <v>2043.355221591065</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>151.1</v>
+        <v>109.4</v>
       </c>
       <c r="B23">
-        <v>14094.3322181547</v>
+        <v>68419.36071386373</v>
       </c>
       <c r="C23">
-        <v>5328.416618843533</v>
+        <v>15127.0656334484</v>
       </c>
       <c r="D23">
-        <v>9648.045586307657</v>
+        <v>90041.32033405377</v>
       </c>
       <c r="E23">
-        <v>3148.943123918773</v>
+        <v>6308.908839335023</v>
       </c>
       <c r="F23">
-        <v>3794.811060829535</v>
+        <v>2808.097432701411</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>153.7</v>
+        <v>112.1</v>
       </c>
       <c r="B24">
-        <v>7482.974857391448</v>
+        <v>57622.12653013002</v>
       </c>
       <c r="C24">
-        <v>7750.237627930185</v>
+        <v>13270.76690535956</v>
       </c>
       <c r="D24">
-        <v>11273.01793475989</v>
+        <v>82353.61441335329</v>
       </c>
       <c r="E24">
-        <v>3432.292630056586</v>
+        <v>6182.332076006802</v>
       </c>
       <c r="F24">
-        <v>7320.528541234189</v>
+        <v>1048.356777862036</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>156</v>
+        <v>114.9</v>
       </c>
       <c r="B25">
-        <v>4749.851038254827</v>
+        <v>52821.29108033206</v>
       </c>
       <c r="C25">
-        <v>8966.079289814541</v>
+        <v>14412.75340956372</v>
       </c>
       <c r="D25">
-        <v>9190.493473775321</v>
+        <v>77000.80827336755</v>
       </c>
       <c r="E25">
-        <v>4063.717193178497</v>
+        <v>4548.474691814576</v>
       </c>
       <c r="F25">
-        <v>10752.12477389984</v>
+        <v>1189.736839510089</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>158.3</v>
+        <v>117.3</v>
       </c>
       <c r="B26">
-        <v>10816.72721911809</v>
+        <v>45534.86069479094</v>
       </c>
       <c r="C26">
-        <v>11871.92095169888</v>
+        <v>14091.59898459586</v>
       </c>
       <c r="D26">
-        <v>10647.96901279078</v>
+        <v>69248.40301052268</v>
       </c>
       <c r="E26">
-        <v>6065.141756300408</v>
+        <v>4743.739791078379</v>
       </c>
       <c r="F26">
-        <v>14433.7210065655</v>
+        <v>976.6340352084185</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>160.6</v>
+        <v>119.5</v>
       </c>
       <c r="B27">
-        <v>17083.60339998134</v>
+        <v>39655.63284137829</v>
       </c>
       <c r="C27">
-        <v>14857.76261358324</v>
+        <v>14143.87409504198</v>
       </c>
       <c r="D27">
-        <v>10065.44455180621</v>
+        <v>66176.19818624819</v>
       </c>
       <c r="E27">
-        <v>5826.566319422318</v>
+        <v>5253.566132070205</v>
       </c>
       <c r="F27">
-        <v>14985.31723923115</v>
+        <v>1051.28979793189</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>163.1</v>
+        <v>121.7</v>
       </c>
       <c r="B28">
-        <v>11864.99055309367</v>
+        <v>32176.40498796564</v>
       </c>
       <c r="C28">
-        <v>15827.5905069358</v>
+        <v>13296.14920548809</v>
       </c>
       <c r="D28">
-        <v>11127.91796377952</v>
+        <v>60333.99336197371</v>
       </c>
       <c r="E28">
-        <v>5725.940844554831</v>
+        <v>4783.392473062023</v>
       </c>
       <c r="F28">
-        <v>9339.660970389472</v>
+        <v>935.9455606553613</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>165.1</v>
+        <v>123.8</v>
       </c>
       <c r="B29">
-        <v>11710.10027558346</v>
+        <v>27600.77840061712</v>
       </c>
       <c r="C29">
-        <v>14717.45282161784</v>
+        <v>13260.13908364121</v>
       </c>
       <c r="D29">
-        <v>6757.896693358183</v>
+        <v>57086.88875698442</v>
       </c>
       <c r="E29">
-        <v>4735.440464660839</v>
+        <v>5850.49943491786</v>
       </c>
       <c r="F29">
-        <v>5617.135955316128</v>
+        <v>829.480606891402</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>167.6</v>
+        <v>126</v>
       </c>
       <c r="B30">
-        <v>14791.48742869567</v>
+        <v>28821.55054720448</v>
       </c>
       <c r="C30">
-        <v>15187.28071497041</v>
+        <v>14742.41419408733</v>
       </c>
       <c r="D30">
-        <v>4270.370105331487</v>
+        <v>56674.68393270994</v>
       </c>
       <c r="E30">
-        <v>3614.814989793351</v>
+        <v>4760.325775909678</v>
       </c>
       <c r="F30">
-        <v>4831.479686474448</v>
+        <v>754.1363696148733</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>169.9</v>
+        <v>128.1</v>
       </c>
       <c r="B31">
-        <v>8058.363609559041</v>
+        <v>24245.92395985606</v>
       </c>
       <c r="C31">
-        <v>14543.12237685476</v>
+        <v>12476.40407224046</v>
       </c>
       <c r="D31">
-        <v>4137.845644346955</v>
+        <v>54437.57932772065</v>
       </c>
       <c r="E31">
-        <v>4116.239552915262</v>
+        <v>5207.432737765506</v>
       </c>
       <c r="F31">
-        <v>3433.075919140103</v>
+        <v>1267.671415850914</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>172.2</v>
+        <v>130.6</v>
       </c>
       <c r="B32">
-        <v>11525.23979042231</v>
+        <v>28555.8923082507</v>
       </c>
       <c r="C32">
-        <v>16618.96403873913</v>
+        <v>14153.53487956559</v>
       </c>
       <c r="D32">
-        <v>3925.321183362379</v>
+        <v>53900.07384559057</v>
       </c>
       <c r="E32">
-        <v>4397.664116037173</v>
+        <v>5495.417216165306</v>
       </c>
       <c r="F32">
-        <v>3544.672151805757</v>
+        <v>1125.689328036674</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>174.7</v>
+        <v>132.7</v>
       </c>
       <c r="B33">
-        <v>3906.626943534517</v>
+        <v>33080.26572090229</v>
       </c>
       <c r="C33">
-        <v>15568.79193209167</v>
+        <v>15297.52475771872</v>
       </c>
       <c r="D33">
-        <v>2117.794595335698</v>
+        <v>53412.96924060129</v>
       </c>
       <c r="E33">
-        <v>4007.038641169685</v>
+        <v>5732.524178021135</v>
       </c>
       <c r="F33">
-        <v>3189.01588296408</v>
+        <v>739.2243742727148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>177</v>
+        <v>134.9</v>
       </c>
       <c r="B34">
-        <v>3473.503124397896</v>
+        <v>26301.03786748953</v>
       </c>
       <c r="C34">
-        <v>19414.63359397601</v>
+        <v>15569.79986816482</v>
       </c>
       <c r="D34">
-        <v>2505.270134351158</v>
+        <v>50160.7644163268</v>
       </c>
       <c r="E34">
-        <v>3548.463204291596</v>
+        <v>5912.350519012953</v>
       </c>
       <c r="F34">
-        <v>2930.612115629735</v>
+        <v>1703.880136996186</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>179.3</v>
+        <v>137.2</v>
       </c>
       <c r="B35">
-        <v>3740.379305261158</v>
+        <v>34218.20874801264</v>
       </c>
       <c r="C35">
-        <v>17970.47525586038</v>
+        <v>15700.36021090396</v>
       </c>
       <c r="D35">
-        <v>4062.745673366589</v>
+        <v>50163.45937276709</v>
       </c>
       <c r="E35">
-        <v>3729.887767413506</v>
+        <v>5684.896239140768</v>
       </c>
       <c r="F35">
-        <v>2992.20834829539</v>
+        <v>1329.656616207089</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>181.5</v>
+        <v>139.4</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>37038.9808946</v>
       </c>
       <c r="C36">
-        <v>18744.32380201063</v>
+        <v>16212.63532135008</v>
       </c>
       <c r="D36">
-        <v>2097.722275903121</v>
+        <v>48881.25454849261</v>
       </c>
       <c r="E36">
-        <v>3397.337349530116</v>
+        <v>7044.722580132593</v>
       </c>
       <c r="F36">
-        <v>3162.430831714711</v>
+        <v>1674.312378930556</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>183.8</v>
+        <v>142</v>
       </c>
       <c r="B37">
-        <v>166.8761808632626</v>
+        <v>31845.34797693052</v>
       </c>
       <c r="C37">
-        <v>19870.16546389497</v>
+        <v>15088.05136096823</v>
       </c>
       <c r="D37">
-        <v>605.1978149185525</v>
+        <v>45228.6488470773</v>
       </c>
       <c r="E37">
-        <v>3618.761912652027</v>
+        <v>6635.426437668382</v>
       </c>
       <c r="F37">
-        <v>2874.027064380366</v>
+        <v>1753.451007603751</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>186.1</v>
+        <v>144.3</v>
       </c>
       <c r="B38">
-        <v>733.7523617265178</v>
+        <v>30262.51885745364</v>
       </c>
       <c r="C38">
-        <v>20106.00712577934</v>
+        <v>14468.61170370736</v>
       </c>
       <c r="D38">
-        <v>432.673353934013</v>
+        <v>44311.34380351762</v>
       </c>
       <c r="E38">
-        <v>4060.186475773937</v>
+        <v>6147.972157796195</v>
       </c>
       <c r="F38">
-        <v>3235.623297046021</v>
+        <v>1549.227486814653</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>188.7</v>
+        <v>146.6</v>
       </c>
       <c r="B39">
-        <v>4422.395000963268</v>
+        <v>25479.68973797675</v>
       </c>
       <c r="C39">
-        <v>20747.82813486598</v>
+        <v>15929.1720464465</v>
       </c>
       <c r="D39">
-        <v>577.6457023862458</v>
+        <v>41354.03875995793</v>
       </c>
       <c r="E39">
-        <v>4063.53598191175</v>
+        <v>7230.51787792401</v>
       </c>
       <c r="F39">
-        <v>2381.340777450674</v>
+        <v>1555.003966025552</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>191</v>
+        <v>148.9</v>
       </c>
       <c r="B40">
-        <v>2389.271181826531</v>
+        <v>25996.86061849975</v>
       </c>
       <c r="C40">
-        <v>21553.66979675035</v>
+        <v>16689.73238918561</v>
       </c>
       <c r="D40">
-        <v>885.1212414017064</v>
+        <v>39946.73371639825</v>
       </c>
       <c r="E40">
-        <v>4744.960545033661</v>
+        <v>5643.063598051818</v>
       </c>
       <c r="F40">
-        <v>2632.937010116329</v>
+        <v>2700.780445236454</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>193.2</v>
+        <v>151.1</v>
       </c>
       <c r="B41">
-        <v>9748.891876565373</v>
+        <v>33717.6327650871</v>
       </c>
       <c r="C41">
-        <v>19697.5183429006</v>
+        <v>16952.00749963174</v>
       </c>
       <c r="D41">
-        <v>650.0978439382161</v>
+        <v>38104.52889212377</v>
       </c>
       <c r="E41">
-        <v>3322.410127150271</v>
+        <v>7242.889939043644</v>
       </c>
       <c r="F41">
-        <v>3483.15949353565</v>
+        <v>4485.436207959925</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>195.5</v>
+        <v>153.7</v>
       </c>
       <c r="B42">
-        <v>7615.768057428635</v>
+        <v>26823.99984741762</v>
       </c>
       <c r="C42">
-        <v>20303.36000478494</v>
+        <v>19277.42353924988</v>
       </c>
       <c r="D42">
-        <v>57.57338295364752</v>
+        <v>39271.92319070845</v>
       </c>
       <c r="E42">
-        <v>4533.834690272181</v>
+        <v>7493.593796579433</v>
       </c>
       <c r="F42">
-        <v>3704.755726201304</v>
+        <v>8004.574836633117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>197.8</v>
+        <v>156</v>
       </c>
       <c r="B43">
-        <v>5582.644238292014</v>
+        <v>23841.17072794073</v>
       </c>
       <c r="C43">
-        <v>22239.20166666928</v>
+        <v>20407.98388198902</v>
       </c>
       <c r="D43">
-        <v>1015.048921969108</v>
+        <v>36784.61814714877</v>
       </c>
       <c r="E43">
-        <v>3735.259253394092</v>
+        <v>8096.139516707248</v>
       </c>
       <c r="F43">
-        <v>3456.35195886696</v>
+        <v>11430.35131584402</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>200.4</v>
+        <v>158.3</v>
       </c>
       <c r="B44">
-        <v>10071.28687752876</v>
+        <v>29658.34160846385</v>
       </c>
       <c r="C44">
-        <v>25471.02267575595</v>
+        <v>23228.54422472814</v>
       </c>
       <c r="D44">
-        <v>980.0212704213482</v>
+        <v>37837.31310358906</v>
       </c>
       <c r="E44">
-        <v>4198.608759531905</v>
+        <v>10068.68523683506</v>
       </c>
       <c r="F44">
-        <v>3062.069439271613</v>
+        <v>15106.12779505492</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>202.4</v>
+        <v>160.6</v>
       </c>
       <c r="B45">
-        <v>14716.39660001854</v>
+        <v>35675.51248898697</v>
       </c>
       <c r="C45">
-        <v>23920.884990438</v>
+        <v>26129.10456746728</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>36850.00806002938</v>
       </c>
       <c r="E45">
-        <v>4438.108379637913</v>
+        <v>9801.230956962876</v>
       </c>
       <c r="F45">
-        <v>3049.544424198269</v>
+        <v>15651.90427426582</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>204.9</v>
+        <v>163.1</v>
       </c>
       <c r="B46">
-        <v>25797.78375313087</v>
+        <v>30185.4808373816</v>
       </c>
       <c r="C46">
-        <v>24150.71288379057</v>
+        <v>27006.2353747924</v>
       </c>
       <c r="D46">
-        <v>1672.473411973311</v>
+        <v>37472.5025778993</v>
       </c>
       <c r="E46">
-        <v>4817.482904770426</v>
+        <v>9669.215435362668</v>
       </c>
       <c r="F46">
-        <v>2763.888155356588</v>
+        <v>9999.922186451582</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>207.2</v>
+        <v>165.1</v>
       </c>
       <c r="B47">
-        <v>45064.65993399412</v>
+        <v>29813.45551609732</v>
       </c>
       <c r="C47">
-        <v>24116.55454567491</v>
+        <v>25821.94002065253</v>
       </c>
       <c r="D47">
-        <v>969.9489509887353</v>
+        <v>32750.49819219521</v>
       </c>
       <c r="E47">
-        <v>4338.907467892336</v>
+        <v>8653.603018082509</v>
       </c>
       <c r="F47">
-        <v>3225.484388022243</v>
+        <v>6272.336516200194</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>209.5</v>
+        <v>167.6</v>
       </c>
       <c r="B48">
-        <v>49631.53611485738</v>
+        <v>32623.42386449208</v>
       </c>
       <c r="C48">
-        <v>24832.39620755925</v>
+        <v>26199.07082797766</v>
       </c>
       <c r="D48">
-        <v>1667.424490004203</v>
+        <v>29822.9927100651</v>
       </c>
       <c r="E48">
-        <v>4040.332031014247</v>
+        <v>7501.587496482302</v>
       </c>
       <c r="F48">
-        <v>2987.080620687898</v>
+        <v>5480.354428385955</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>212.1</v>
+        <v>169.9</v>
       </c>
       <c r="B49">
-        <v>66220.17875409414</v>
+        <v>25640.59474501519</v>
       </c>
       <c r="C49">
-        <v>24204.21721664592</v>
+        <v>25469.6311707168</v>
       </c>
       <c r="D49">
-        <v>1672.396838456436</v>
+        <v>29285.68766650542</v>
       </c>
       <c r="E49">
-        <v>4613.68153715206</v>
+        <v>7974.133216610117</v>
       </c>
       <c r="F49">
-        <v>3722.798101092552</v>
+        <v>4076.130907596856</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>214.4</v>
+        <v>172.2</v>
       </c>
       <c r="B50">
-        <v>87087.05493495741</v>
+        <v>28857.7656255383</v>
       </c>
       <c r="C50">
-        <v>26480.05887853026</v>
+        <v>27460.19151345592</v>
       </c>
       <c r="D50">
-        <v>2999.872377471896</v>
+        <v>28668.38262294573</v>
       </c>
       <c r="E50">
-        <v>4015.106100273971</v>
+        <v>8226.67893673793</v>
       </c>
       <c r="F50">
-        <v>2694.394333758207</v>
+        <v>4181.907386807758</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>216.7</v>
+        <v>174.7</v>
       </c>
       <c r="B51">
-        <v>109253.9311158208</v>
+        <v>20967.73397393295</v>
       </c>
       <c r="C51">
-        <v>27225.90054041463</v>
+        <v>26317.32232078106</v>
       </c>
       <c r="D51">
-        <v>2157.347916487328</v>
+        <v>26420.87714081562</v>
       </c>
       <c r="E51">
-        <v>4466.530663395882</v>
+        <v>7804.663415137731</v>
       </c>
       <c r="F51">
-        <v>2985.990566423862</v>
+        <v>3819.925298993518</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>218.9</v>
+        <v>177</v>
       </c>
       <c r="B52">
-        <v>143213.5518105595</v>
+        <v>20284.90485445606</v>
       </c>
       <c r="C52">
-        <v>25999.74908656488</v>
+        <v>30077.88266352018</v>
       </c>
       <c r="D52">
-        <v>2292.324519023867</v>
+        <v>26403.57209725594</v>
       </c>
       <c r="E52">
-        <v>4673.980245512491</v>
+        <v>7317.209135265537</v>
       </c>
       <c r="F52">
-        <v>4026.213049843182</v>
+        <v>3555.701778204421</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>221.2</v>
+        <v>179.3</v>
       </c>
       <c r="B53">
-        <v>170380.4279914229</v>
+        <v>20302.07573497918</v>
       </c>
       <c r="C53">
-        <v>26905.59074844922</v>
+        <v>28548.44300625931</v>
       </c>
       <c r="D53">
-        <v>2529.800058039298</v>
+        <v>27556.26705369626</v>
       </c>
       <c r="E53">
-        <v>4865.404808634402</v>
+        <v>7469.754855393352</v>
       </c>
       <c r="F53">
-        <v>3277.809282508837</v>
+        <v>3611.478257415323</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>223.8</v>
+        <v>181.5</v>
       </c>
       <c r="B54">
-        <v>194469.0706306596</v>
+        <v>16322.84788156653</v>
       </c>
       <c r="C54">
-        <v>26217.41175753589</v>
+        <v>29240.71811670544</v>
       </c>
       <c r="D54">
-        <v>3164.772406491538</v>
+        <v>25204.06222942178</v>
       </c>
       <c r="E54">
-        <v>3938.754314772215</v>
+        <v>7109.581196385177</v>
       </c>
       <c r="F54">
-        <v>2783.526762913491</v>
+        <v>3776.134020138795</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>226.1</v>
+        <v>183.8</v>
       </c>
       <c r="B55">
-        <v>235035.9468115229</v>
+        <v>16240.01876208965</v>
       </c>
       <c r="C55">
-        <v>29033.25341942026</v>
+        <v>30281.27845944456</v>
       </c>
       <c r="D55">
-        <v>2862.247945506992</v>
+        <v>23306.75718586206</v>
       </c>
       <c r="E55">
-        <v>4700.178877894125</v>
+        <v>7302.126916512992</v>
       </c>
       <c r="F55">
-        <v>3105.122995579145</v>
+        <v>3481.910499349693</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>228.4</v>
+        <v>186.1</v>
       </c>
       <c r="B56">
-        <v>271502.8229923862</v>
+        <v>16557.18964261276</v>
       </c>
       <c r="C56">
-        <v>28049.0950813046</v>
+        <v>30431.8388021837</v>
       </c>
       <c r="D56">
-        <v>3069.72348452243</v>
+        <v>22729.45214230238</v>
       </c>
       <c r="E56">
-        <v>4551.603441016036</v>
+        <v>7714.672636640806</v>
       </c>
       <c r="F56">
-        <v>3326.7192282448</v>
+        <v>3837.686978560596</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>230.6</v>
+        <v>188.7</v>
       </c>
       <c r="B57">
-        <v>307562.4436871251</v>
+        <v>19963.55672494316</v>
       </c>
       <c r="C57">
-        <v>28622.94362745485</v>
+        <v>30977.25484180184</v>
       </c>
       <c r="D57">
-        <v>4534.700087058955</v>
+        <v>22416.84644088707</v>
       </c>
       <c r="E57">
-        <v>5299.053023132647</v>
+        <v>7685.376494176595</v>
       </c>
       <c r="F57">
-        <v>3256.941711664121</v>
+        <v>2976.825607233786</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>232.9</v>
+        <v>191</v>
       </c>
       <c r="B58">
-        <v>346029.3198679883</v>
+        <v>17680.72760546628</v>
       </c>
       <c r="C58">
-        <v>29208.78528933919</v>
+        <v>31697.81518454097</v>
       </c>
       <c r="D58">
-        <v>1692.175626074393</v>
+        <v>22319.54139732739</v>
       </c>
       <c r="E58">
-        <v>4990.477586254557</v>
+        <v>8337.922214304403</v>
       </c>
       <c r="F58">
-        <v>3208.537944329776</v>
+        <v>3222.602086444689</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>235.8</v>
+        <v>193.2</v>
       </c>
       <c r="B59">
-        <v>379739.7289655985</v>
+        <v>24801.49975205363</v>
       </c>
       <c r="C59">
-        <v>28976.58564562818</v>
+        <v>29760.0902949871</v>
       </c>
       <c r="D59">
-        <v>5074.644783963435</v>
+        <v>21697.3365730529</v>
       </c>
       <c r="E59">
-        <v>4855.752035408264</v>
+        <v>6887.748555296228</v>
       </c>
       <c r="F59">
-        <v>2848.376672473429</v>
+        <v>4067.257849168161</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>238.1</v>
+        <v>195.5</v>
       </c>
       <c r="B60">
-        <v>420306.6051464618</v>
+        <v>22418.67063257675</v>
       </c>
       <c r="C60">
-        <v>30462.42730751253</v>
+        <v>30280.65063772622</v>
       </c>
       <c r="D60">
-        <v>4892.120322978895</v>
+        <v>20700.03152949322</v>
       </c>
       <c r="E60">
-        <v>4917.176598530183</v>
+        <v>8070.294275424043</v>
       </c>
       <c r="F60">
-        <v>3439.972905139084</v>
+        <v>4283.034328379063</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>240.4</v>
+        <v>197.8</v>
       </c>
       <c r="B61">
-        <v>464573.4813273252</v>
+        <v>20135.84151309986</v>
       </c>
       <c r="C61">
-        <v>30468.26896939687</v>
+        <v>32131.21098046534</v>
       </c>
       <c r="D61">
-        <v>2189.595861994327</v>
+        <v>21252.72648593354</v>
       </c>
       <c r="E61">
-        <v>3438.601161652086</v>
+        <v>7242.839995551856</v>
       </c>
       <c r="F61">
-        <v>2901.569137804739</v>
+        <v>4028.810807589961</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>242.6</v>
+        <v>200.4</v>
       </c>
       <c r="B62">
-        <v>498633.102022064</v>
+        <v>24342.20859543027</v>
       </c>
       <c r="C62">
-        <v>29802.11751554711</v>
+        <v>35266.62702008348</v>
       </c>
       <c r="D62">
-        <v>3984.572464530858</v>
+        <v>20760.12078451823</v>
       </c>
       <c r="E62">
-        <v>5196.050743768703</v>
+        <v>7673.543853087645</v>
       </c>
       <c r="F62">
-        <v>2051.791621224059</v>
+        <v>3627.949436263156</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>244.9</v>
+        <v>202.4</v>
       </c>
       <c r="B63">
-        <v>531999.9782029272</v>
+        <v>28770.1832741461</v>
       </c>
       <c r="C63">
-        <v>29607.95917743149</v>
+        <v>33642.33166594361</v>
       </c>
       <c r="D63">
-        <v>3552.048003546297</v>
+        <v>19428.11639881414</v>
       </c>
       <c r="E63">
-        <v>3757.475306890607</v>
+        <v>7887.931435807479</v>
       </c>
       <c r="F63">
-        <v>2443.387853889714</v>
+        <v>3610.363766011766</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>247.2</v>
+        <v>204.9</v>
       </c>
       <c r="B64">
-        <v>582266.8543837905</v>
+        <v>39580.15162254074</v>
       </c>
       <c r="C64">
-        <v>28153.80083931583</v>
+        <v>33779.46247326874</v>
       </c>
       <c r="D64">
-        <v>4339.52354256175</v>
+        <v>20660.61091668406</v>
       </c>
       <c r="E64">
-        <v>4568.899870012525</v>
+        <v>8235.915914207279</v>
       </c>
       <c r="F64">
-        <v>2194.984086555369</v>
+        <v>3318.381678197526</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>249.8</v>
+        <v>207.2</v>
       </c>
       <c r="B65">
-        <v>618855.4970230273</v>
+        <v>58597.32250306386</v>
       </c>
       <c r="C65">
-        <v>31035.6218484025</v>
+        <v>33660.02281600788</v>
       </c>
       <c r="D65">
-        <v>4314.49589101399</v>
+        <v>19553.30587312435</v>
       </c>
       <c r="E65">
-        <v>4462.24937615033</v>
+        <v>7728.461634335094</v>
       </c>
       <c r="F65">
-        <v>1860.701566960023</v>
+        <v>3774.158157408428</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>251.8</v>
+        <v>209.5</v>
       </c>
       <c r="B66">
-        <v>661900.606745517</v>
+        <v>62914.49338358696</v>
       </c>
       <c r="C66">
-        <v>30635.48416308451</v>
+        <v>34290.58315874701</v>
       </c>
       <c r="D66">
-        <v>3324.474620592649</v>
+        <v>19846.00082956467</v>
       </c>
       <c r="E66">
-        <v>4001.748996256346</v>
+        <v>7401.007354462907</v>
       </c>
       <c r="F66">
-        <v>1758.176551886678</v>
+        <v>3529.93463661933</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>254.4</v>
+        <v>212.1</v>
       </c>
       <c r="B67">
-        <v>694489.2493847538</v>
+        <v>79220.86046591747</v>
       </c>
       <c r="C67">
-        <v>28597.30517217118</v>
+        <v>33565.99919836516</v>
       </c>
       <c r="D67">
-        <v>4669.446969044875</v>
+        <v>19393.39512814936</v>
       </c>
       <c r="E67">
-        <v>4745.098502394152</v>
+        <v>7941.711211998696</v>
       </c>
       <c r="F67">
-        <v>1843.894032291332</v>
+        <v>4259.073265292522</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>256.7</v>
+        <v>214.4</v>
       </c>
       <c r="B68">
-        <v>734556.125565617</v>
+        <v>99838.03134644049</v>
       </c>
       <c r="C68">
-        <v>28033.14683405555</v>
+        <v>35756.55954110426</v>
       </c>
       <c r="D68">
-        <v>3976.922508060336</v>
+        <v>20316.09008458968</v>
       </c>
       <c r="E68">
-        <v>4026.52306551607</v>
+        <v>7314.256932126511</v>
       </c>
       <c r="F68">
-        <v>1915.490264956987</v>
+        <v>3224.849744503424</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>258.9</v>
+        <v>216.7</v>
       </c>
       <c r="B69">
-        <v>764615.7462603558</v>
+        <v>121755.2022269636</v>
       </c>
       <c r="C69">
-        <v>27676.9953802058</v>
+        <v>36417.11988384343</v>
       </c>
       <c r="D69">
-        <v>3951.899110596845</v>
+        <v>19068.78504102999</v>
       </c>
       <c r="E69">
-        <v>4553.97264763268</v>
+        <v>7736.802652254326</v>
       </c>
       <c r="F69">
-        <v>1545.712748376307</v>
+        <v>3510.626223714326</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>261.2</v>
+        <v>218.9</v>
       </c>
       <c r="B70">
-        <v>787682.6224412192</v>
+        <v>155475.9743735509</v>
       </c>
       <c r="C70">
-        <v>28272.83704209014</v>
+        <v>35109.39499428952</v>
       </c>
       <c r="D70">
-        <v>5219.374649612277</v>
+        <v>18816.58021675551</v>
       </c>
       <c r="E70">
-        <v>4965.397210754591</v>
+        <v>7916.628993246144</v>
       </c>
       <c r="F70">
-        <v>1267.308981041962</v>
+        <v>4545.281986437794</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>263.8</v>
+        <v>221.2</v>
       </c>
       <c r="B71">
-        <v>800571.2650804558</v>
+        <v>182393.1452540741</v>
       </c>
       <c r="C71">
-        <v>26584.65805117681</v>
+        <v>35929.95533702865</v>
       </c>
       <c r="D71">
-        <v>4444.346998064546</v>
+        <v>18649.27517319583</v>
       </c>
       <c r="E71">
-        <v>4468.746716892396</v>
+        <v>8079.174713373959</v>
       </c>
       <c r="F71">
-        <v>753.0264614466162</v>
+        <v>3791.058465648696</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>266.1</v>
+        <v>223.8</v>
       </c>
       <c r="B72">
-        <v>782638.1412613192</v>
+        <v>206199.5123364046</v>
       </c>
       <c r="C72">
-        <v>26340.49971306115</v>
+        <v>35145.3713766468</v>
       </c>
       <c r="D72">
-        <v>2361.822537079977</v>
+        <v>18826.66947178052</v>
       </c>
       <c r="E72">
-        <v>3960.171280014307</v>
+        <v>7119.878570909746</v>
       </c>
       <c r="F72">
-        <v>1294.622694112271</v>
+        <v>3290.197094321891</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>268.4</v>
+        <v>226.1</v>
       </c>
       <c r="B73">
-        <v>760405.0174421826</v>
+        <v>246516.6832169277</v>
       </c>
       <c r="C73">
-        <v>25616.34137494552</v>
+        <v>37875.93171938593</v>
       </c>
       <c r="D73">
-        <v>4799.298076095438</v>
+        <v>18119.36442822084</v>
       </c>
       <c r="E73">
-        <v>4271.595843136218</v>
+        <v>7852.424291037561</v>
       </c>
       <c r="F73">
-        <v>926.2189267779258</v>
+        <v>3605.973573532789</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>270.7</v>
+        <v>228.4</v>
       </c>
       <c r="B74">
-        <v>719271.8936230459</v>
+        <v>282733.8540974508</v>
       </c>
       <c r="C74">
-        <v>20542.18303682987</v>
+        <v>36806.49206212506</v>
       </c>
       <c r="D74">
-        <v>5456.773615110869</v>
+        <v>17922.05938466112</v>
       </c>
       <c r="E74">
-        <v>3883.020406258135</v>
+        <v>7674.970011165376</v>
       </c>
       <c r="F74">
-        <v>1207.815159443581</v>
+        <v>3821.750052743692</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>272.9</v>
+        <v>230.6</v>
       </c>
       <c r="B75">
-        <v>677631.5143177845</v>
+        <v>318554.6262440381</v>
       </c>
       <c r="C75">
-        <v>24526.03158298011</v>
+        <v>37298.76717257119</v>
       </c>
       <c r="D75">
-        <v>6971.750217647394</v>
+        <v>18999.85456038664</v>
       </c>
       <c r="E75">
-        <v>3850.469988374745</v>
+        <v>8394.796352157195</v>
       </c>
       <c r="F75">
-        <v>898.0376428629012</v>
+        <v>3746.405815467164</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>275.5</v>
+        <v>232.9</v>
       </c>
       <c r="B76">
-        <v>606420.1569570212</v>
+        <v>356771.7971245612</v>
       </c>
       <c r="C76">
-        <v>23037.85259206678</v>
+        <v>37799.32751531029</v>
       </c>
       <c r="D76">
-        <v>5836.722566099634</v>
+        <v>15752.54951682696</v>
       </c>
       <c r="E76">
-        <v>4173.819494512551</v>
+        <v>8057.342072285008</v>
       </c>
       <c r="F76">
-        <v>803.7551232675551</v>
+        <v>3692.182294678066</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>277.5</v>
+        <v>235.8</v>
       </c>
       <c r="B77">
-        <v>546165.2666795113</v>
+        <v>390167.3604086991</v>
       </c>
       <c r="C77">
-        <v>24067.71490674882</v>
+        <v>37459.59925180748</v>
       </c>
       <c r="D77">
-        <v>5726.701295678293</v>
+        <v>18624.64315755605</v>
       </c>
       <c r="E77">
-        <v>3363.319114618559</v>
+        <v>7886.204067228773</v>
       </c>
       <c r="F77">
-        <v>971.2301081942107</v>
+        <v>3324.683072813549</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>280.1</v>
+        <v>238.1</v>
       </c>
       <c r="B78">
-        <v>497853.909318748</v>
+        <v>430484.5312892221</v>
       </c>
       <c r="C78">
-        <v>22779.53591583549</v>
+        <v>38860.15959454661</v>
       </c>
       <c r="D78">
-        <v>5651.673644130533</v>
+        <v>18037.33811399637</v>
       </c>
       <c r="E78">
-        <v>3016.668620756372</v>
+        <v>7918.749787356586</v>
       </c>
       <c r="F78">
-        <v>656.9475885988646</v>
+        <v>3910.459552024448</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>282.4</v>
+        <v>240.4</v>
       </c>
       <c r="B79">
-        <v>455820.7854996113</v>
+        <v>474501.7021697452</v>
       </c>
       <c r="C79">
-        <v>23225.37757771984</v>
+        <v>38780.71993728574</v>
       </c>
       <c r="D79">
-        <v>7309.149183145986</v>
+        <v>14930.03307043666</v>
       </c>
       <c r="E79">
-        <v>3738.093183878283</v>
+        <v>6411.295507484401</v>
       </c>
       <c r="F79">
-        <v>608.5438212645195</v>
+        <v>3366.23603123535</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>284.7</v>
+        <v>242.6</v>
       </c>
       <c r="B80">
-        <v>428887.6616804746</v>
+        <v>508322.4743163325</v>
       </c>
       <c r="C80">
-        <v>23711.21923960418</v>
+        <v>38032.99504773184</v>
       </c>
       <c r="D80">
-        <v>6336.624722161418</v>
+        <v>16337.82824616217</v>
       </c>
       <c r="E80">
-        <v>3639.517747000201</v>
+        <v>8141.121848476227</v>
       </c>
       <c r="F80">
-        <v>890.1400539301742</v>
+        <v>2510.891793958822</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>287</v>
+        <v>244.9</v>
       </c>
       <c r="B81">
-        <v>405254.5378613378</v>
+        <v>541439.6451968557</v>
       </c>
       <c r="C81">
-        <v>23857.06090148855</v>
+        <v>37753.55539047097</v>
       </c>
       <c r="D81">
-        <v>6144.100261176849</v>
+        <v>15500.52320260249</v>
       </c>
       <c r="E81">
-        <v>2710.942310122105</v>
+        <v>6673.667568604042</v>
       </c>
       <c r="F81">
-        <v>781.736286595829</v>
+        <v>2896.668273169724</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>289.3</v>
+        <v>247.2</v>
       </c>
       <c r="B82">
-        <v>383221.4140422011</v>
+        <v>591456.8160773788</v>
       </c>
       <c r="C82">
-        <v>23892.90256337289</v>
+        <v>36214.11573321011</v>
       </c>
       <c r="D82">
-        <v>7681.57580019231</v>
+        <v>15883.21815904281</v>
       </c>
       <c r="E82">
-        <v>3212.366873244015</v>
+        <v>7456.213288731855</v>
       </c>
       <c r="F82">
-        <v>713.3325192614839</v>
+        <v>2642.444752380623</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>291.9</v>
+        <v>249.8</v>
       </c>
       <c r="B83">
-        <v>355210.0566814379</v>
+        <v>627763.1831597093</v>
       </c>
       <c r="C83">
-        <v>23914.72357245956</v>
+        <v>38999.53177282825</v>
       </c>
       <c r="D83">
-        <v>6716.54814864455</v>
+        <v>15400.6124576275</v>
       </c>
       <c r="E83">
-        <v>2795.716379381828</v>
+        <v>7316.917146267637</v>
       </c>
       <c r="F83">
-        <v>1309.049999666138</v>
+        <v>2301.583381053818</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>294.2</v>
+        <v>251.8</v>
       </c>
       <c r="B84">
-        <v>337076.9328623012</v>
+        <v>670591.157838425</v>
       </c>
       <c r="C84">
-        <v>26490.5652343439</v>
+        <v>38525.23641868838</v>
       </c>
       <c r="D84">
-        <v>5984.02368766001</v>
+        <v>14058.60807192341</v>
       </c>
       <c r="E84">
-        <v>2997.140942503746</v>
+        <v>6831.304728987478</v>
       </c>
       <c r="F84">
-        <v>980.6462323317926</v>
+        <v>2193.997710802428</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>296.5</v>
+        <v>254.4</v>
       </c>
       <c r="B85">
-        <v>327443.8090431645</v>
+        <v>702897.5249207555</v>
       </c>
       <c r="C85">
-        <v>28876.40689622828</v>
+        <v>36390.65245830653</v>
       </c>
       <c r="D85">
-        <v>9381.499226675442</v>
+        <v>14946.0023705081</v>
       </c>
       <c r="E85">
-        <v>2878.565505625649</v>
+        <v>7542.008586523267</v>
       </c>
       <c r="F85">
-        <v>292.2424649974473</v>
+        <v>2273.136339475619</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>298.8</v>
+        <v>256.7</v>
       </c>
       <c r="B86">
-        <v>303510.6852240277</v>
+        <v>742714.6958012787</v>
       </c>
       <c r="C86">
-        <v>27292.24855811262</v>
+        <v>35741.21280104563</v>
       </c>
       <c r="D86">
-        <v>8118.974765690902</v>
+        <v>13848.69732694842</v>
       </c>
       <c r="E86">
-        <v>3149.99006874756</v>
+        <v>6794.554306651082</v>
       </c>
       <c r="F86">
-        <v>613.8386976631022</v>
+        <v>2338.912818686521</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>301.4</v>
+        <v>258.9</v>
       </c>
       <c r="B87">
-        <v>289799.3278632645</v>
+        <v>772535.467947866</v>
       </c>
       <c r="C87">
-        <v>29274.06956719926</v>
+        <v>35303.48791149179</v>
       </c>
       <c r="D87">
-        <v>8103.947114143135</v>
+        <v>13436.49250267394</v>
       </c>
       <c r="E87">
-        <v>3003.339574885373</v>
+        <v>7294.380647642907</v>
       </c>
       <c r="F87">
-        <v>599.556178067756</v>
+        <v>1963.568581409992</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>303.6</v>
+        <v>261.2</v>
       </c>
       <c r="B88">
-        <v>275758.9485580034</v>
+        <v>795352.638828389</v>
       </c>
       <c r="C88">
-        <v>30297.91811334953</v>
+        <v>35814.04825423089</v>
       </c>
       <c r="D88">
-        <v>7278.923716679645</v>
+        <v>14299.18745911426</v>
       </c>
       <c r="E88">
-        <v>2720.789157001983</v>
+        <v>7676.92636777072</v>
       </c>
       <c r="F88">
-        <v>819.7786614870765</v>
+        <v>1679.345060620891</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>305.9</v>
+        <v>263.8</v>
       </c>
       <c r="B89">
-        <v>250125.8247388666</v>
+        <v>807959.0059107195</v>
       </c>
       <c r="C89">
-        <v>31773.75977523387</v>
+        <v>34029.46429384903</v>
       </c>
       <c r="D89">
-        <v>7406.399255695098</v>
+        <v>13066.58175769894</v>
       </c>
       <c r="E89">
-        <v>2552.213720123894</v>
+        <v>7147.630225306502</v>
       </c>
       <c r="F89">
-        <v>1021.374894152731</v>
+        <v>1158.483689294086</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>308.2</v>
+        <v>266.1</v>
       </c>
       <c r="B90">
-        <v>252992.7009197299</v>
+        <v>789776.1767912427</v>
       </c>
       <c r="C90">
-        <v>31339.60143711822</v>
+        <v>33700.02463658816</v>
       </c>
       <c r="D90">
-        <v>10003.87479471056</v>
+        <v>10579.27671413926</v>
       </c>
       <c r="E90">
-        <v>1673.638283245811</v>
+        <v>6610.175945434317</v>
       </c>
       <c r="F90">
-        <v>872.9711268183862</v>
+        <v>1694.260168504984</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>310.4</v>
+        <v>268.4</v>
       </c>
       <c r="B91">
-        <v>250452.3216144687</v>
+        <v>767293.3476717658</v>
       </c>
       <c r="C91">
-        <v>34313.44998326849</v>
+        <v>32890.5849793273</v>
       </c>
       <c r="D91">
-        <v>7118.851397247068</v>
+        <v>12611.97167057958</v>
       </c>
       <c r="E91">
-        <v>1691.087865362414</v>
+        <v>6892.72166556214</v>
       </c>
       <c r="F91">
-        <v>573.1936102377068</v>
+        <v>1320.036647715887</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>313</v>
+        <v>270.7</v>
       </c>
       <c r="B92">
-        <v>231040.9642537054</v>
+        <v>725910.5185522889</v>
       </c>
       <c r="C92">
-        <v>33445.27099235512</v>
+        <v>27731.14532206643</v>
       </c>
       <c r="D92">
-        <v>8633.823745699308</v>
+        <v>12864.66662701989</v>
       </c>
       <c r="E92">
-        <v>2204.437371500227</v>
+        <v>6475.267385689946</v>
       </c>
       <c r="F92">
-        <v>938.9110906423607</v>
+        <v>1595.813126926789</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>315.3</v>
+        <v>272.9</v>
       </c>
       <c r="B93">
-        <v>212907.8404345688</v>
+        <v>684031.2906988761</v>
       </c>
       <c r="C93">
-        <v>34111.11265423947</v>
+        <v>31633.42043251256</v>
       </c>
       <c r="D93">
-        <v>7121.299284714754</v>
+        <v>13992.46180274538</v>
       </c>
       <c r="E93">
-        <v>1105.861934622138</v>
+        <v>6415.093726681771</v>
       </c>
       <c r="F93">
-        <v>690.5073233080154</v>
+        <v>1280.46888965026</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>317.6</v>
+        <v>275.5</v>
       </c>
       <c r="B94">
-        <v>206774.716615432</v>
+        <v>612537.6577812067</v>
       </c>
       <c r="C94">
-        <v>31516.95431612384</v>
+        <v>30048.8364721307</v>
       </c>
       <c r="D94">
-        <v>6588.7748237302</v>
+        <v>12399.8561013301</v>
       </c>
       <c r="E94">
-        <v>2497.286497744049</v>
+        <v>6705.79758421756</v>
       </c>
       <c r="F94">
-        <v>512.1035559736703</v>
+        <v>1179.607518323451</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>319.9</v>
+        <v>277.5</v>
       </c>
       <c r="B95">
-        <v>198241.5927962953</v>
+        <v>552065.6324599223</v>
       </c>
       <c r="C95">
-        <v>28472.79597800822</v>
+        <v>31004.5411179908</v>
       </c>
       <c r="D95">
-        <v>8906.250362745661</v>
+        <v>11937.85171562602</v>
       </c>
       <c r="E95">
-        <v>2648.711060865959</v>
+        <v>5870.185166937394</v>
       </c>
       <c r="F95">
-        <v>293.6997886393251</v>
+        <v>1342.021848072061</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>322.1</v>
+        <v>280.1</v>
       </c>
       <c r="B96">
-        <v>205701.2134910341</v>
+        <v>503471.9995422528</v>
       </c>
       <c r="C96">
-        <v>26196.64452415843</v>
+        <v>29619.95715760894</v>
       </c>
       <c r="D96">
-        <v>8591.226965282171</v>
+        <v>11405.2460142107</v>
       </c>
       <c r="E96">
-        <v>2446.160642982569</v>
+        <v>5490.889024473182</v>
       </c>
       <c r="F96">
-        <v>833.9222720586492</v>
+        <v>1021.160476745256</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>324.4</v>
+        <v>282.4</v>
       </c>
       <c r="B97">
-        <v>197668.0896718974</v>
+        <v>461189.170422776</v>
       </c>
       <c r="C97">
-        <v>22802.4861860428</v>
+        <v>29980.51750034808</v>
       </c>
       <c r="D97">
-        <v>8038.702504297609</v>
+        <v>12657.94097065103</v>
       </c>
       <c r="E97">
-        <v>3207.58520610448</v>
+        <v>6183.434744601003</v>
       </c>
       <c r="F97">
-        <v>845.5185047243006</v>
+        <v>966.9369559561546</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>327.1</v>
+        <v>284.7</v>
       </c>
       <c r="B98">
-        <v>191363.9877972587</v>
+        <v>434006.3413032991</v>
       </c>
       <c r="C98">
-        <v>22126.30031086357</v>
+        <v>30381.07784308721</v>
       </c>
       <c r="D98">
-        <v>7136.173789228793</v>
+        <v>11280.63592709134</v>
       </c>
       <c r="E98">
-        <v>2714.909693247593</v>
+        <v>6055.980464728811</v>
       </c>
       <c r="F98">
-        <v>372.6097343752886</v>
+        <v>1242.713435167057</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>329.3</v>
+        <v>287</v>
       </c>
       <c r="B99">
-        <v>192523.6084919974</v>
+        <v>410123.5121838222</v>
       </c>
       <c r="C99">
-        <v>23240.14885701381</v>
+        <v>30441.63818582634</v>
       </c>
       <c r="D99">
-        <v>8991.150391765295</v>
+        <v>10683.33088353165</v>
       </c>
       <c r="E99">
-        <v>2272.359275364203</v>
+        <v>5098.526184856626</v>
       </c>
       <c r="F99">
-        <v>282.8322177946091</v>
+        <v>1128.489914377959</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>331.6</v>
+        <v>289.3</v>
       </c>
       <c r="B100">
-        <v>187590.4846728608</v>
+        <v>387840.6830643453</v>
       </c>
       <c r="C100">
-        <v>21525.99051889815</v>
+        <v>30392.19852856545</v>
       </c>
       <c r="D100">
-        <v>8638.625930780756</v>
+        <v>11816.02583997195</v>
       </c>
       <c r="E100">
-        <v>2063.783838486114</v>
+        <v>5571.071904984433</v>
       </c>
       <c r="F100">
-        <v>194.428450460264</v>
+        <v>1054.266393588858</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>333.9</v>
+        <v>291.9</v>
       </c>
       <c r="B101">
-        <v>190257.360853724</v>
+        <v>359547.0501466757</v>
       </c>
       <c r="C101">
-        <v>20301.83218078253</v>
+        <v>30317.6145681836</v>
       </c>
       <c r="D101">
-        <v>8616.101469796195</v>
+        <v>10393.42013855666</v>
       </c>
       <c r="E101">
-        <v>2435.208401608025</v>
+        <v>5121.775762520229</v>
       </c>
       <c r="F101">
-        <v>526.0246831259187</v>
+        <v>1643.405022262053</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>336.2</v>
+        <v>294.2</v>
       </c>
       <c r="B102">
-        <v>184724.2370345873</v>
+        <v>341164.2210271988</v>
       </c>
       <c r="C102">
-        <v>20897.67384266687</v>
+        <v>32808.17491092273</v>
       </c>
       <c r="D102">
-        <v>8073.577008811641</v>
+        <v>9256.115094996956</v>
       </c>
       <c r="E102">
-        <v>1666.632964729943</v>
+        <v>5294.321482648036</v>
       </c>
       <c r="F102">
-        <v>257.6209157915735</v>
+        <v>1309.181501472955</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>338.8</v>
+        <v>296.5</v>
       </c>
       <c r="B103">
-        <v>180412.8796738241</v>
+        <v>331281.3919077219</v>
       </c>
       <c r="C103">
-        <v>19429.49485175351</v>
+        <v>35108.73525366186</v>
       </c>
       <c r="D103">
-        <v>7018.549357263881</v>
+        <v>12248.81005143727</v>
       </c>
       <c r="E103">
-        <v>3229.982470867748</v>
+        <v>5146.867202775851</v>
       </c>
       <c r="F103">
-        <v>383.3383961962274</v>
+        <v>614.9579806838535</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>341.1</v>
+        <v>298.8</v>
       </c>
       <c r="B104">
-        <v>187879.7558546873</v>
+        <v>307098.562788245</v>
       </c>
       <c r="C104">
-        <v>23605.33651363788</v>
+        <v>33439.295596401</v>
       </c>
       <c r="D104">
-        <v>8176.024896279327</v>
+        <v>10581.50500787759</v>
       </c>
       <c r="E104">
-        <v>2721.407033989659</v>
+        <v>5389.412922903665</v>
       </c>
       <c r="F104">
-        <v>524.9346288618822</v>
+        <v>930.7344598947557</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>343.3</v>
+        <v>301.4</v>
       </c>
       <c r="B105">
-        <v>194539.3765494261</v>
+        <v>293104.9298705756</v>
       </c>
       <c r="C105">
-        <v>21609.18505978812</v>
+        <v>35324.71163601914</v>
       </c>
       <c r="D105">
-        <v>9561.001498815851</v>
+        <v>10108.89930646228</v>
       </c>
       <c r="E105">
-        <v>1868.856616106269</v>
+        <v>5210.116780439454</v>
       </c>
       <c r="F105">
-        <v>735.1571122812028</v>
+        <v>909.873088567947</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>345.6</v>
+        <v>303.6</v>
       </c>
       <c r="B106">
-        <v>190306.2527302894</v>
+        <v>278825.7020171628</v>
       </c>
       <c r="C106">
-        <v>20225.02672167247</v>
+        <v>36266.98674646526</v>
       </c>
       <c r="D106">
-        <v>8458.477037831297</v>
+        <v>8896.694482187795</v>
       </c>
       <c r="E106">
-        <v>2680.28117922818</v>
+        <v>4899.943121431272</v>
       </c>
       <c r="F106">
-        <v>536.7533449468576</v>
+        <v>1124.528851291418</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>348.2</v>
+        <v>305.9</v>
       </c>
       <c r="B107">
-        <v>188994.8953695262</v>
+        <v>252942.8728976859</v>
       </c>
       <c r="C107">
-        <v>18686.84773075914</v>
+        <v>37657.5470892044</v>
       </c>
       <c r="D107">
-        <v>8973.449386283544</v>
+        <v>8619.389438628103</v>
       </c>
       <c r="E107">
-        <v>2773.630685365993</v>
+        <v>4702.488841559094</v>
       </c>
       <c r="F107">
-        <v>572.4708253515115</v>
+        <v>1320.305330502321</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>350.5</v>
+        <v>308.2</v>
       </c>
       <c r="B108">
-        <v>192461.7715503896</v>
+        <v>255560.043778209</v>
       </c>
       <c r="C108">
-        <v>18092.68939264351</v>
+        <v>37138.10743194354</v>
       </c>
       <c r="D108">
-        <v>9680.924925298976</v>
+        <v>10812.0843950684</v>
       </c>
       <c r="E108">
-        <v>3045.055248487904</v>
+        <v>3795.034561686902</v>
       </c>
       <c r="F108">
-        <v>624.0670580171663</v>
+        <v>1166.081809713223</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>352.7</v>
+        <v>310.4</v>
       </c>
       <c r="B109">
-        <v>197221.3922451283</v>
+        <v>252780.8159247964</v>
       </c>
       <c r="C109">
-        <v>20806.53793879375</v>
+        <v>40030.38254238963</v>
       </c>
       <c r="D109">
-        <v>13205.90152783548</v>
+        <v>7539.879570793935</v>
       </c>
       <c r="E109">
-        <v>3922.504830604513</v>
+        <v>3784.860902678727</v>
       </c>
       <c r="F109">
-        <v>584.2895414364868</v>
+        <v>860.7375724366907</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="B110">
-        <v>200588.2684259917</v>
+        <v>233087.1830071269</v>
       </c>
       <c r="C110">
-        <v>20842.3796006781</v>
+        <v>39065.79858200777</v>
       </c>
       <c r="D110">
-        <v>12023.37706685094</v>
+        <v>8597.273869378623</v>
       </c>
       <c r="E110">
-        <v>4393.929393726424</v>
+        <v>4265.564760214516</v>
       </c>
       <c r="F110">
-        <v>785.8857741021417</v>
+        <v>1219.876201109885</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>357.3</v>
+        <v>315.3</v>
       </c>
       <c r="B111">
-        <v>218755.1446068549</v>
+        <v>214704.35388765</v>
       </c>
       <c r="C111">
-        <v>22388.22126256247</v>
+        <v>39646.35892474691</v>
       </c>
       <c r="D111">
-        <v>13550.85260586641</v>
+        <v>6679.968825818927</v>
       </c>
       <c r="E111">
-        <v>4525.353956848335</v>
+        <v>3138.11048034233</v>
       </c>
       <c r="F111">
-        <v>527.4820067677965</v>
+        <v>965.6526803207878</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>359.9</v>
+        <v>317.6</v>
       </c>
       <c r="B112">
-        <v>210343.7872460917</v>
+        <v>208321.5247681732</v>
       </c>
       <c r="C112">
-        <v>20930.04227164911</v>
+        <v>36966.91926748604</v>
       </c>
       <c r="D112">
-        <v>11595.82495431864</v>
+        <v>5742.663782259242</v>
       </c>
       <c r="E112">
-        <v>5378.703462986147</v>
+        <v>4500.656200470137</v>
       </c>
       <c r="F112">
-        <v>923.1994871724504</v>
+        <v>781.4291595316863</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>361.9</v>
+        <v>319.9</v>
       </c>
       <c r="B113">
-        <v>208488.8969685815</v>
+        <v>199538.6956486963</v>
       </c>
       <c r="C113">
-        <v>18059.90458633115</v>
+        <v>33837.47961022518</v>
       </c>
       <c r="D113">
-        <v>14215.80368389729</v>
+        <v>7655.358738699564</v>
       </c>
       <c r="E113">
-        <v>5738.203083092156</v>
+        <v>4623.20192059796</v>
       </c>
       <c r="F113">
-        <v>250.6744720991062</v>
+        <v>557.2056387425887</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>364.5</v>
+        <v>322.1</v>
       </c>
       <c r="B114">
-        <v>218077.5396078182</v>
+        <v>206759.4677952835</v>
       </c>
       <c r="C114">
-        <v>18491.72559541782</v>
+        <v>31479.7547206713</v>
       </c>
       <c r="D114">
-        <v>14220.77603234953</v>
+        <v>6953.153914425075</v>
       </c>
       <c r="E114">
-        <v>5851.552589229968</v>
+        <v>4393.028261589778</v>
       </c>
       <c r="F114">
-        <v>586.39195250376</v>
+        <v>1091.86140146606</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>366.8</v>
+        <v>324.4</v>
       </c>
       <c r="B115">
-        <v>210244.4157886816</v>
+        <v>198476.6386758066</v>
       </c>
       <c r="C115">
-        <v>18867.56725730217</v>
+        <v>28000.31506341043</v>
       </c>
       <c r="D115">
-        <v>15868.25157136496</v>
+        <v>5995.848870865379</v>
       </c>
       <c r="E115">
-        <v>7642.977152351879</v>
+        <v>5125.573981717593</v>
       </c>
       <c r="F115">
-        <v>377.9881851694148</v>
+        <v>1097.637880676962</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>369</v>
+        <v>327.1</v>
       </c>
       <c r="B116">
-        <v>230404.0364834203</v>
+        <v>191879.4044920729</v>
       </c>
       <c r="C116">
-        <v>19881.41580345241</v>
+        <v>27224.01633532156</v>
       </c>
       <c r="D116">
-        <v>14913.22817390149</v>
+        <v>4618.142950164871</v>
       </c>
       <c r="E116">
-        <v>7850.426734468489</v>
+        <v>4598.99721838937</v>
       </c>
       <c r="F116">
-        <v>438.2106685887354</v>
+        <v>617.8972258375843</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>371.6</v>
+        <v>329.3</v>
       </c>
       <c r="B117">
-        <v>220192.6791226571</v>
+        <v>192800.1766386603</v>
       </c>
       <c r="C117">
-        <v>17943.23681253907</v>
+        <v>28256.29144576768</v>
       </c>
       <c r="D117">
-        <v>16828.20052235373</v>
+        <v>6085.938125890389</v>
       </c>
       <c r="E117">
-        <v>8473.776240606301</v>
+        <v>4128.823559381195</v>
       </c>
       <c r="F117">
-        <v>323.9281489933892</v>
+        <v>522.5529885610558</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>373.9</v>
+        <v>331.6</v>
       </c>
       <c r="B118">
-        <v>236559.5553035204</v>
+        <v>187617.3475191834</v>
       </c>
       <c r="C118">
-        <v>19869.07847442345</v>
+        <v>26456.85178850682</v>
       </c>
       <c r="D118">
-        <v>20725.67606136919</v>
+        <v>5328.633082330689</v>
       </c>
       <c r="E118">
-        <v>10175.20080372821</v>
+        <v>3891.369279509002</v>
       </c>
       <c r="F118">
-        <v>355.5243816590441</v>
+        <v>428.3294677719543</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>376.2</v>
+        <v>333.9</v>
       </c>
       <c r="B119">
-        <v>241126.4314843837</v>
+        <v>190034.5183997065</v>
       </c>
       <c r="C119">
-        <v>19074.92013630779</v>
+        <v>25147.41213124595</v>
       </c>
       <c r="D119">
-        <v>23813.15160038463</v>
+        <v>4901.328038771007</v>
       </c>
       <c r="E119">
-        <v>11726.62536685012</v>
+        <v>4233.914999636825</v>
       </c>
       <c r="F119">
-        <v>577.1206143246989</v>
+        <v>754.1059469828567</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>378.5</v>
+        <v>336.2</v>
       </c>
       <c r="B120">
-        <v>234493.307665247</v>
+        <v>184251.6892802296</v>
       </c>
       <c r="C120">
-        <v>18190.76179819213</v>
+        <v>25657.97247398509</v>
       </c>
       <c r="D120">
-        <v>22960.62713940009</v>
+        <v>3954.022995211326</v>
       </c>
       <c r="E120">
-        <v>14038.04992997203</v>
+        <v>3436.460719764632</v>
       </c>
       <c r="F120">
-        <v>718.7168469903536</v>
+        <v>479.8824261937589</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>380.8</v>
+        <v>338.8</v>
       </c>
       <c r="B121">
-        <v>240560.1838461102</v>
+        <v>179658.05636256</v>
       </c>
       <c r="C121">
-        <v>16246.60346007651</v>
+        <v>24093.38851360323</v>
       </c>
       <c r="D121">
-        <v>26368.10267841552</v>
+        <v>2441.417293796014</v>
       </c>
       <c r="E121">
-        <v>16409.47449309395</v>
+        <v>4967.16457730042</v>
       </c>
       <c r="F121">
-        <v>880.3130796560085</v>
+        <v>599.0210548669502</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>383.1</v>
+        <v>341.1</v>
       </c>
       <c r="B122">
-        <v>257627.0600269736</v>
+        <v>186875.2272430831</v>
       </c>
       <c r="C122">
-        <v>18932.44512196085</v>
+        <v>28183.94885634234</v>
       </c>
       <c r="D122">
-        <v>30515.57821743098</v>
+        <v>3194.112250236332</v>
       </c>
       <c r="E122">
-        <v>20030.89905621586</v>
+        <v>4429.710297428235</v>
       </c>
       <c r="F122">
-        <v>541.9093123216633</v>
+        <v>734.7975340778523</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>385.3</v>
+        <v>343.3</v>
       </c>
       <c r="B123">
-        <v>272786.6807217124</v>
+        <v>193295.9993896705</v>
       </c>
       <c r="C123">
-        <v>18206.2936681111</v>
+        <v>26106.22396678849</v>
       </c>
       <c r="D123">
-        <v>43390.55481996748</v>
+        <v>4191.907425961832</v>
       </c>
       <c r="E123">
-        <v>24038.34863833247</v>
+        <v>3549.536638420061</v>
       </c>
       <c r="F123">
-        <v>662.1317957409874</v>
+        <v>939.4532968013239</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>387.9</v>
+        <v>345.6</v>
       </c>
       <c r="B124">
-        <v>276675.3233609491</v>
+        <v>188813.1702701936</v>
       </c>
       <c r="C124">
-        <v>18848.11467719776</v>
+        <v>24636.78430952759</v>
       </c>
       <c r="D124">
-        <v>36295.52716841972</v>
+        <v>2684.60238240215</v>
       </c>
       <c r="E124">
-        <v>28001.69814447027</v>
+        <v>4332.082358547867</v>
       </c>
       <c r="F124">
-        <v>797.8492761456378</v>
+        <v>735.2297760122224</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>390.2</v>
+        <v>348.2</v>
       </c>
       <c r="B125">
-        <v>287542.1995418125</v>
+        <v>187219.537352524</v>
       </c>
       <c r="C125">
-        <v>18773.9563390821</v>
+        <v>23002.20034914574</v>
       </c>
       <c r="D125">
-        <v>38833.00270743518</v>
+        <v>2741.99668098686</v>
       </c>
       <c r="E125">
-        <v>35093.12270759219</v>
+        <v>4392.786216083665</v>
       </c>
       <c r="F125">
-        <v>419.4455088112925</v>
+        <v>764.3684046854173</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>392.5</v>
+        <v>350.5</v>
       </c>
       <c r="B126">
-        <v>306909.0757226757</v>
+        <v>190436.7082330471</v>
       </c>
       <c r="C126">
-        <v>20329.79800096645</v>
+        <v>22322.76069188487</v>
       </c>
       <c r="D126">
-        <v>47730.47824645061</v>
+        <v>3044.69163742716</v>
       </c>
       <c r="E126">
-        <v>41484.54727071411</v>
+        <v>4635.331936211471</v>
       </c>
       <c r="F126">
-        <v>311.0417414769474</v>
+        <v>810.1448838963158</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>395.1</v>
+        <v>352.7</v>
       </c>
       <c r="B127">
-        <v>336497.7183619125</v>
+        <v>194957.4803796345</v>
       </c>
       <c r="C127">
-        <v>16281.61901005311</v>
+        <v>24955.035802331</v>
       </c>
       <c r="D127">
-        <v>53385.45059490285</v>
+        <v>6182.486813152664</v>
       </c>
       <c r="E127">
-        <v>49797.89677685191</v>
+        <v>5485.158277203303</v>
       </c>
       <c r="F127">
-        <v>826.7592218816012</v>
+        <v>764.8006466197874</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>397.4</v>
+        <v>355</v>
       </c>
       <c r="B128">
-        <v>386064.5945427757</v>
+        <v>198074.6512601576</v>
       </c>
       <c r="C128">
-        <v>20187.46067193749</v>
+        <v>24905.59614507013</v>
       </c>
       <c r="D128">
-        <v>64182.9261339183</v>
+        <v>4595.181769592979</v>
       </c>
       <c r="E128">
-        <v>64589.32133997382</v>
+        <v>5927.703997331111</v>
       </c>
       <c r="F128">
-        <v>438.355454547256</v>
+        <v>960.5771258306895</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>399.7</v>
+        <v>357.3</v>
       </c>
       <c r="B129">
-        <v>424031.4707236391</v>
+        <v>215991.8221406807</v>
       </c>
       <c r="C129">
-        <v>17403.30233382183</v>
+        <v>26366.15648780926</v>
       </c>
       <c r="D129">
-        <v>71760.40167293376</v>
+        <v>5717.876726033293</v>
       </c>
       <c r="E129">
-        <v>78030.74590309573</v>
+        <v>6030.249717458926</v>
       </c>
       <c r="F129">
-        <v>589.9516872129109</v>
+        <v>696.3536050415917</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>402</v>
+        <v>359.9</v>
       </c>
       <c r="B130">
-        <v>497298.3469045024</v>
+        <v>207298.1892230112</v>
       </c>
       <c r="C130">
-        <v>18669.14399570617</v>
+        <v>24811.57252742741</v>
       </c>
       <c r="D130">
-        <v>84947.87721194919</v>
+        <v>3305.271024617989</v>
       </c>
       <c r="E130">
-        <v>94412.17046621765</v>
+        <v>6850.953574994715</v>
       </c>
       <c r="F130">
-        <v>331.5479198785656</v>
+        <v>1085.492233714783</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>404.2</v>
+        <v>361.9</v>
       </c>
       <c r="B131">
-        <v>536757.9675992411</v>
+        <v>205226.1639017269</v>
       </c>
       <c r="C131">
-        <v>18002.99254185645</v>
+        <v>21867.27717328751</v>
       </c>
       <c r="D131">
-        <v>98082.8538144857</v>
+        <v>5573.26663891393</v>
       </c>
       <c r="E131">
-        <v>110359.6200483342</v>
+        <v>7185.341157714554</v>
       </c>
       <c r="F131">
-        <v>931.7704032978862</v>
+        <v>407.9065634633927</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>406.5</v>
+        <v>364.5</v>
       </c>
       <c r="B132">
-        <v>623524.8437801043</v>
+        <v>214532.5309840575</v>
       </c>
       <c r="C132">
-        <v>19758.83420374079</v>
+        <v>22202.69321290565</v>
       </c>
       <c r="D132">
-        <v>116020.3293535012</v>
+        <v>5120.660937498622</v>
       </c>
       <c r="E132">
-        <v>131351.0446114561</v>
+        <v>7266.045015250336</v>
       </c>
       <c r="F132">
-        <v>723.3666359635411</v>
+        <v>737.0451921365875</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>409.1</v>
+        <v>366.8</v>
       </c>
       <c r="B133">
-        <v>691413.4864193411</v>
+        <v>206449.7018645804</v>
       </c>
       <c r="C133">
-        <v>17070.65521282742</v>
+        <v>22493.25355564478</v>
       </c>
       <c r="D133">
-        <v>133035.3017019534</v>
+        <v>6363.355893938908</v>
       </c>
       <c r="E133">
-        <v>150354.394117594</v>
+        <v>9028.590735378151</v>
       </c>
       <c r="F133">
-        <v>1259.084116368195</v>
+        <v>522.8216713474897</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>411.4</v>
+        <v>369</v>
       </c>
       <c r="B134">
-        <v>792280.3626002045</v>
+        <v>226370.4740111678</v>
       </c>
       <c r="C134">
-        <v>19056.4968747118</v>
+        <v>23425.52866609091</v>
       </c>
       <c r="D134">
-        <v>159782.7772409688</v>
+        <v>5021.151069664425</v>
       </c>
       <c r="E134">
-        <v>178655.8186807159</v>
+        <v>9208.417076369977</v>
       </c>
       <c r="F134">
-        <v>1010.68034903385</v>
+        <v>577.4774340709575</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>413.6</v>
+        <v>371.6</v>
       </c>
       <c r="B135">
-        <v>885639.9832949431</v>
+        <v>215876.8410934983</v>
       </c>
       <c r="C135">
-        <v>19600.34542086204</v>
+        <v>21390.94470570905</v>
       </c>
       <c r="D135">
-        <v>188377.7538435054</v>
+        <v>6478.545368249142</v>
       </c>
       <c r="E135">
-        <v>204083.2682628325</v>
+        <v>9799.120933905766</v>
       </c>
       <c r="F135">
-        <v>970.9028324531739</v>
+        <v>456.6160627441523</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>415.9</v>
+        <v>373.9</v>
       </c>
       <c r="B136">
-        <v>971706.8594758065</v>
+        <v>231994.0119740214</v>
       </c>
       <c r="C136">
-        <v>18006.18708274639</v>
+        <v>23231.50504844819</v>
       </c>
       <c r="D136">
-        <v>216295.2293825208</v>
+        <v>9971.240324689436</v>
       </c>
       <c r="E136">
-        <v>244824.6928259544</v>
+        <v>11471.66665403358</v>
       </c>
       <c r="F136">
-        <v>1352.499065118825</v>
+        <v>482.3925419550511</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>418.5</v>
+        <v>376.2</v>
       </c>
       <c r="B137">
-        <v>1111195.502115043</v>
+        <v>236311.1828545445</v>
       </c>
       <c r="C137">
-        <v>17558.00809183305</v>
+        <v>22352.06539118732</v>
       </c>
       <c r="D137">
-        <v>247800.2017309731</v>
+        <v>12653.93528112975</v>
       </c>
       <c r="E137">
-        <v>307418.0423320922</v>
+        <v>12994.21237416139</v>
       </c>
       <c r="F137">
-        <v>1478.216545523479</v>
+        <v>698.1690211659534</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>420.8</v>
+        <v>378.5</v>
       </c>
       <c r="B138">
-        <v>1356662.378295907</v>
+        <v>229428.3537350677</v>
       </c>
       <c r="C138">
-        <v>22993.84975371739</v>
+        <v>21382.62573392646</v>
       </c>
       <c r="D138">
-        <v>291917.6772699885</v>
+        <v>11396.63023757007</v>
       </c>
       <c r="E138">
-        <v>445759.4668952142</v>
+        <v>15276.7580942892</v>
       </c>
       <c r="F138">
-        <v>2049.812778189133</v>
+        <v>833.9455003768555</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>423</v>
+        <v>380.8</v>
       </c>
       <c r="B139">
-        <v>1860921.998990645</v>
+        <v>235245.5246155908</v>
       </c>
       <c r="C139">
-        <v>20127.69829986764</v>
+        <v>19353.18607666556</v>
       </c>
       <c r="D139">
-        <v>339892.653872525</v>
+        <v>14399.32519401038</v>
       </c>
       <c r="E139">
-        <v>828266.9164773307</v>
+        <v>17619.30381441702</v>
       </c>
       <c r="F139">
-        <v>2620.035261608454</v>
+        <v>989.7219795877577</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>425.3</v>
+        <v>383.1</v>
       </c>
       <c r="B140">
-        <v>3149288.875171509</v>
+        <v>252062.6954961139</v>
       </c>
       <c r="C140">
-        <v>20043.53996175201</v>
+        <v>21953.7464194047</v>
       </c>
       <c r="D140">
-        <v>395380.1294115406</v>
+        <v>18142.02015045067</v>
       </c>
       <c r="E140">
-        <v>1174788.341040453</v>
+        <v>21211.84953454483</v>
       </c>
       <c r="F140">
-        <v>2431.631494274109</v>
+        <v>645.4984587986564</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>427.5</v>
+        <v>385.3</v>
       </c>
       <c r="B141">
-        <v>3381648.495866247</v>
+        <v>266983.4676427012</v>
       </c>
       <c r="C141">
-        <v>23197.38850790226</v>
+        <v>21146.02152985082</v>
       </c>
       <c r="D141">
-        <v>405225.106014077</v>
+        <v>30629.81532617619</v>
       </c>
       <c r="E141">
-        <v>555845.7906225693</v>
+        <v>25191.67587553666</v>
       </c>
       <c r="F141">
-        <v>1701.853977693433</v>
+        <v>760.1542215221277</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>430.1</v>
+        <v>387.9</v>
       </c>
       <c r="B142">
-        <v>2050237.138505484</v>
+        <v>270589.8347250317</v>
       </c>
       <c r="C142">
-        <v>23429.20951698892</v>
+        <v>21691.43756946897</v>
       </c>
       <c r="D142">
-        <v>378750.0783625292</v>
+        <v>23077.20962476091</v>
       </c>
       <c r="E142">
-        <v>237479.1401287071</v>
+        <v>29122.37973307244</v>
       </c>
       <c r="F142">
-        <v>1007.571458098087</v>
+        <v>889.292850195319</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>432.4</v>
+        <v>390.2</v>
       </c>
       <c r="B143">
-        <v>1173404.014686347</v>
+        <v>281207.0056055547</v>
       </c>
       <c r="C143">
-        <v>18255.05117887327</v>
+        <v>21531.9979122081</v>
       </c>
       <c r="D143">
-        <v>349447.5539015447</v>
+        <v>25209.9045812012</v>
       </c>
       <c r="E143">
-        <v>127250.564691829</v>
+        <v>36184.92545320027</v>
       </c>
       <c r="F143">
-        <v>619.167690763742</v>
+        <v>505.0693294062214</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>434.7</v>
+        <v>392.5</v>
       </c>
       <c r="B144">
-        <v>806170.8908672109</v>
+        <v>300324.1764860778</v>
       </c>
       <c r="C144">
-        <v>22250.89284075764</v>
+        <v>23002.55825494723</v>
       </c>
       <c r="D144">
-        <v>333115.0294405601</v>
+        <v>33702.59953764151</v>
       </c>
       <c r="E144">
-        <v>94831.98925495088</v>
+        <v>42547.47117332807</v>
       </c>
       <c r="F144">
-        <v>1010.763923429397</v>
+        <v>390.8458086171236</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>436.9</v>
+        <v>395.1</v>
       </c>
       <c r="B145">
-        <v>652630.5115619497</v>
+        <v>329630.5435684083</v>
       </c>
       <c r="C145">
-        <v>21034.74138690788</v>
+        <v>18857.97429456537</v>
       </c>
       <c r="D145">
-        <v>305460.0060430967</v>
+        <v>38899.9938362262</v>
       </c>
       <c r="E145">
-        <v>77109.4388370675</v>
+        <v>50828.17503086386</v>
       </c>
       <c r="F145">
-        <v>550.9864068487175</v>
+        <v>899.9844372903146</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>439.2</v>
+        <v>397.4</v>
       </c>
       <c r="B146">
-        <v>559297.387742813</v>
+        <v>378947.7144489314</v>
       </c>
       <c r="C146">
-        <v>18460.58304879223</v>
+        <v>22678.53463730448</v>
       </c>
       <c r="D146">
-        <v>273857.481582112</v>
+        <v>49292.68879266652</v>
       </c>
       <c r="E146">
-        <v>67820.86340018942</v>
+        <v>65590.72075099166</v>
       </c>
       <c r="F146">
-        <v>382.5826395143722</v>
+        <v>505.7609165012171</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>441.5</v>
+        <v>399.7</v>
       </c>
       <c r="B147">
-        <v>522364.2639236763</v>
+        <v>416664.8853294545</v>
       </c>
       <c r="C147">
-        <v>17726.4247106766</v>
+        <v>19809.09498004365</v>
       </c>
       <c r="D147">
-        <v>251504.9571211275</v>
+        <v>56465.38374910684</v>
       </c>
       <c r="E147">
-        <v>63222.28796331133</v>
+        <v>79003.26647111948</v>
       </c>
       <c r="F147">
-        <v>1114.178872180027</v>
+        <v>651.5373957121192</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="B148">
-        <v>500045.6510767885</v>
+        <v>489682.0562099776</v>
       </c>
       <c r="C148">
-        <v>20626.25260402914</v>
+        <v>20989.65532278275</v>
       </c>
       <c r="D148">
-        <v>227537.4305331008</v>
+        <v>69248.07870554716</v>
       </c>
       <c r="E148">
-        <v>56391.66248844384</v>
+        <v>95355.8121912473</v>
       </c>
       <c r="F148">
-        <v>748.5226033383467</v>
+        <v>387.3138749230179</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>446.3</v>
+        <v>404.2</v>
       </c>
       <c r="B149">
-        <v>450912.5272576518</v>
+        <v>528902.828356565</v>
       </c>
       <c r="C149">
-        <v>19082.09426591348</v>
+        <v>20241.93043322888</v>
       </c>
       <c r="D149">
-        <v>202494.9060721163</v>
+        <v>81995.87388127268</v>
       </c>
       <c r="E149">
-        <v>51833.08705156575</v>
+        <v>111275.6385322391</v>
       </c>
       <c r="F149">
-        <v>710.1188360040014</v>
+        <v>981.9696376464892</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>448.6</v>
+        <v>406.5</v>
       </c>
       <c r="B150">
-        <v>425779.403438515</v>
+        <v>615419.9992370881</v>
       </c>
       <c r="C150">
-        <v>19217.93592779785</v>
+        <v>21912.49077596801</v>
       </c>
       <c r="D150">
-        <v>176922.3816111318</v>
+        <v>99528.56883771296</v>
       </c>
       <c r="E150">
-        <v>47534.51161468765</v>
+        <v>132238.1842523669</v>
       </c>
       <c r="F150">
-        <v>581.7150686696563</v>
+        <v>767.7461168573916</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>450.8</v>
+        <v>409.1</v>
       </c>
       <c r="B151">
-        <v>382139.0241332539</v>
+        <v>683026.3663194187</v>
       </c>
       <c r="C151">
-        <v>16301.7844739481</v>
+        <v>19127.90681558615</v>
       </c>
       <c r="D151">
-        <v>154377.3582136682</v>
+        <v>116085.9631362977</v>
       </c>
       <c r="E151">
-        <v>41741.96119680427</v>
+        <v>151208.8881099027</v>
       </c>
       <c r="F151">
-        <v>1341.937552088981</v>
+        <v>1296.884745530583</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>453.1</v>
+        <v>411.4</v>
       </c>
       <c r="B152">
-        <v>365405.9003141171</v>
+        <v>783643.5371999418</v>
       </c>
       <c r="C152">
-        <v>21177.62613583244</v>
+        <v>21028.46715832529</v>
       </c>
       <c r="D152">
-        <v>139574.8337526837</v>
+        <v>142428.658092738</v>
       </c>
       <c r="E152">
-        <v>41773.38575992618</v>
+        <v>179481.4338300305</v>
       </c>
       <c r="F152">
-        <v>73.53378475463524</v>
+        <v>1042.661224741485</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>455.7</v>
+        <v>413.6</v>
       </c>
       <c r="B153">
-        <v>327394.542953354</v>
+        <v>876764.309346529</v>
       </c>
       <c r="C153">
-        <v>18459.44714491911</v>
+        <v>21490.74226877141</v>
       </c>
       <c r="D153">
-        <v>122799.8061011359</v>
+        <v>170636.4532684635</v>
       </c>
       <c r="E153">
-        <v>37346.735266064</v>
+        <v>204881.2601710224</v>
       </c>
       <c r="F153">
-        <v>839.2512651592856</v>
+        <v>997.3169874649564</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>458</v>
+        <v>415.9</v>
       </c>
       <c r="B154">
-        <v>294661.4191342173</v>
+        <v>962581.4802270521</v>
       </c>
       <c r="C154">
-        <v>16025.28880680345</v>
+        <v>19811.30261151052</v>
       </c>
       <c r="D154">
-        <v>111897.2816401514</v>
+        <v>198149.1482249038</v>
       </c>
       <c r="E154">
-        <v>34938.15982918591</v>
+        <v>245593.8058911501</v>
       </c>
       <c r="F154">
-        <v>690.8474978249403</v>
+        <v>1373.093466675859</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>460.3</v>
+        <v>418.5</v>
       </c>
       <c r="B155">
-        <v>277828.2953150806</v>
+        <v>1101787.847309383</v>
       </c>
       <c r="C155">
-        <v>19651.1304686878</v>
+        <v>19266.71865112866</v>
       </c>
       <c r="D155">
-        <v>104814.7571791668</v>
+        <v>229196.5425234885</v>
       </c>
       <c r="E155">
-        <v>34719.58439230781</v>
+        <v>308154.5097486859</v>
       </c>
       <c r="F155">
-        <v>462.443730490595</v>
+        <v>1492.23209534905</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>462.6</v>
+        <v>420.8</v>
       </c>
       <c r="B156">
-        <v>278995.1714959438</v>
+        <v>1347005.018189906</v>
       </c>
       <c r="C156">
-        <v>21056.97213057217</v>
+        <v>24617.27899386783</v>
       </c>
       <c r="D156">
-        <v>104052.2327181823</v>
+        <v>272909.2374799288</v>
       </c>
       <c r="E156">
-        <v>33131.00895542972</v>
+        <v>446467.0554688137</v>
       </c>
       <c r="F156">
-        <v>774.03996315625</v>
+        <v>2058.008574559952</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>464.9</v>
+        <v>423</v>
       </c>
       <c r="B157">
-        <v>265262.047676807</v>
+        <v>1851025.790336493</v>
       </c>
       <c r="C157">
-        <v>18702.81379245654</v>
+        <v>21669.55410431392</v>
       </c>
       <c r="D157">
-        <v>101619.7082571977</v>
+        <v>320497.0326556543</v>
       </c>
       <c r="E157">
-        <v>30682.43351855164</v>
+        <v>828946.8818098056</v>
       </c>
       <c r="F157">
-        <v>715.6361958219047</v>
+        <v>2622.664337283424</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>467.5</v>
+        <v>425.3</v>
       </c>
       <c r="B158">
-        <v>241550.6903160439</v>
+        <v>3139142.961217016</v>
       </c>
       <c r="C158">
-        <v>14804.63480154318</v>
+        <v>21500.11444705305</v>
       </c>
       <c r="D158">
-        <v>93054.68060564998</v>
+        <v>375579.7276120946</v>
       </c>
       <c r="E158">
-        <v>27275.78302468945</v>
+        <v>1175439.427529933</v>
       </c>
       <c r="F158">
-        <v>821.3536762265586</v>
+        <v>2428.440816494322</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>469.4</v>
+        <v>427.5</v>
       </c>
       <c r="B159">
-        <v>232288.5445524091</v>
+        <v>3371263.733363604</v>
       </c>
       <c r="C159">
-        <v>17962.50400049113</v>
+        <v>24572.38955749918</v>
       </c>
       <c r="D159">
-        <v>93552.16039874968</v>
+        <v>385037.5227878201</v>
       </c>
       <c r="E159">
-        <v>27711.30766379016</v>
+        <v>556469.2538709253</v>
       </c>
       <c r="F159">
-        <v>617.4549119068802</v>
+        <v>1693.096579217794</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>472</v>
+        <v>430.1</v>
       </c>
       <c r="B160">
-        <v>216677.1871916459</v>
+        <v>2039570.100445934</v>
       </c>
       <c r="C160">
-        <v>15584.32500957779</v>
+        <v>24707.80559711732</v>
       </c>
       <c r="D160">
-        <v>89317.13274720195</v>
+        <v>358104.9170864049</v>
       </c>
       <c r="E160">
-        <v>25504.65716992797</v>
+        <v>238069.957728461</v>
       </c>
       <c r="F160">
-        <v>863.1723923115339</v>
+        <v>992.2352078909882</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>474.3</v>
+        <v>432.4</v>
       </c>
       <c r="B161">
-        <v>217644.0633725092</v>
+        <v>1162487.271326457</v>
       </c>
       <c r="C161">
-        <v>18530.16667146214</v>
+        <v>19448.36593985646</v>
       </c>
       <c r="D161">
-        <v>93554.60828621738</v>
+        <v>328397.6120428452</v>
       </c>
       <c r="E161">
-        <v>26876.08173304989</v>
+        <v>127812.5034485888</v>
       </c>
       <c r="F161">
-        <v>1414.768624977189</v>
+        <v>598.011687101887</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>476.6</v>
+        <v>434.7</v>
       </c>
       <c r="B162">
-        <v>233210.9395533725</v>
+        <v>795004.4422069801</v>
       </c>
       <c r="C162">
-        <v>18336.00833334648</v>
+        <v>23358.92628259559</v>
       </c>
       <c r="D162">
-        <v>90392.08382523281</v>
+        <v>311660.3069992855</v>
       </c>
       <c r="E162">
-        <v>24497.50629617179</v>
+        <v>95365.04916871667</v>
       </c>
       <c r="F162">
-        <v>1046.364857642844</v>
+        <v>983.7881663127894</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>479.2</v>
+        <v>436.9</v>
       </c>
       <c r="B163">
-        <v>205399.5821926092</v>
+        <v>641225.2143535676</v>
       </c>
       <c r="C163">
-        <v>17667.82934243315</v>
+        <v>22061.20139304171</v>
       </c>
       <c r="D163">
-        <v>84507.05617368508</v>
+        <v>283618.102175011</v>
       </c>
       <c r="E163">
-        <v>23060.85580230961</v>
+        <v>77614.87550970846</v>
       </c>
       <c r="F163">
-        <v>1222.082338047498</v>
+        <v>518.443929036257</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>481.8</v>
+        <v>439.2</v>
       </c>
       <c r="B164">
-        <v>187688.224831846</v>
+        <v>547642.3852340907</v>
       </c>
       <c r="C164">
-        <v>16729.65035151981</v>
+        <v>19401.76173578085</v>
       </c>
       <c r="D164">
-        <v>83762.02852213731</v>
+        <v>251610.7971314513</v>
       </c>
       <c r="E164">
-        <v>20104.20530844741</v>
+        <v>68297.42122983628</v>
       </c>
       <c r="F164">
-        <v>787.7998184521514</v>
+        <v>344.2204082471594</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>484.1</v>
+        <v>441.5</v>
       </c>
       <c r="B165">
-        <v>177955.1010127093</v>
+        <v>510459.5561146137</v>
       </c>
       <c r="C165">
-        <v>14385.49201340415</v>
+        <v>18582.32207851995</v>
       </c>
       <c r="D165">
-        <v>83569.50406115274</v>
+        <v>228853.4920878916</v>
       </c>
       <c r="E165">
-        <v>21695.62987156933</v>
+        <v>63669.96694996409</v>
       </c>
       <c r="F165">
-        <v>699.3960511178061</v>
+        <v>1069.996887458062</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>486.3</v>
+        <v>444</v>
       </c>
       <c r="B166">
-        <v>184814.7217074481</v>
+        <v>487869.5244630084</v>
       </c>
       <c r="C166">
-        <v>17739.3405595544</v>
+        <v>21389.45288584508</v>
       </c>
       <c r="D166">
-        <v>84854.48066368928</v>
+        <v>204445.9866057615</v>
       </c>
       <c r="E166">
-        <v>20103.07945368594</v>
+        <v>56807.9514283639</v>
       </c>
       <c r="F166">
-        <v>929.6185345371267</v>
+        <v>698.014799643822</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>488.6</v>
+        <v>446.3</v>
       </c>
       <c r="B167">
-        <v>163181.5978883114</v>
+        <v>438486.6953435315</v>
       </c>
       <c r="C167">
-        <v>15255.18222143877</v>
+        <v>19760.01322858425</v>
       </c>
       <c r="D167">
-        <v>77941.95620270474</v>
+        <v>178998.6815622018</v>
       </c>
       <c r="E167">
-        <v>18194.50401680785</v>
+        <v>52220.49714849171</v>
       </c>
       <c r="F167">
-        <v>861.2147672027816</v>
+        <v>653.7912788547242</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>491.2</v>
+        <v>448.6</v>
       </c>
       <c r="B168">
-        <v>169770.2405275481</v>
+        <v>413103.8662240546</v>
       </c>
       <c r="C168">
-        <v>14487.00323052544</v>
+        <v>19810.57357132335</v>
       </c>
       <c r="D168">
-        <v>79226.92855115698</v>
+        <v>153021.3765186421</v>
       </c>
       <c r="E168">
-        <v>17967.85352294566</v>
+        <v>47893.04286861952</v>
       </c>
       <c r="F168">
-        <v>766.9322476074354</v>
+        <v>519.5677580656263</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>493.4</v>
+        <v>450.8</v>
       </c>
       <c r="B169">
-        <v>146929.861222287</v>
+        <v>369224.6383706419</v>
       </c>
       <c r="C169">
-        <v>12630.85177667566</v>
+        <v>16812.84868176948</v>
       </c>
       <c r="D169">
-        <v>73951.90515369347</v>
+        <v>130089.1716943676</v>
       </c>
       <c r="E169">
-        <v>16795.30310506227</v>
+        <v>42072.86920961134</v>
       </c>
       <c r="F169">
-        <v>1107.154731026756</v>
+        <v>1274.223520789098</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>495.7</v>
+        <v>453.1</v>
       </c>
       <c r="B170">
-        <v>150896.7374031502</v>
+        <v>352241.809251165</v>
       </c>
       <c r="C170">
-        <v>17366.69343856003</v>
+        <v>21603.40902450861</v>
       </c>
       <c r="D170">
-        <v>76049.3806927089</v>
+        <v>114881.866650808</v>
       </c>
       <c r="E170">
-        <v>15836.72766818418</v>
+        <v>42075.41492973916</v>
       </c>
       <c r="F170">
-        <v>1178.750963692411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>498</v>
+        <v>455.7</v>
       </c>
       <c r="B171">
-        <v>150663.6135840136</v>
+        <v>313948.1763334955</v>
       </c>
       <c r="C171">
-        <v>15102.53510044437</v>
+        <v>18788.82506412676</v>
       </c>
       <c r="D171">
-        <v>73146.85623172436</v>
+        <v>97649.26094939266</v>
       </c>
       <c r="E171">
-        <v>15908.1522313061</v>
+        <v>37616.11878727495</v>
       </c>
       <c r="F171">
-        <v>640.3471963580656</v>
+        <v>759.1386286731913</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>500.2</v>
+        <v>458</v>
       </c>
       <c r="B172">
-        <v>132723.2342787523</v>
+        <v>280965.3472140186</v>
       </c>
       <c r="C172">
-        <v>13916.38364659462</v>
+        <v>16269.38540686589</v>
       </c>
       <c r="D172">
-        <v>73071.8328342609</v>
+        <v>86341.95590583296</v>
       </c>
       <c r="E172">
-        <v>13035.6018134227</v>
+        <v>35178.66450740276</v>
       </c>
       <c r="F172">
-        <v>610.5696797773899</v>
+        <v>604.9151078840937</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>502.9</v>
+        <v>460.3</v>
       </c>
       <c r="B173">
-        <v>119119.1324041136</v>
+        <v>263882.5180945418</v>
       </c>
       <c r="C173">
-        <v>12110.19777141538</v>
+        <v>19809.94574960502</v>
       </c>
       <c r="D173">
-        <v>68499.30411919206</v>
+        <v>78854.65086227327</v>
       </c>
       <c r="E173">
-        <v>11122.92630056582</v>
+        <v>34931.21022753058</v>
       </c>
       <c r="F173">
-        <v>657.6609094283743</v>
+        <v>370.6915870949958</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>504.8</v>
+        <v>462.6</v>
       </c>
       <c r="B174">
-        <v>133556.986640479</v>
+        <v>264799.6889750649</v>
       </c>
       <c r="C174">
-        <v>15788.06697036333</v>
+        <v>21130.50609234413</v>
       </c>
       <c r="D174">
-        <v>72396.78391229176</v>
+        <v>77687.3458187136</v>
       </c>
       <c r="E174">
-        <v>14058.45093966652</v>
+        <v>33313.75594765839</v>
       </c>
       <c r="F174">
-        <v>723.7621451086994</v>
+        <v>676.4680663058946</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>507.1</v>
+        <v>464.9</v>
       </c>
       <c r="B175">
-        <v>124223.8628213422</v>
+        <v>250816.859855588</v>
       </c>
       <c r="C175">
-        <v>13983.90863224767</v>
+        <v>18691.06643508327</v>
       </c>
       <c r="D175">
-        <v>68424.25945130723</v>
+        <v>74850.0407751539</v>
       </c>
       <c r="E175">
-        <v>11439.87550278844</v>
+        <v>30836.3016677862</v>
       </c>
       <c r="F175">
-        <v>735.3583777743543</v>
+        <v>612.244545516797</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>509.6</v>
+        <v>467.5</v>
       </c>
       <c r="B176">
-        <v>107605.2499744544</v>
+        <v>226823.2269379184</v>
       </c>
       <c r="C176">
-        <v>11173.73652560024</v>
+        <v>14696.48247470141</v>
       </c>
       <c r="D176">
-        <v>67116.73286328054</v>
+        <v>65827.43507373858</v>
       </c>
       <c r="E176">
-        <v>11669.25002792094</v>
+        <v>27397.00552532199</v>
       </c>
       <c r="F176">
-        <v>749.7021089326738</v>
+        <v>711.383174189988</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>511.9</v>
+        <v>469.4</v>
       </c>
       <c r="B177">
-        <v>111072.1261553178</v>
+        <v>217354.8028826983</v>
       </c>
       <c r="C177">
-        <v>11139.57818748461</v>
+        <v>17783.90188826853</v>
       </c>
       <c r="D177">
-        <v>62914.20840229599</v>
+        <v>65990.53090731973</v>
       </c>
       <c r="E177">
-        <v>9660.67459104286</v>
+        <v>27808.67372890584</v>
       </c>
       <c r="F177">
-        <v>761.2983415983251</v>
+        <v>502.6767874511669</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>514.2</v>
+        <v>472</v>
       </c>
       <c r="B178">
-        <v>108439.0023361811</v>
+        <v>201461.1699650289</v>
       </c>
       <c r="C178">
-        <v>13805.41984936893</v>
+        <v>15309.31792788667</v>
       </c>
       <c r="D178">
-        <v>66511.68394131144</v>
+        <v>61297.92520590442</v>
       </c>
       <c r="E178">
-        <v>9862.099154164764</v>
+        <v>25569.37758644162</v>
       </c>
       <c r="F178">
-        <v>1112.894574263983</v>
+        <v>741.8154161243617</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>516.7</v>
+        <v>474.3</v>
       </c>
       <c r="B179">
-        <v>102520.3894892933</v>
+        <v>202178.340845552</v>
       </c>
       <c r="C179">
-        <v>12805.24774272149</v>
+        <v>18169.8782706258</v>
       </c>
       <c r="D179">
-        <v>60964.15735328475</v>
+        <v>65130.62016234471</v>
       </c>
       <c r="E179">
-        <v>7151.473679297276</v>
+        <v>26911.92330656944</v>
       </c>
       <c r="F179">
-        <v>567.238305422303</v>
+        <v>1287.591895335264</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>518.7</v>
+        <v>476.6</v>
       </c>
       <c r="B180">
-        <v>83565.4992117832</v>
+        <v>217495.5117260751</v>
       </c>
       <c r="C180">
-        <v>11985.11005740354</v>
+        <v>17890.43861336491</v>
       </c>
       <c r="D180">
-        <v>63574.13608286339</v>
+        <v>61563.31511878502</v>
       </c>
       <c r="E180">
-        <v>9510.973299403284</v>
+        <v>24504.46902669725</v>
       </c>
       <c r="F180">
-        <v>1334.713290348959</v>
+        <v>913.3683745461626</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>521.3</v>
+        <v>479.2</v>
       </c>
       <c r="B181">
-        <v>78254.14185101993</v>
+        <v>189401.8788084055</v>
       </c>
       <c r="C181">
-        <v>10076.93106649022</v>
+        <v>17125.85465298305</v>
       </c>
       <c r="D181">
-        <v>56489.10843131563</v>
+        <v>55220.70941736975</v>
       </c>
       <c r="E181">
-        <v>8384.322805541105</v>
+        <v>23035.17288423304</v>
       </c>
       <c r="F181">
-        <v>850.4307707536127</v>
+        <v>1082.507003219357</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>523.6</v>
+        <v>481.8</v>
       </c>
       <c r="B182">
-        <v>72821.0180318832</v>
+        <v>171408.245890736</v>
       </c>
       <c r="C182">
-        <v>10682.77272837456</v>
+        <v>16091.27069260119</v>
       </c>
       <c r="D182">
-        <v>60646.58397033111</v>
+        <v>54018.10371595441</v>
       </c>
       <c r="E182">
-        <v>14805.74736866301</v>
+        <v>20045.87674176883</v>
       </c>
       <c r="F182">
-        <v>1572.027003419268</v>
+        <v>641.6456318925484</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>526.5</v>
+        <v>484.1</v>
       </c>
       <c r="B183">
-        <v>79531.42712949344</v>
+        <v>161425.4167712591</v>
       </c>
       <c r="C183">
-        <v>14060.57308466352</v>
+        <v>13661.83103534034</v>
       </c>
       <c r="D183">
-        <v>59959.05312822014</v>
+        <v>53420.79867239473</v>
       </c>
       <c r="E183">
-        <v>7421.021817816731</v>
+        <v>21608.42246189664</v>
       </c>
       <c r="F183">
-        <v>1271.865731562917</v>
+        <v>547.4221111034508</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>528.8</v>
+        <v>486.3</v>
       </c>
       <c r="B184">
-        <v>68698.30331035668</v>
+        <v>168046.1889178465</v>
       </c>
       <c r="C184">
-        <v>10286.41474654789</v>
+        <v>16934.10614578645</v>
       </c>
       <c r="D184">
-        <v>55956.52866723556</v>
+        <v>54318.59384812024</v>
       </c>
       <c r="E184">
-        <v>6292.446380938634</v>
+        <v>19988.24880288847</v>
       </c>
       <c r="F184">
-        <v>783.4619642285718</v>
+        <v>772.0778738269223</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>531</v>
+        <v>488.6</v>
       </c>
       <c r="B185">
-        <v>67057.92400509553</v>
+        <v>146163.3597983696</v>
       </c>
       <c r="C185">
-        <v>10070.26329269813</v>
+        <v>14364.66648852559</v>
       </c>
       <c r="D185">
-        <v>56241.5052697721</v>
+        <v>47001.28880456055</v>
       </c>
       <c r="E185">
-        <v>6119.895963055251</v>
+        <v>18050.79452301628</v>
       </c>
       <c r="F185">
-        <v>513.6844476478959</v>
+        <v>697.8543530378208</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>533.6</v>
+        <v>491.2</v>
       </c>
       <c r="B186">
-        <v>58946.56664433229</v>
+        <v>152469.7268807</v>
       </c>
       <c r="C186">
-        <v>9302.084301784769</v>
+        <v>13500.08252814374</v>
       </c>
       <c r="D186">
-        <v>53936.47761822435</v>
+        <v>47828.68310314525</v>
       </c>
       <c r="E186">
-        <v>5883.245469193057</v>
+        <v>17791.49838055207</v>
       </c>
       <c r="F186">
-        <v>1419.401928052546</v>
+        <v>596.9929817110158</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>535.9</v>
+        <v>493.4</v>
       </c>
       <c r="B187">
-        <v>66613.44282519555</v>
+        <v>129390.4990272873</v>
       </c>
       <c r="C187">
-        <v>15577.92596366914</v>
+        <v>11562.35763858987</v>
       </c>
       <c r="D187">
-        <v>56143.95315723977</v>
+        <v>42166.47827887077</v>
       </c>
       <c r="E187">
-        <v>6244.670032314974</v>
+        <v>16591.32472154389</v>
       </c>
       <c r="F187">
-        <v>760.998160718201</v>
+        <v>931.6487444344871</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>538.1</v>
+        <v>495.7</v>
       </c>
       <c r="B188">
-        <v>56873.06351993439</v>
+        <v>133107.6699078105</v>
       </c>
       <c r="C188">
-        <v>13201.77450981938</v>
+        <v>16212.91798132899</v>
       </c>
       <c r="D188">
-        <v>53938.92975977628</v>
+        <v>43859.17323531108</v>
       </c>
       <c r="E188">
-        <v>4572.119614431577</v>
+        <v>15603.8704416717</v>
       </c>
       <c r="F188">
-        <v>861.2206441375251</v>
+        <v>997.4252236453858</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>540.4</v>
+        <v>498</v>
       </c>
       <c r="B189">
-        <v>46039.93970079764</v>
+        <v>132624.8407883336</v>
       </c>
       <c r="C189">
-        <v>10497.61617170373</v>
+        <v>13863.47832406812</v>
       </c>
       <c r="D189">
-        <v>51906.40529879174</v>
+        <v>40551.8681917514</v>
       </c>
       <c r="E189">
-        <v>5113.544177553496</v>
+        <v>15646.41616179952</v>
       </c>
       <c r="F189">
-        <v>1262.81687680318</v>
+        <v>453.2017028562879</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>542.7</v>
+        <v>500.2</v>
       </c>
       <c r="B190">
-        <v>57106.81588166091</v>
+        <v>114445.6129349209</v>
       </c>
       <c r="C190">
-        <v>11583.4578335881</v>
+        <v>12595.75343451424</v>
       </c>
       <c r="D190">
-        <v>51163.8808378072</v>
+        <v>40089.66336747691</v>
       </c>
       <c r="E190">
-        <v>4734.968740675398</v>
+        <v>12746.24250279134</v>
       </c>
       <c r="F190">
-        <v>1194.413109468835</v>
+        <v>417.8574655797594</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>544.9</v>
+        <v>502.9</v>
       </c>
       <c r="B191">
-        <v>55966.43657639976</v>
+        <v>100548.3787511871</v>
       </c>
       <c r="C191">
-        <v>8817.306379738377</v>
+        <v>10689.4547064254</v>
       </c>
       <c r="D191">
-        <v>53878.85744034369</v>
+        <v>35041.95744677641</v>
       </c>
       <c r="E191">
-        <v>5892.418322792017</v>
+        <v>10799.66573946312</v>
       </c>
       <c r="F191">
-        <v>1184.635592888155</v>
+        <v>458.1168107403814</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>547.5</v>
+        <v>504.8</v>
       </c>
       <c r="B192">
-        <v>63455.0792156365</v>
+        <v>114779.954695967</v>
       </c>
       <c r="C192">
-        <v>12569.12738882501</v>
+        <v>14296.8741199925</v>
       </c>
       <c r="D192">
-        <v>52843.82978879595</v>
+        <v>38605.05328035752</v>
       </c>
       <c r="E192">
-        <v>5085.767828929822</v>
+        <v>13711.33394304696</v>
       </c>
       <c r="F192">
-        <v>1210.353073292809</v>
+        <v>519.4104240015602</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>550.1</v>
+        <v>507.1</v>
       </c>
       <c r="B193">
-        <v>56843.72185487326</v>
+        <v>105197.1255764902</v>
       </c>
       <c r="C193">
-        <v>12640.94839791165</v>
+        <v>12407.43446273162</v>
       </c>
       <c r="D193">
-        <v>67028.80213724817</v>
+        <v>34227.74823679783</v>
       </c>
       <c r="E193">
-        <v>4049.117335067634</v>
+        <v>11063.87966317478</v>
       </c>
       <c r="F193">
-        <v>1246.070553697463</v>
+        <v>525.1869032124625</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>553</v>
+        <v>509.6</v>
       </c>
       <c r="B194">
-        <v>52954.13095248349</v>
+        <v>88307.09392488492</v>
       </c>
       <c r="C194">
-        <v>9598.748754200642</v>
+        <v>9504.565270056766</v>
       </c>
       <c r="D194">
-        <v>49331.27129513722</v>
+        <v>32480.24275466772</v>
       </c>
       <c r="E194">
-        <v>4444.39178422135</v>
+        <v>11261.86414157458</v>
       </c>
       <c r="F194">
-        <v>765.9092818411125</v>
+        <v>533.2048153982264</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>555.3</v>
+        <v>511.9</v>
       </c>
       <c r="B195">
-        <v>54921.00713334686</v>
+        <v>91524.26480540802</v>
       </c>
       <c r="C195">
-        <v>8634.590416084986</v>
+        <v>9385.125612795902</v>
       </c>
       <c r="D195">
-        <v>48098.74683415268</v>
+        <v>27872.93771110805</v>
       </c>
       <c r="E195">
-        <v>3465.816347343261</v>
+        <v>9224.409861702397</v>
       </c>
       <c r="F195">
-        <v>707.5055145067672</v>
+        <v>538.9812946091251</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>558.5</v>
+        <v>514.2</v>
       </c>
       <c r="B196">
-        <v>62653.18268933048</v>
+        <v>88641.43568593112</v>
       </c>
       <c r="C196">
-        <v>15298.37011957627</v>
+        <v>11965.68595553501</v>
       </c>
       <c r="D196">
-        <v>50968.71280147853</v>
+        <v>31065.63266754836</v>
       </c>
       <c r="E196">
-        <v>5543.015739512879</v>
+        <v>9396.955581830196</v>
       </c>
       <c r="F196">
-        <v>1281.465490389419</v>
+        <v>884.7577738200273</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>560.8</v>
+        <v>516.7</v>
       </c>
       <c r="B197">
-        <v>51220.05887019385</v>
+        <v>82451.40403432577</v>
       </c>
       <c r="C197">
-        <v>12944.21178146061</v>
+        <v>10872.81676286015</v>
       </c>
       <c r="D197">
-        <v>50576.18834049396</v>
+        <v>25078.12718541825</v>
       </c>
       <c r="E197">
-        <v>4724.44030263479</v>
+        <v>6654.940060229997</v>
       </c>
       <c r="F197">
-        <v>1283.061723055074</v>
+        <v>332.7756860057914</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>563.1</v>
+        <v>518.7</v>
       </c>
       <c r="B198">
-        <v>47286.93505105712</v>
+        <v>63279.37871304149</v>
       </c>
       <c r="C198">
-        <v>8140.053443344984</v>
+        <v>9978.521408720262</v>
       </c>
       <c r="D198">
-        <v>44413.66387950942</v>
+        <v>27336.12279971416</v>
       </c>
       <c r="E198">
-        <v>3415.8648657567</v>
+        <v>8989.327642949836</v>
       </c>
       <c r="F198">
-        <v>934.657955720729</v>
+        <v>1095.190015754401</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>565.3</v>
+        <v>521.3</v>
       </c>
       <c r="B199">
-        <v>40546.55574579596</v>
+        <v>57685.745795372</v>
       </c>
       <c r="C199">
-        <v>5113.90198949523</v>
+        <v>7973.937448338427</v>
       </c>
       <c r="D199">
-        <v>48068.64048204593</v>
+        <v>19793.51709829889</v>
       </c>
       <c r="E199">
-        <v>3413.31444787331</v>
+        <v>7830.031500485635</v>
       </c>
       <c r="F199">
-        <v>954.8804391400495</v>
+        <v>604.3286444275886</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>567.6</v>
+        <v>523.6</v>
       </c>
       <c r="B200">
-        <v>35113.43192665923</v>
+        <v>52002.91667589513</v>
       </c>
       <c r="C200">
-        <v>3819.74365137957</v>
+        <v>8494.497791077541</v>
       </c>
       <c r="D200">
-        <v>46036.11602106139</v>
+        <v>23546.2120547392</v>
       </c>
       <c r="E200">
-        <v>3464.73901099522</v>
+        <v>14222.57722061344</v>
       </c>
       <c r="F200">
-        <v>1376.476671805704</v>
+        <v>1320.105123638494</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>570.2</v>
+        <v>526.5</v>
       </c>
       <c r="B201">
-        <v>36202.07456589599</v>
+        <v>58398.47996003293</v>
       </c>
       <c r="C201">
-        <v>9451.564660466236</v>
+        <v>11764.76952757471</v>
       </c>
       <c r="D201">
-        <v>49431.08836951363</v>
+        <v>22348.30569546827</v>
       </c>
       <c r="E201">
-        <v>4408.088517133026</v>
+        <v>6801.439215557211</v>
       </c>
       <c r="F201">
-        <v>1402.194152210358</v>
+        <v>1012.605901773978</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>572.4</v>
+        <v>528.8</v>
       </c>
       <c r="B202">
-        <v>43261.69526063481</v>
+        <v>47315.65084055605</v>
       </c>
       <c r="C202">
-        <v>10005.41320661648</v>
+        <v>7905.329870313846</v>
       </c>
       <c r="D202">
-        <v>48036.06497205012</v>
+        <v>17941.00065190859</v>
       </c>
       <c r="E202">
-        <v>2935.538099249643</v>
+        <v>5643.984935685027</v>
       </c>
       <c r="F202">
-        <v>1202.416635629679</v>
+        <v>518.382380984877</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>574.7</v>
+        <v>531</v>
       </c>
       <c r="B203">
-        <v>42528.57144149808</v>
+        <v>45436.42298714339</v>
       </c>
       <c r="C203">
-        <v>10211.25486850082</v>
+        <v>7607.604980759967</v>
       </c>
       <c r="D203">
-        <v>46093.54051106556</v>
+        <v>17838.7958276341</v>
       </c>
       <c r="E203">
-        <v>3196.962662371546</v>
+        <v>5443.811276676844</v>
       </c>
       <c r="F203">
-        <v>1254.012868295334</v>
+        <v>243.0381437083483</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>576.9</v>
+        <v>533.6</v>
       </c>
       <c r="B204">
-        <v>36788.19213623679</v>
+        <v>37042.79006947381</v>
       </c>
       <c r="C204">
-        <v>6805.103414651102</v>
+        <v>6743.02102037811</v>
       </c>
       <c r="D204">
-        <v>48598.51711360209</v>
+        <v>15076.19012621879</v>
       </c>
       <c r="E204">
-        <v>2584.412244488164</v>
+        <v>5174.515134212634</v>
       </c>
       <c r="F204">
-        <v>1104.235351714658</v>
+        <v>1142.176772381543</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>579.2</v>
+        <v>535.9</v>
       </c>
       <c r="B205">
-        <v>46355.06831710018</v>
+        <v>44459.96094999692</v>
       </c>
       <c r="C205">
-        <v>12900.94507653541</v>
+        <v>12933.58136311725</v>
       </c>
       <c r="D205">
-        <v>51585.99265261753</v>
+        <v>16878.88508265911</v>
       </c>
       <c r="E205">
-        <v>4025.836807610067</v>
+        <v>5507.060854340449</v>
       </c>
       <c r="F205">
-        <v>1435.831584380313</v>
+        <v>477.9532515924417</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>581.4</v>
+        <v>538.1</v>
       </c>
       <c r="B206">
-        <v>46814.68901183891</v>
+        <v>34480.73309658427</v>
       </c>
       <c r="C206">
-        <v>10654.79362268569</v>
+        <v>10475.85647356335</v>
       </c>
       <c r="D206">
-        <v>52760.96925515406</v>
+        <v>14286.68025838462</v>
       </c>
       <c r="E206">
-        <v>4583.286389726684</v>
+        <v>3806.887195332266</v>
       </c>
       <c r="F206">
-        <v>1346.054067799633</v>
+        <v>572.6090143159131</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>584</v>
+        <v>540.4</v>
       </c>
       <c r="B207">
-        <v>46303.33165107565</v>
+        <v>23397.90397710739</v>
       </c>
       <c r="C207">
-        <v>6336.614631772355</v>
+        <v>7686.416816302488</v>
       </c>
       <c r="D207">
-        <v>49415.94160360629</v>
+        <v>11849.37521482494</v>
       </c>
       <c r="E207">
-        <v>2826.63589586449</v>
+        <v>4319.432915460081</v>
       </c>
       <c r="F207">
-        <v>1301.771548204287</v>
+        <v>968.3854935268155</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>586.3</v>
+        <v>542.7</v>
       </c>
       <c r="B208">
-        <v>47370.20783193902</v>
+        <v>34215.0748576305</v>
       </c>
       <c r="C208">
-        <v>11292.45629365673</v>
+        <v>8686.977159041606</v>
       </c>
       <c r="D208">
-        <v>49903.41714262172</v>
+        <v>10702.07017126523</v>
       </c>
       <c r="E208">
-        <v>3608.060458986408</v>
+        <v>3911.978635587895</v>
       </c>
       <c r="F208">
-        <v>863.3677808699382</v>
+        <v>894.1619727377176</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>588.5</v>
+        <v>544.9</v>
       </c>
       <c r="B209">
-        <v>42029.82852667776</v>
+        <v>32835.84700421785</v>
       </c>
       <c r="C209">
-        <v>8606.304839806944</v>
+        <v>5839.252269487748</v>
       </c>
       <c r="D209">
-        <v>53338.39374515826</v>
+        <v>13029.86534699074</v>
       </c>
       <c r="E209">
-        <v>3085.510041103018</v>
+        <v>5041.80497657972</v>
       </c>
       <c r="F209">
-        <v>1013.590264289262</v>
+        <v>878.8177354611855</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>590.8</v>
+        <v>547.5</v>
       </c>
       <c r="B210">
-        <v>32996.70470754113</v>
+        <v>40042.21408654826</v>
       </c>
       <c r="C210">
-        <v>7472.146501691318</v>
+        <v>9494.668309105888</v>
       </c>
       <c r="D210">
-        <v>49685.86928417372</v>
+        <v>11537.25964557547</v>
       </c>
       <c r="E210">
-        <v>1426.934604224929</v>
+        <v>4202.508834115502</v>
       </c>
       <c r="F210">
-        <v>1485.186496954917</v>
+        <v>897.9563641343802</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>593.1</v>
+        <v>550.1</v>
       </c>
       <c r="B211">
-        <v>30563.5808884044</v>
+        <v>33148.58116887878</v>
       </c>
       <c r="C211">
-        <v>6567.988163575658</v>
+        <v>9470.084348724031</v>
       </c>
       <c r="D211">
-        <v>52043.34482318915</v>
+        <v>25264.65394416016</v>
       </c>
       <c r="E211">
-        <v>3118.359167346832</v>
+        <v>3133.212691651292</v>
       </c>
       <c r="F211">
-        <v>1036.782729620572</v>
+        <v>927.0949928075713</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>595.3</v>
+        <v>553</v>
       </c>
       <c r="B212">
-        <v>39023.20158314311</v>
+        <v>28944.14445301658</v>
       </c>
       <c r="C212">
-        <v>7061.836709725904</v>
+        <v>6320.356085221196</v>
       </c>
       <c r="D212">
-        <v>52708.32142572566</v>
+        <v>7056.747584889257</v>
       </c>
       <c r="E212">
-        <v>3565.808749463449</v>
+        <v>3492.074686595062</v>
       </c>
       <c r="F212">
-        <v>1827.005213039896</v>
+        <v>439.5957709430551</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
+        <v>555.3</v>
+      </c>
+      <c r="B213">
+        <v>30661.31533353969</v>
+      </c>
+      <c r="C213">
+        <v>5270.916427960336</v>
+      </c>
+      <c r="D213">
+        <v>5419.442541329547</v>
+      </c>
+      <c r="E213">
+        <v>2484.620406722877</v>
+      </c>
+      <c r="F213">
+        <v>375.3722501539576</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>558.5</v>
+      </c>
+      <c r="B214">
+        <v>38046.07481948491</v>
+      </c>
+      <c r="C214">
+        <v>11816.04386133649</v>
+      </c>
+      <c r="D214">
+        <v>7726.235524203017</v>
+      </c>
+      <c r="E214">
+        <v>4521.640539074615</v>
+      </c>
+      <c r="F214">
+        <v>941.2351777517338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>560.8</v>
+      </c>
+      <c r="B215">
+        <v>26363.24570000802</v>
+      </c>
+      <c r="C215">
+        <v>9376.60420407564</v>
+      </c>
+      <c r="D215">
+        <v>6928.930480643336</v>
+      </c>
+      <c r="E215">
+        <v>3674.18625920243</v>
+      </c>
+      <c r="F215">
+        <v>937.0116569626325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>563.1</v>
+      </c>
+      <c r="B216">
+        <v>22180.41658053114</v>
+      </c>
+      <c r="C216">
+        <v>4487.164546814744</v>
+      </c>
+      <c r="D216">
+        <v>361.6254370836468</v>
+      </c>
+      <c r="E216">
+        <v>2336.731979330236</v>
+      </c>
+      <c r="F216">
+        <v>582.7881361735347</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>565.3</v>
+      </c>
+      <c r="B217">
+        <v>15201.18872711849</v>
+      </c>
+      <c r="C217">
+        <v>1379.439657260886</v>
+      </c>
+      <c r="D217">
+        <v>3629.420612809168</v>
+      </c>
+      <c r="E217">
+        <v>2306.558320322062</v>
+      </c>
+      <c r="F217">
+        <v>597.4438988970062</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>567.6</v>
+      </c>
+      <c r="B218">
+        <v>9518.359607641611</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1192.11556924945</v>
+      </c>
+      <c r="E218">
+        <v>2329.104040449876</v>
+      </c>
+      <c r="F218">
+        <v>1013.220378107908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>570.2</v>
+      </c>
+      <c r="B219">
+        <v>10324.72668997201</v>
+      </c>
+      <c r="C219">
+        <v>5535.416039618143</v>
+      </c>
+      <c r="D219">
+        <v>4129.509867834167</v>
+      </c>
+      <c r="E219">
+        <v>3239.807897985665</v>
+      </c>
+      <c r="F219">
+        <v>1032.359006781099</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>572.4</v>
+      </c>
+      <c r="B220">
+        <v>17145.49883655936</v>
+      </c>
+      <c r="C220">
+        <v>6007.691150064285</v>
+      </c>
+      <c r="D220">
+        <v>2347.305043559689</v>
+      </c>
+      <c r="E220">
+        <v>1739.634238977491</v>
+      </c>
+      <c r="F220">
+        <v>827.0147695045709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>574.7</v>
+      </c>
+      <c r="B221">
+        <v>16162.66971708248</v>
+      </c>
+      <c r="C221">
+        <v>6128.251492803385</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>1972.179959105298</v>
+      </c>
+      <c r="F221">
+        <v>872.7912487154731</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>576.9</v>
+      </c>
+      <c r="B222">
+        <v>10183.44186366983</v>
+      </c>
+      <c r="C222">
+        <v>2640.526603249527</v>
+      </c>
+      <c r="D222">
+        <v>2117.795175725521</v>
+      </c>
+      <c r="E222">
+        <v>1332.006300097124</v>
+      </c>
+      <c r="F222">
+        <v>717.4470114389446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>579.2</v>
+      </c>
+      <c r="B223">
+        <v>19500.61274419295</v>
+      </c>
+      <c r="C223">
+        <v>8651.086945988645</v>
+      </c>
+      <c r="D223">
+        <v>4700.490132165804</v>
+      </c>
+      <c r="E223">
+        <v>2744.55202022493</v>
+      </c>
+      <c r="F223">
+        <v>1043.223490649843</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>581.4</v>
+      </c>
+      <c r="B224">
+        <v>19721.38489078019</v>
+      </c>
+      <c r="C224">
+        <v>6323.362056434788</v>
+      </c>
+      <c r="D224">
+        <v>5488.285307891325</v>
+      </c>
+      <c r="E224">
+        <v>3274.378361216756</v>
+      </c>
+      <c r="F224">
+        <v>947.8792533733147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>584</v>
+      </c>
+      <c r="B225">
+        <v>18927.7519731107</v>
+      </c>
+      <c r="C225">
+        <v>1908.778096052927</v>
+      </c>
+      <c r="D225">
+        <v>1685.67960647602</v>
+      </c>
+      <c r="E225">
+        <v>1485.082218752545</v>
+      </c>
+      <c r="F225">
+        <v>897.0178820465094</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>586.3</v>
+      </c>
+      <c r="B226">
+        <v>19744.92285363382</v>
+      </c>
+      <c r="C226">
+        <v>6779.338438792063</v>
+      </c>
+      <c r="D226">
+        <v>1768.374562916339</v>
+      </c>
+      <c r="E226">
+        <v>2237.62793888036</v>
+      </c>
+      <c r="F226">
+        <v>452.7943612574081</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>588.5</v>
+      </c>
+      <c r="B227">
+        <v>14165.69500022117</v>
+      </c>
+      <c r="C227">
+        <v>4011.613549238173</v>
+      </c>
+      <c r="D227">
+        <v>4816.169738641853</v>
+      </c>
+      <c r="E227">
+        <v>1687.454279872185</v>
+      </c>
+      <c r="F227">
+        <v>597.4501239808794</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>590.8</v>
+      </c>
+      <c r="B228">
+        <v>4882.865880744288</v>
+      </c>
+      <c r="C228">
+        <v>2792.173891977309</v>
+      </c>
+      <c r="D228">
+        <v>758.8646950821712</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1063.226603191778</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>593.1</v>
+      </c>
+      <c r="B229">
+        <v>2200.036761267405</v>
+      </c>
+      <c r="C229">
+        <v>1802.734234716427</v>
+      </c>
+      <c r="D229">
+        <v>2711.559651522482</v>
+      </c>
+      <c r="E229">
+        <v>1662.545720127807</v>
+      </c>
+      <c r="F229">
+        <v>609.003082402684</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>595.3</v>
+      </c>
+      <c r="B230">
+        <v>10420.80890785464</v>
+      </c>
+      <c r="C230">
+        <v>2215.009345162565</v>
+      </c>
+      <c r="D230">
+        <v>2989.354827248004</v>
+      </c>
+      <c r="E230">
+        <v>2082.372061119632</v>
+      </c>
+      <c r="F230">
+        <v>1393.658845126152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
         <v>597.9</v>
       </c>
-      <c r="B213">
-        <v>45111.84422237999</v>
-      </c>
-      <c r="C213">
-        <v>7583.657718812571</v>
-      </c>
-      <c r="D213">
-        <v>57103.29377417789</v>
-      </c>
-      <c r="E213">
-        <v>2759.158255601262</v>
-      </c>
-      <c r="F213">
-        <v>1242.722693444546</v>
+      <c r="B231">
+        <v>16227.17599018516</v>
+      </c>
+      <c r="C231">
+        <v>2640.425384780709</v>
+      </c>
+      <c r="D231">
+        <v>6926.749125832692</v>
+      </c>
+      <c r="E231">
+        <v>1243.075918655421</v>
+      </c>
+      <c r="F231">
+        <v>802.7974737993429</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>600.1</v>
+      </c>
+      <c r="B232">
+        <v>11347.94813677251</v>
+      </c>
+      <c r="C232">
+        <v>3152.700495226814</v>
+      </c>
+      <c r="D232">
+        <v>5184.544301558206</v>
+      </c>
+      <c r="E232">
+        <v>1402.902259647239</v>
+      </c>
+      <c r="F232">
+        <v>557.4532365228144</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_6.3E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_6.3E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4622 +417,4162 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>90.40000000000001</v>
+        <v>112.1</v>
       </c>
       <c r="B2">
-        <v>33103.60126606424</v>
+        <v>35255.37011115692</v>
       </c>
       <c r="C2">
-        <v>682.8714977773488</v>
+        <v>1887.71679284377</v>
       </c>
       <c r="D2">
-        <v>3630.361998242528</v>
+        <v>49477.30864138062</v>
       </c>
       <c r="E2">
-        <v>902.2268034965653</v>
+        <v>2651.274688610924</v>
       </c>
       <c r="F2">
-        <v>925.1613000896182</v>
+        <v>939.2996623808758</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>90.5</v>
+        <v>114.9</v>
       </c>
       <c r="B3">
-        <v>5200</v>
+        <v>30698.38111531776</v>
       </c>
       <c r="C3">
-        <v>3381.156730070346</v>
+        <v>3099.675943184139</v>
       </c>
       <c r="D3">
-        <v>5665.261778957331</v>
+        <v>44541.50062149284</v>
       </c>
       <c r="E3">
-        <v>1594.946182632554</v>
+        <v>1038.071076477831</v>
       </c>
       <c r="F3">
-        <v>826.282016577049</v>
+        <v>1081.575207675108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>90.5</v>
+        <v>117.3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>23620.96197602699</v>
       </c>
       <c r="C4">
-        <v>3571.156730070346</v>
+        <v>2838.498072047319</v>
       </c>
       <c r="D4">
-        <v>5255.261778957331</v>
+        <v>37146.52231873189</v>
       </c>
       <c r="E4">
-        <v>2154.946182632554</v>
+        <v>1251.039408935178</v>
       </c>
       <c r="F4">
-        <v>986.282016577049</v>
+        <v>869.2399607844529</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>90.5</v>
+        <v>119.5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17933.32776501053</v>
       </c>
       <c r="C5">
-        <v>5111.156730070346</v>
+        <v>2945.751690171886</v>
       </c>
       <c r="D5">
-        <v>5035.261778957331</v>
+        <v>34401.95887453438</v>
       </c>
       <c r="E5">
-        <v>2294.946182632554</v>
+        <v>1777.093713687755</v>
       </c>
       <c r="F5">
-        <v>1006.282016577049</v>
+        <v>944.5993178013484</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>90.40000000000001</v>
+        <v>121.7</v>
       </c>
       <c r="B6">
-        <v>3203.601266064237</v>
+        <v>10645.69355399395</v>
       </c>
       <c r="C6">
-        <v>4902.871497777349</v>
+        <v>2153.005308296454</v>
       </c>
       <c r="D6">
-        <v>5280.361998242528</v>
+        <v>28887.39543033684</v>
       </c>
       <c r="E6">
-        <v>1732.226803496565</v>
+        <v>1323.148018440325</v>
       </c>
       <c r="F6">
-        <v>645.1613000896182</v>
+        <v>829.9586748182475</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>90.5</v>
+        <v>123.8</v>
       </c>
       <c r="B7">
-        <v>12900</v>
+        <v>6252.951807114638</v>
       </c>
       <c r="C7">
-        <v>5411.156730070346</v>
+        <v>2169.474671051732</v>
       </c>
       <c r="D7">
-        <v>6125.261778957331</v>
+        <v>25953.03941542102</v>
       </c>
       <c r="E7">
-        <v>1914.946182632554</v>
+        <v>2405.745309340503</v>
       </c>
       <c r="F7">
-        <v>1136.282016577049</v>
+        <v>724.1653337889237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>90.5</v>
+        <v>126</v>
       </c>
       <c r="B8">
-        <v>13100</v>
+        <v>7665.317596098059</v>
       </c>
       <c r="C8">
-        <v>6391.156730070346</v>
+        <v>3706.728289176314</v>
       </c>
       <c r="D8">
-        <v>7105.261778957331</v>
+        <v>25868.47597122347</v>
       </c>
       <c r="E8">
-        <v>2044.946182632554</v>
+        <v>1331.799614093073</v>
       </c>
       <c r="F8">
-        <v>866.282016577049</v>
+        <v>649.5246908058191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>90.40000000000001</v>
+        <v>128.1</v>
       </c>
       <c r="B9">
-        <v>3903.601266064237</v>
+        <v>3272.575849218752</v>
       </c>
       <c r="C9">
-        <v>7322.871497777349</v>
+        <v>1493.197651931578</v>
       </c>
       <c r="D9">
-        <v>5900.361998242528</v>
+        <v>23944.11995630764</v>
       </c>
       <c r="E9">
-        <v>2522.226803496565</v>
+        <v>1794.396904993259</v>
       </c>
       <c r="F9">
-        <v>635.1613000896182</v>
+        <v>1163.731349776495</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>90.5</v>
+        <v>130.6</v>
       </c>
       <c r="B10">
-        <v>12500</v>
+        <v>7800.264245790822</v>
       </c>
       <c r="C10">
-        <v>6931.156730070346</v>
+        <v>3232.804036164061</v>
       </c>
       <c r="D10">
-        <v>6165.261778957331</v>
+        <v>23778.93422426499</v>
       </c>
       <c r="E10">
-        <v>2164.946182632554</v>
+        <v>2100.822251302997</v>
       </c>
       <c r="F10">
-        <v>1116.282016577049</v>
+        <v>1022.548800932059</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>90.59999999999999</v>
+        <v>132.7</v>
       </c>
       <c r="B11">
-        <v>7396.398733935759</v>
+        <v>12507.52249891152</v>
       </c>
       <c r="C11">
-        <v>8969.441962363358</v>
+        <v>4429.273398919339</v>
       </c>
       <c r="D11">
-        <v>8940.161559672117</v>
+        <v>23604.57820934916</v>
       </c>
       <c r="E11">
-        <v>2237.665561768551</v>
+        <v>2353.419542203183</v>
       </c>
       <c r="F11">
-        <v>657.4027330644799</v>
+        <v>636.7554599027355</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>90.7</v>
+        <v>134.9</v>
       </c>
       <c r="B12">
-        <v>8592.797467871522</v>
+        <v>5919.888287895054</v>
       </c>
       <c r="C12">
-        <v>8497.727194656371</v>
+        <v>4756.527017043906</v>
       </c>
       <c r="D12">
-        <v>13945.06134038692</v>
+        <v>20680.01476515162</v>
       </c>
       <c r="E12">
-        <v>3340.38494090454</v>
+        <v>2549.473846955752</v>
       </c>
       <c r="F12">
-        <v>288.5234495519107</v>
+        <v>1602.114816919634</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>90.8</v>
+        <v>137.2</v>
       </c>
       <c r="B13">
-        <v>14089.19620180729</v>
+        <v>14037.36161274144</v>
       </c>
       <c r="C13">
-        <v>9546.012426949368</v>
+        <v>4944.564890537781</v>
       </c>
       <c r="D13">
-        <v>29019.96112110172</v>
+        <v>21025.24389167237</v>
       </c>
       <c r="E13">
-        <v>3833.104320040529</v>
+        <v>2338.985165560714</v>
       </c>
       <c r="F13">
-        <v>1169.644166039342</v>
+        <v>1228.626871982753</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>91.2</v>
+        <v>139.4</v>
       </c>
       <c r="B14">
-        <v>20374.79113755045</v>
+        <v>17049.72740172486</v>
       </c>
       <c r="C14">
-        <v>16219.15335612139</v>
+        <v>5511.818508662347</v>
       </c>
       <c r="D14">
-        <v>39119.5602439609</v>
+        <v>20070.68044747484</v>
       </c>
       <c r="E14">
-        <v>5133.9818365845</v>
+        <v>3715.039470313284</v>
       </c>
       <c r="F14">
-        <v>3664.127031989061</v>
+        <v>1573.986228999652</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>91.8</v>
+        <v>142</v>
       </c>
       <c r="B15">
-        <v>36253.18354116526</v>
+        <v>12082.52333415989</v>
       </c>
       <c r="C15">
-        <v>16888.86474987943</v>
+        <v>4452.209148264123</v>
       </c>
       <c r="D15">
-        <v>55648.95892824967</v>
+        <v>16805.28728615049</v>
       </c>
       <c r="E15">
-        <v>4560.298111400449</v>
+        <v>3324.921830475415</v>
       </c>
       <c r="F15">
-        <v>2060.851330913647</v>
+        <v>1653.956378201439</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>92.8</v>
+        <v>144.3</v>
       </c>
       <c r="B16">
-        <v>41317.17088052312</v>
+        <v>10699.99665900628</v>
       </c>
       <c r="C16">
-        <v>20491.71707280948</v>
+        <v>3890.247021757996</v>
       </c>
       <c r="D16">
-        <v>67817.95673539763</v>
+        <v>16230.51641267126</v>
       </c>
       <c r="E16">
-        <v>8397.491902760368</v>
+        <v>2854.433149080377</v>
       </c>
       <c r="F16">
-        <v>2732.058495787951</v>
+        <v>1450.468433264561</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>94.3</v>
+        <v>146.6</v>
       </c>
       <c r="B17">
-        <v>42763.1518895599</v>
+        <v>6117.46998385265</v>
       </c>
       <c r="C17">
-        <v>17085.99555720456</v>
+        <v>5408.284895251869</v>
       </c>
       <c r="D17">
-        <v>74511.45344611956</v>
+        <v>13615.74553919201</v>
       </c>
       <c r="E17">
-        <v>7748.282589800248</v>
+        <v>3953.944467685339</v>
       </c>
       <c r="F17">
-        <v>2568.869243099407</v>
+        <v>1456.980488327679</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>96.09999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="B18">
-        <v>51198.32910040408</v>
+        <v>6834.943308699039</v>
       </c>
       <c r="C18">
-        <v>16585.12973847867</v>
+        <v>6226.322768745742</v>
       </c>
       <c r="D18">
-        <v>78629.64949898591</v>
+        <v>12550.97466571276</v>
       </c>
       <c r="E18">
-        <v>7007.231414248103</v>
+        <v>2383.4557862903</v>
       </c>
       <c r="F18">
-        <v>1719.042139873155</v>
+        <v>2603.492543390801</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>98.3</v>
+        <v>151.1</v>
       </c>
       <c r="B19">
-        <v>60219.10124699144</v>
+        <v>14747.30909768257</v>
       </c>
       <c r="C19">
-        <v>19557.40484892479</v>
+        <v>6543.576386870325</v>
       </c>
       <c r="D19">
-        <v>84937.44467471144</v>
+        <v>11036.41122151523</v>
       </c>
       <c r="E19">
-        <v>7367.057755239921</v>
+        <v>3999.51009104287</v>
       </c>
       <c r="F19">
-        <v>1763.697902596626</v>
+        <v>4388.851900407696</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>100.8</v>
+        <v>153.7</v>
       </c>
       <c r="B20">
-        <v>59629.06959538608</v>
+        <v>8080.105030117607</v>
       </c>
       <c r="C20">
-        <v>22324.53565624993</v>
+        <v>8933.967026472101</v>
       </c>
       <c r="D20">
-        <v>86779.93919258131</v>
+        <v>12591.01806019089</v>
       </c>
       <c r="E20">
-        <v>8555.042233639721</v>
+        <v>4269.392451205001</v>
       </c>
       <c r="F20">
-        <v>2361.71581478239</v>
+        <v>7908.822049609486</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>103.5</v>
+        <v>156</v>
       </c>
       <c r="B21">
-        <v>66931.83541165236</v>
+        <v>5297.578354963989</v>
       </c>
       <c r="C21">
-        <v>20998.23692816109</v>
+        <v>10122.00489996596</v>
       </c>
       <c r="D21">
-        <v>93182.2332718808</v>
+        <v>10446.24718671164</v>
       </c>
       <c r="E21">
-        <v>8208.465470311499</v>
+        <v>4888.903769809963</v>
       </c>
       <c r="F21">
-        <v>2121.975159943012</v>
+        <v>11335.33410467261</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>106.3</v>
+        <v>158.3</v>
       </c>
       <c r="B22">
-        <v>64730.99996185441</v>
+        <v>11315.05167981037</v>
       </c>
       <c r="C22">
-        <v>17370.22343236524</v>
+        <v>13000.04277345983</v>
       </c>
       <c r="D22">
-        <v>93869.42713189512</v>
+        <v>11841.4763132324</v>
       </c>
       <c r="E22">
-        <v>6684.608086119273</v>
+        <v>6878.415088414924</v>
       </c>
       <c r="F22">
-        <v>2043.355221591065</v>
+        <v>15011.84615973572</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>109.4</v>
+        <v>160.6</v>
       </c>
       <c r="B23">
-        <v>68419.36071386373</v>
+        <v>17532.52500465675</v>
       </c>
       <c r="C23">
-        <v>15127.0656334484</v>
+        <v>15958.08064695371</v>
       </c>
       <c r="D23">
-        <v>90041.32033405377</v>
+        <v>11196.70543975315</v>
       </c>
       <c r="E23">
-        <v>6308.908839335023</v>
+        <v>6627.926407019886</v>
       </c>
       <c r="F23">
-        <v>2808.097432701411</v>
+        <v>15558.35821479885</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>112.1</v>
+        <v>163.1</v>
       </c>
       <c r="B24">
-        <v>57622.12653013002</v>
+        <v>12260.21340122894</v>
       </c>
       <c r="C24">
-        <v>13270.76690535956</v>
+        <v>16897.68703118617</v>
       </c>
       <c r="D24">
-        <v>82353.61441335329</v>
+        <v>12191.51970771049</v>
       </c>
       <c r="E24">
-        <v>6182.332076006802</v>
+        <v>6514.351753329624</v>
       </c>
       <c r="F24">
-        <v>1048.356777862036</v>
+        <v>9907.175665954413</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>114.9</v>
+        <v>165.1</v>
       </c>
       <c r="B25">
-        <v>52821.29108033206</v>
+        <v>12062.36411848667</v>
       </c>
       <c r="C25">
-        <v>14412.75340956372</v>
+        <v>15763.37213857216</v>
       </c>
       <c r="D25">
-        <v>77000.80827336755</v>
+        <v>7767.371122076365</v>
       </c>
       <c r="E25">
-        <v>4548.474691814576</v>
+        <v>5513.492030377418</v>
       </c>
       <c r="F25">
-        <v>1189.736839510089</v>
+        <v>6180.229626878862</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>117.3</v>
+        <v>167.6</v>
       </c>
       <c r="B26">
-        <v>45534.86069479094</v>
+        <v>15090.05251505886</v>
       </c>
       <c r="C26">
-        <v>14091.59898459586</v>
+        <v>16202.97852280463</v>
       </c>
       <c r="D26">
-        <v>69248.40301052268</v>
+        <v>5212.185390033737</v>
       </c>
       <c r="E26">
-        <v>4743.739791078379</v>
+        <v>4379.917376687156</v>
       </c>
       <c r="F26">
-        <v>976.6340352084185</v>
+        <v>5389.04707803443</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>119.5</v>
+        <v>169.9</v>
       </c>
       <c r="B27">
-        <v>39655.63284137829</v>
+        <v>8307.525839905247</v>
       </c>
       <c r="C27">
-        <v>14143.87409504198</v>
+        <v>15531.0163962985</v>
       </c>
       <c r="D27">
-        <v>66176.19818624819</v>
+        <v>5017.414516554491</v>
       </c>
       <c r="E27">
-        <v>5253.566132070205</v>
+        <v>4869.428695292118</v>
       </c>
       <c r="F27">
-        <v>1051.28979793189</v>
+        <v>3985.559133097549</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>121.7</v>
+        <v>172.2</v>
       </c>
       <c r="B28">
-        <v>32176.40498796564</v>
+        <v>11724.99916475162</v>
       </c>
       <c r="C28">
-        <v>13296.14920548809</v>
+        <v>17579.05426979238</v>
       </c>
       <c r="D28">
-        <v>60333.99336197371</v>
+        <v>4742.643643075244</v>
       </c>
       <c r="E28">
-        <v>4783.392473062023</v>
+        <v>5138.94001389708</v>
       </c>
       <c r="F28">
-        <v>935.9455606553613</v>
+        <v>4092.07118816067</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>123.8</v>
+        <v>174.7</v>
       </c>
       <c r="B29">
-        <v>27600.77840061712</v>
+        <v>4052.687561323815</v>
       </c>
       <c r="C29">
-        <v>13260.13908364121</v>
+        <v>16498.66065402485</v>
       </c>
       <c r="D29">
-        <v>57086.88875698442</v>
+        <v>2867.457911032587</v>
       </c>
       <c r="E29">
-        <v>5850.49943491786</v>
+        <v>4735.365360206819</v>
       </c>
       <c r="F29">
-        <v>829.480606891402</v>
+        <v>3730.888639316234</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B30">
-        <v>28821.55054720448</v>
+        <v>3570.160886170204</v>
       </c>
       <c r="C30">
-        <v>14742.41419408733</v>
+        <v>20316.69852751873</v>
       </c>
       <c r="D30">
-        <v>56674.68393270994</v>
+        <v>3192.68703755334</v>
       </c>
       <c r="E30">
-        <v>4760.325775909678</v>
+        <v>4264.876678811781</v>
       </c>
       <c r="F30">
-        <v>754.1363696148733</v>
+        <v>3467.400694379356</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>128.1</v>
+        <v>179.3</v>
       </c>
       <c r="B31">
-        <v>24245.92395985606</v>
+        <v>3787.634211016579</v>
       </c>
       <c r="C31">
-        <v>12476.40407224046</v>
+        <v>18844.73640101259</v>
       </c>
       <c r="D31">
-        <v>54437.57932772065</v>
+        <v>4687.9161640741</v>
       </c>
       <c r="E31">
-        <v>5207.432737765506</v>
+        <v>4434.387997416742</v>
       </c>
       <c r="F31">
-        <v>1267.671415850914</v>
+        <v>3523.912749442474</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>130.6</v>
+        <v>181.5</v>
       </c>
       <c r="B32">
-        <v>28555.8923082507</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>14153.53487956559</v>
+        <v>19591.99001913716</v>
       </c>
       <c r="D32">
-        <v>53900.07384559057</v>
+        <v>2663.352719876559</v>
       </c>
       <c r="E32">
-        <v>5495.417216165306</v>
+        <v>4090.442302169312</v>
       </c>
       <c r="F32">
-        <v>1125.689328036674</v>
+        <v>3689.272106459373</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>132.7</v>
+        <v>183.8</v>
       </c>
       <c r="B33">
-        <v>33080.26572090229</v>
+        <v>117.4733248463817</v>
       </c>
       <c r="C33">
-        <v>15297.52475771872</v>
+        <v>20690.02789263105</v>
       </c>
       <c r="D33">
-        <v>53412.96924060129</v>
+        <v>1108.581846397341</v>
       </c>
       <c r="E33">
-        <v>5732.524178021135</v>
+        <v>4299.953620774274</v>
       </c>
       <c r="F33">
-        <v>739.2243742727148</v>
+        <v>3395.784161522492</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>134.9</v>
+        <v>186.1</v>
       </c>
       <c r="B34">
-        <v>26301.03786748953</v>
+        <v>634.9466496927635</v>
       </c>
       <c r="C34">
-        <v>15569.79986816482</v>
+        <v>20898.06576612491</v>
       </c>
       <c r="D34">
-        <v>50160.7644163268</v>
+        <v>873.8109729181015</v>
       </c>
       <c r="E34">
-        <v>5912.350519012953</v>
+        <v>4729.464939379236</v>
       </c>
       <c r="F34">
-        <v>1703.880136996186</v>
+        <v>3752.296216585613</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>137.2</v>
+        <v>188.7</v>
       </c>
       <c r="B35">
-        <v>34218.20874801264</v>
+        <v>4267.742582127918</v>
       </c>
       <c r="C35">
-        <v>15700.36021090396</v>
+        <v>21508.45640572669</v>
       </c>
       <c r="D35">
-        <v>50163.45937276709</v>
+        <v>948.417811593732</v>
       </c>
       <c r="E35">
-        <v>5684.896239140768</v>
+        <v>4719.347299541367</v>
       </c>
       <c r="F35">
-        <v>1329.656616207089</v>
+        <v>2892.2663657874</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>139.4</v>
+        <v>191</v>
       </c>
       <c r="B36">
-        <v>37038.9808946</v>
+        <v>2185.215906974299</v>
       </c>
       <c r="C36">
-        <v>16212.63532135008</v>
+        <v>22286.49427922055</v>
       </c>
       <c r="D36">
-        <v>48881.25454849261</v>
+        <v>1193.646938114485</v>
       </c>
       <c r="E36">
-        <v>7044.722580132593</v>
+        <v>5388.858618146329</v>
       </c>
       <c r="F36">
-        <v>1674.312378930556</v>
+        <v>3138.778420850522</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>142</v>
+        <v>193.2</v>
       </c>
       <c r="B37">
-        <v>31845.34797693052</v>
+        <v>9497.581695957713</v>
       </c>
       <c r="C37">
-        <v>15088.05136096823</v>
+        <v>20403.74789734512</v>
       </c>
       <c r="D37">
-        <v>45228.6488470773</v>
+        <v>899.0834939169436</v>
       </c>
       <c r="E37">
-        <v>6635.426437668382</v>
+        <v>3954.912922898899</v>
       </c>
       <c r="F37">
-        <v>1753.451007603751</v>
+        <v>3984.137777867418</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>144.3</v>
+        <v>195.5</v>
       </c>
       <c r="B38">
-        <v>30262.51885745364</v>
+        <v>7315.055020804102</v>
       </c>
       <c r="C38">
-        <v>14468.61170370736</v>
+        <v>20981.78577083901</v>
       </c>
       <c r="D38">
-        <v>44311.34380351762</v>
+        <v>244.312620437704</v>
       </c>
       <c r="E38">
-        <v>6147.972157796195</v>
+        <v>5154.424241503861</v>
       </c>
       <c r="F38">
-        <v>1549.227486814653</v>
+        <v>4200.64983293054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>146.6</v>
+        <v>197.8</v>
       </c>
       <c r="B39">
-        <v>25479.68973797675</v>
+        <v>5232.528345650484</v>
       </c>
       <c r="C39">
-        <v>15929.1720464465</v>
+        <v>22889.82364433287</v>
       </c>
       <c r="D39">
-        <v>41354.03875995793</v>
+        <v>1139.541746958457</v>
       </c>
       <c r="E39">
-        <v>7230.51787792401</v>
+        <v>4343.935560108815</v>
       </c>
       <c r="F39">
-        <v>1555.003966025552</v>
+        <v>3947.161887993658</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>148.9</v>
+        <v>200.4</v>
       </c>
       <c r="B40">
-        <v>25996.86061849975</v>
+        <v>9665.324278085522</v>
       </c>
       <c r="C40">
-        <v>16689.73238918561</v>
+        <v>26090.21428393466</v>
       </c>
       <c r="D40">
-        <v>39946.73371639825</v>
+        <v>1034.148585634117</v>
       </c>
       <c r="E40">
-        <v>5643.063598051818</v>
+        <v>4793.817920270945</v>
       </c>
       <c r="F40">
-        <v>2700.780445236454</v>
+        <v>3547.132037195448</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>151.1</v>
+        <v>202.4</v>
       </c>
       <c r="B41">
-        <v>33717.6327650871</v>
+        <v>14267.47499534325</v>
       </c>
       <c r="C41">
-        <v>16952.00749963174</v>
+        <v>24515.89939132061</v>
       </c>
       <c r="D41">
-        <v>38104.52889212377</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>7242.889939043644</v>
+        <v>5022.958197318739</v>
       </c>
       <c r="F41">
-        <v>4485.436207959925</v>
+        <v>3530.185998119898</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>153.7</v>
+        <v>204.9</v>
       </c>
       <c r="B42">
-        <v>26823.99984741762</v>
+        <v>25295.16339191543</v>
       </c>
       <c r="C42">
-        <v>19277.42353924988</v>
+        <v>24715.50577555308</v>
       </c>
       <c r="D42">
-        <v>39271.92319070845</v>
+        <v>1604.814267957336</v>
       </c>
       <c r="E42">
-        <v>7493.593796579433</v>
+        <v>5389.383543628484</v>
       </c>
       <c r="F42">
-        <v>8004.574836633117</v>
+        <v>3239.003449275466</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>156</v>
+        <v>207.2</v>
       </c>
       <c r="B43">
-        <v>23841.17072794073</v>
+        <v>44512.63671676182</v>
       </c>
       <c r="C43">
-        <v>20407.98388198902</v>
+        <v>24653.54364904697</v>
       </c>
       <c r="D43">
-        <v>36784.61814714877</v>
+        <v>840.0433944780962</v>
       </c>
       <c r="E43">
-        <v>8096.139516707248</v>
+        <v>4898.894862233446</v>
       </c>
       <c r="F43">
-        <v>11430.35131584402</v>
+        <v>3695.515504338584</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>158.3</v>
+        <v>209.5</v>
       </c>
       <c r="B44">
-        <v>29658.34160846385</v>
+        <v>49030.1100416082</v>
       </c>
       <c r="C44">
-        <v>23228.54422472814</v>
+        <v>25341.58152254086</v>
       </c>
       <c r="D44">
-        <v>37837.31310358906</v>
+        <v>1475.272520998849</v>
       </c>
       <c r="E44">
-        <v>10068.68523683506</v>
+        <v>4588.406180838409</v>
       </c>
       <c r="F44">
-        <v>15106.12779505492</v>
+        <v>3452.027559401706</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>160.6</v>
+        <v>212.1</v>
       </c>
       <c r="B45">
-        <v>35675.51248898697</v>
+        <v>65562.90597404324</v>
       </c>
       <c r="C45">
-        <v>26129.10456746728</v>
+        <v>24681.97216214262</v>
       </c>
       <c r="D45">
-        <v>36850.00806002938</v>
+        <v>1409.879359674509</v>
       </c>
       <c r="E45">
-        <v>9801.230956962876</v>
+        <v>5148.288541000538</v>
       </c>
       <c r="F45">
-        <v>15651.90427426582</v>
+        <v>4181.997708603492</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>163.1</v>
+        <v>214.4</v>
       </c>
       <c r="B46">
-        <v>30185.4808373816</v>
+        <v>86380.37929888963</v>
       </c>
       <c r="C46">
-        <v>27006.2353747924</v>
+        <v>26930.01003563648</v>
       </c>
       <c r="D46">
-        <v>37472.5025778993</v>
+        <v>2675.10848619527</v>
       </c>
       <c r="E46">
-        <v>9669.215435362668</v>
+        <v>4537.799859605493</v>
       </c>
       <c r="F46">
-        <v>9999.922186451582</v>
+        <v>3148.509763666614</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>165.1</v>
+        <v>216.7</v>
       </c>
       <c r="B47">
-        <v>29813.45551609732</v>
+        <v>108497.852623736</v>
       </c>
       <c r="C47">
-        <v>25821.94002065253</v>
+        <v>27648.04790913037</v>
       </c>
       <c r="D47">
-        <v>32750.49819219521</v>
+        <v>1770.337612716015</v>
       </c>
       <c r="E47">
-        <v>8653.603018082509</v>
+        <v>4977.311178210455</v>
       </c>
       <c r="F47">
-        <v>6272.336516200194</v>
+        <v>3435.021818729732</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>167.6</v>
+        <v>218.9</v>
       </c>
       <c r="B48">
-        <v>32623.42386449208</v>
+        <v>142410.2184127196</v>
       </c>
       <c r="C48">
-        <v>26199.07082797766</v>
+        <v>26395.30152725493</v>
       </c>
       <c r="D48">
-        <v>29822.9927100651</v>
+        <v>1845.774168518481</v>
       </c>
       <c r="E48">
-        <v>7501.587496482302</v>
+        <v>5173.365482963025</v>
       </c>
       <c r="F48">
-        <v>5480.354428385955</v>
+        <v>4470.381175746632</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>169.9</v>
+        <v>221.2</v>
       </c>
       <c r="B49">
-        <v>25640.59474501519</v>
+        <v>169527.6917375659</v>
       </c>
       <c r="C49">
-        <v>25469.6311707168</v>
+        <v>27273.33940074882</v>
       </c>
       <c r="D49">
-        <v>29285.68766650542</v>
+        <v>2021.003295039234</v>
       </c>
       <c r="E49">
-        <v>7974.133216610117</v>
+        <v>5352.876801567987</v>
       </c>
       <c r="F49">
-        <v>4076.130907596856</v>
+        <v>3716.89323080975</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>172.2</v>
+        <v>223.8</v>
       </c>
       <c r="B50">
-        <v>28857.7656255383</v>
+        <v>193560.487670001</v>
       </c>
       <c r="C50">
-        <v>27460.19151345592</v>
+        <v>26553.73004035058</v>
       </c>
       <c r="D50">
-        <v>28668.38262294573</v>
+        <v>2585.610133714872</v>
       </c>
       <c r="E50">
-        <v>8226.67893673793</v>
+        <v>4412.759161730117</v>
       </c>
       <c r="F50">
-        <v>4181.907386807758</v>
+        <v>3216.86338001154</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>174.7</v>
+        <v>226.1</v>
       </c>
       <c r="B51">
-        <v>20967.73397393295</v>
+        <v>234077.9609948473</v>
       </c>
       <c r="C51">
-        <v>26317.32232078106</v>
+        <v>29341.76791384444</v>
       </c>
       <c r="D51">
-        <v>26420.87714081562</v>
+        <v>2220.839260235647</v>
       </c>
       <c r="E51">
-        <v>7804.663415137731</v>
+        <v>5162.270480335079</v>
       </c>
       <c r="F51">
-        <v>3819.925298993518</v>
+        <v>3533.375435074659</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>177</v>
+        <v>228.4</v>
       </c>
       <c r="B52">
-        <v>20284.90485445606</v>
+        <v>270495.4343196938</v>
       </c>
       <c r="C52">
-        <v>30077.88266352018</v>
+        <v>28329.80578733833</v>
       </c>
       <c r="D52">
-        <v>26403.57209725594</v>
+        <v>2366.068386756408</v>
       </c>
       <c r="E52">
-        <v>7317.209135265537</v>
+        <v>5001.781798940041</v>
       </c>
       <c r="F52">
-        <v>3555.701778204421</v>
+        <v>3749.88749013778</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>179.3</v>
+        <v>230.6</v>
       </c>
       <c r="B53">
-        <v>20302.07573497918</v>
+        <v>306507.8001086773</v>
       </c>
       <c r="C53">
-        <v>28548.44300625931</v>
+        <v>28877.0594054629</v>
       </c>
       <c r="D53">
-        <v>27556.26705369626</v>
+        <v>3771.504942558866</v>
       </c>
       <c r="E53">
-        <v>7469.754855393352</v>
+        <v>5737.836103692611</v>
       </c>
       <c r="F53">
-        <v>3611.478257415323</v>
+        <v>3675.246847154676</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>181.5</v>
+        <v>232.9</v>
       </c>
       <c r="B54">
-        <v>16322.84788156653</v>
+        <v>344925.2734335237</v>
       </c>
       <c r="C54">
-        <v>29240.71811670544</v>
+        <v>29435.09727895678</v>
       </c>
       <c r="D54">
-        <v>25204.06222942178</v>
+        <v>866.7340690796264</v>
       </c>
       <c r="E54">
-        <v>7109.581196385177</v>
+        <v>5417.347422297573</v>
       </c>
       <c r="F54">
-        <v>3776.134020138795</v>
+        <v>3621.758902217798</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>183.8</v>
+        <v>235.8</v>
       </c>
       <c r="B55">
-        <v>16240.01876208965</v>
+        <v>378573.3919735473</v>
       </c>
       <c r="C55">
-        <v>30281.27845944456</v>
+        <v>29167.84068466644</v>
       </c>
       <c r="D55">
-        <v>23306.75718586206</v>
+        <v>4170.718619910134</v>
       </c>
       <c r="E55">
-        <v>7302.126916512992</v>
+        <v>5267.600824016871</v>
       </c>
       <c r="F55">
-        <v>3481.910499349693</v>
+        <v>3255.187145558253</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>186.1</v>
+        <v>238.1</v>
       </c>
       <c r="B56">
-        <v>16557.18964261276</v>
+        <v>419090.8652983938</v>
       </c>
       <c r="C56">
-        <v>30431.8388021837</v>
+        <v>30625.8785581603</v>
       </c>
       <c r="D56">
-        <v>22729.45214230238</v>
+        <v>3925.947746430917</v>
       </c>
       <c r="E56">
-        <v>7714.672636640806</v>
+        <v>5317.112142621833</v>
       </c>
       <c r="F56">
-        <v>3837.686978560596</v>
+        <v>3841.699200621375</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>188.7</v>
+        <v>240.4</v>
       </c>
       <c r="B57">
-        <v>19963.55672494316</v>
+        <v>463308.3386232401</v>
       </c>
       <c r="C57">
-        <v>30977.25484180184</v>
+        <v>30603.91643165419</v>
       </c>
       <c r="D57">
-        <v>22416.84644088707</v>
+        <v>1161.176872951677</v>
       </c>
       <c r="E57">
-        <v>7685.376494176595</v>
+        <v>3826.623461226795</v>
       </c>
       <c r="F57">
-        <v>2976.825607233786</v>
+        <v>3298.211255684493</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>191</v>
+        <v>242.6</v>
       </c>
       <c r="B58">
-        <v>17680.72760546628</v>
+        <v>497320.7044122237</v>
       </c>
       <c r="C58">
-        <v>31697.81518454097</v>
+        <v>29911.17004977876</v>
       </c>
       <c r="D58">
-        <v>22319.54139732739</v>
+        <v>2896.613428754135</v>
       </c>
       <c r="E58">
-        <v>8337.922214304403</v>
+        <v>5572.677765979365</v>
       </c>
       <c r="F58">
-        <v>3222.602086444689</v>
+        <v>2443.570612701389</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>193.2</v>
+        <v>244.9</v>
       </c>
       <c r="B59">
-        <v>24801.49975205363</v>
+        <v>530638.1777370699</v>
       </c>
       <c r="C59">
-        <v>29760.0902949871</v>
+        <v>29689.20792327265</v>
       </c>
       <c r="D59">
-        <v>21697.3365730529</v>
+        <v>2401.842555274896</v>
       </c>
       <c r="E59">
-        <v>6887.748555296228</v>
+        <v>4122.189084584326</v>
       </c>
       <c r="F59">
-        <v>4067.257849168161</v>
+        <v>2830.082667764511</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>195.5</v>
+        <v>247.2</v>
       </c>
       <c r="B60">
-        <v>22418.67063257675</v>
+        <v>580855.6510619164</v>
       </c>
       <c r="C60">
-        <v>30280.65063772622</v>
+        <v>28207.24579676651</v>
       </c>
       <c r="D60">
-        <v>20700.03152949322</v>
+        <v>3127.071681795642</v>
       </c>
       <c r="E60">
-        <v>8070.294275424043</v>
+        <v>4921.700403189288</v>
       </c>
       <c r="F60">
-        <v>4283.034328379063</v>
+        <v>2576.594722827633</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>197.8</v>
+        <v>249.8</v>
       </c>
       <c r="B61">
-        <v>20135.84151309986</v>
+        <v>617388.4469943516</v>
       </c>
       <c r="C61">
-        <v>32131.21098046534</v>
+        <v>31057.63643636827</v>
       </c>
       <c r="D61">
-        <v>21252.72648593354</v>
+        <v>3031.678520471294</v>
       </c>
       <c r="E61">
-        <v>7242.839995551856</v>
+        <v>4801.582763351419</v>
       </c>
       <c r="F61">
-        <v>4028.810807589961</v>
+        <v>2236.564872029419</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>200.4</v>
+        <v>251.8</v>
       </c>
       <c r="B62">
-        <v>24342.20859543027</v>
+        <v>660390.5977116091</v>
       </c>
       <c r="C62">
-        <v>35266.62702008348</v>
+        <v>30633.32154375425</v>
       </c>
       <c r="D62">
-        <v>20760.12078451823</v>
+        <v>1987.529934837177</v>
       </c>
       <c r="E62">
-        <v>7673.543853087645</v>
+        <v>4330.723040399213</v>
       </c>
       <c r="F62">
-        <v>3627.949436263156</v>
+        <v>2129.618832953873</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>202.4</v>
+        <v>254.4</v>
       </c>
       <c r="B63">
-        <v>28770.1832741461</v>
+        <v>692923.3936440443</v>
       </c>
       <c r="C63">
-        <v>33642.33166594361</v>
+        <v>28563.71218335604</v>
       </c>
       <c r="D63">
-        <v>19428.11639881414</v>
+        <v>3262.136773512801</v>
       </c>
       <c r="E63">
-        <v>7887.931435807479</v>
+        <v>5060.605400561342</v>
       </c>
       <c r="F63">
-        <v>3610.363766011766</v>
+        <v>2209.588982155659</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>204.9</v>
+        <v>256.7</v>
       </c>
       <c r="B64">
-        <v>39580.15162254074</v>
+        <v>732940.8669688905</v>
       </c>
       <c r="C64">
-        <v>33779.46247326874</v>
+        <v>27971.7500568499</v>
       </c>
       <c r="D64">
-        <v>20660.61091668406</v>
+        <v>2507.365900033576</v>
       </c>
       <c r="E64">
-        <v>8235.915914207279</v>
+        <v>4330.116719166304</v>
       </c>
       <c r="F64">
-        <v>3318.381678197526</v>
+        <v>2276.101037218782</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>207.2</v>
+        <v>258.9</v>
       </c>
       <c r="B65">
-        <v>58597.32250306386</v>
+        <v>762953.2327578741</v>
       </c>
       <c r="C65">
-        <v>33660.02281600788</v>
+        <v>27589.00367497447</v>
       </c>
       <c r="D65">
-        <v>19553.30587312435</v>
+        <v>2422.802455836034</v>
       </c>
       <c r="E65">
-        <v>7728.461634335094</v>
+        <v>4846.171023918875</v>
       </c>
       <c r="F65">
-        <v>3774.158157408428</v>
+        <v>1901.460394235677</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>209.5</v>
+        <v>261.2</v>
       </c>
       <c r="B66">
-        <v>62914.49338358696</v>
+        <v>785970.7060827203</v>
       </c>
       <c r="C66">
-        <v>34290.58315874701</v>
+        <v>28157.04154846836</v>
       </c>
       <c r="D66">
-        <v>19846.00082956467</v>
+        <v>3628.031582356794</v>
       </c>
       <c r="E66">
-        <v>7401.007354462907</v>
+        <v>5245.682342523836</v>
       </c>
       <c r="F66">
-        <v>3529.93463661933</v>
+        <v>1617.972449298799</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>212.1</v>
+        <v>263.8</v>
       </c>
       <c r="B67">
-        <v>79220.86046591747</v>
+        <v>798803.5020151555</v>
       </c>
       <c r="C67">
-        <v>33565.99919836516</v>
+        <v>26437.43218807012</v>
       </c>
       <c r="D67">
-        <v>19393.39512814936</v>
+        <v>2782.63842103244</v>
       </c>
       <c r="E67">
-        <v>7941.711211998696</v>
+        <v>4735.56470268596</v>
       </c>
       <c r="F67">
-        <v>4259.073265292522</v>
+        <v>1097.942598500586</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>214.4</v>
+        <v>266.1</v>
       </c>
       <c r="B68">
-        <v>99838.03134644049</v>
+        <v>780820.975340002</v>
       </c>
       <c r="C68">
-        <v>35756.55954110426</v>
+        <v>26165.470061564</v>
       </c>
       <c r="D68">
-        <v>20316.09008458968</v>
+        <v>637.8675475531927</v>
       </c>
       <c r="E68">
-        <v>7314.256932126511</v>
+        <v>4215.076021290921</v>
       </c>
       <c r="F68">
-        <v>3224.849744503424</v>
+        <v>1634.454653563708</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>216.7</v>
+        <v>268.4</v>
       </c>
       <c r="B69">
-        <v>121755.2022269636</v>
+        <v>758538.4486648482</v>
       </c>
       <c r="C69">
-        <v>36417.11988384343</v>
+        <v>25413.50793505787</v>
       </c>
       <c r="D69">
-        <v>19068.78504102999</v>
+        <v>3013.09667407396</v>
       </c>
       <c r="E69">
-        <v>7736.802652254326</v>
+        <v>4514.587339895884</v>
       </c>
       <c r="F69">
-        <v>3510.626223714326</v>
+        <v>1260.966708626826</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>218.9</v>
+        <v>270.7</v>
       </c>
       <c r="B70">
-        <v>155475.9743735509</v>
+        <v>717355.9219896948</v>
       </c>
       <c r="C70">
-        <v>35109.39499428952</v>
+        <v>20311.54580855175</v>
       </c>
       <c r="D70">
-        <v>18816.58021675551</v>
+        <v>3608.325800594714</v>
       </c>
       <c r="E70">
-        <v>7916.628993246144</v>
+        <v>4114.098658500845</v>
       </c>
       <c r="F70">
-        <v>4545.281986437794</v>
+        <v>1537.478763689944</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>221.2</v>
+        <v>272.9</v>
       </c>
       <c r="B71">
-        <v>182393.1452540741</v>
+        <v>675668.2877786781</v>
       </c>
       <c r="C71">
-        <v>35929.95533702865</v>
+        <v>24268.79942667632</v>
       </c>
       <c r="D71">
-        <v>18649.27517319583</v>
+        <v>5063.762356397179</v>
       </c>
       <c r="E71">
-        <v>8079.174713373959</v>
+        <v>4070.152963253423</v>
       </c>
       <c r="F71">
-        <v>3791.058465648696</v>
+        <v>1222.838120706843</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>223.8</v>
+        <v>275.5</v>
       </c>
       <c r="B72">
-        <v>206199.5123364046</v>
+        <v>604401.0837111132</v>
       </c>
       <c r="C72">
-        <v>35145.3713766468</v>
+        <v>22749.19006627808</v>
       </c>
       <c r="D72">
-        <v>18826.66947178052</v>
+        <v>3858.36919507281</v>
       </c>
       <c r="E72">
-        <v>7119.878570909746</v>
+        <v>4380.035323415553</v>
       </c>
       <c r="F72">
-        <v>3290.197094321891</v>
+        <v>1122.808269908634</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>226.1</v>
+        <v>277.5</v>
       </c>
       <c r="B73">
-        <v>246516.6832169277</v>
+        <v>544103.2344283708</v>
       </c>
       <c r="C73">
-        <v>37875.93171938593</v>
+        <v>23754.87517366407</v>
       </c>
       <c r="D73">
-        <v>18119.36442822084</v>
+        <v>3694.220609438693</v>
       </c>
       <c r="E73">
-        <v>7852.424291037561</v>
+        <v>3559.175600463339</v>
       </c>
       <c r="F73">
-        <v>3605.973573532789</v>
+        <v>1285.862230833083</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>228.4</v>
+        <v>280.1</v>
       </c>
       <c r="B74">
-        <v>282733.8540974508</v>
+        <v>495736.0303608061</v>
       </c>
       <c r="C74">
-        <v>36806.49206212506</v>
+        <v>22435.26581326583</v>
       </c>
       <c r="D74">
-        <v>17922.05938466112</v>
+        <v>3548.827448114338</v>
       </c>
       <c r="E74">
-        <v>7674.970011165376</v>
+        <v>3199.057960625469</v>
       </c>
       <c r="F74">
-        <v>3821.750052743692</v>
+        <v>965.8323800348739</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>230.6</v>
+        <v>282.4</v>
       </c>
       <c r="B75">
-        <v>318554.6262440381</v>
+        <v>453653.5036856525</v>
       </c>
       <c r="C75">
-        <v>37298.76717257119</v>
+        <v>22853.30368675971</v>
       </c>
       <c r="D75">
-        <v>18999.85456038664</v>
+        <v>5144.056574635106</v>
       </c>
       <c r="E75">
-        <v>8394.796352157195</v>
+        <v>3908.569279230431</v>
       </c>
       <c r="F75">
-        <v>3746.405815467164</v>
+        <v>912.3444350979923</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>232.9</v>
+        <v>284.7</v>
       </c>
       <c r="B76">
-        <v>356771.7971245612</v>
+        <v>426670.9770104988</v>
       </c>
       <c r="C76">
-        <v>37799.32751531029</v>
+        <v>23311.34156025357</v>
       </c>
       <c r="D76">
-        <v>15752.54951682696</v>
+        <v>4109.285701155859</v>
       </c>
       <c r="E76">
-        <v>8057.342072285008</v>
+        <v>3798.080597835393</v>
       </c>
       <c r="F76">
-        <v>3692.182294678066</v>
+        <v>1188.856490161114</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>235.8</v>
+        <v>287</v>
       </c>
       <c r="B77">
-        <v>390167.3604086991</v>
+        <v>402988.4503353452</v>
       </c>
       <c r="C77">
-        <v>37459.59925180748</v>
+        <v>23429.37943374746</v>
       </c>
       <c r="D77">
-        <v>18624.64315755605</v>
+        <v>3854.514827676612</v>
       </c>
       <c r="E77">
-        <v>7886.204067228773</v>
+        <v>2857.591916440355</v>
       </c>
       <c r="F77">
-        <v>3324.683072813549</v>
+        <v>1075.368545224232</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>238.1</v>
+        <v>289.3</v>
       </c>
       <c r="B78">
-        <v>430484.5312892221</v>
+        <v>380905.9236601916</v>
       </c>
       <c r="C78">
-        <v>38860.15959454661</v>
+        <v>23437.41730724132</v>
       </c>
       <c r="D78">
-        <v>18037.33811399637</v>
+        <v>5329.743954197373</v>
       </c>
       <c r="E78">
-        <v>7918.749787356586</v>
+        <v>3347.103235045317</v>
       </c>
       <c r="F78">
-        <v>3910.459552024448</v>
+        <v>1001.880600287354</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>240.4</v>
+        <v>291.9</v>
       </c>
       <c r="B79">
-        <v>474501.7021697452</v>
+        <v>352838.7195926266</v>
       </c>
       <c r="C79">
-        <v>38780.71993728574</v>
+        <v>23427.80794684311</v>
       </c>
       <c r="D79">
-        <v>14930.03307043666</v>
+        <v>4294.350792873011</v>
       </c>
       <c r="E79">
-        <v>6411.295507484401</v>
+        <v>2916.985595207447</v>
       </c>
       <c r="F79">
-        <v>3366.23603123535</v>
+        <v>1591.850749489141</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>242.6</v>
+        <v>294.2</v>
       </c>
       <c r="B80">
-        <v>508322.4743163325</v>
+        <v>334656.192917473</v>
       </c>
       <c r="C80">
-        <v>38032.99504773184</v>
+        <v>25975.84582033697</v>
       </c>
       <c r="D80">
-        <v>16337.82824616217</v>
+        <v>3499.579919393771</v>
       </c>
       <c r="E80">
-        <v>8141.121848476227</v>
+        <v>3106.496913812409</v>
       </c>
       <c r="F80">
-        <v>2510.891793958822</v>
+        <v>1258.362804552263</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>244.9</v>
+        <v>296.5</v>
       </c>
       <c r="B81">
-        <v>541439.6451968557</v>
+        <v>324973.6662423194</v>
       </c>
       <c r="C81">
-        <v>37753.55539047097</v>
+        <v>28333.88369383086</v>
       </c>
       <c r="D81">
-        <v>15500.52320260249</v>
+        <v>6834.809045914546</v>
       </c>
       <c r="E81">
-        <v>6673.667568604042</v>
+        <v>2976.008232417364</v>
       </c>
       <c r="F81">
-        <v>2896.668273169724</v>
+        <v>564.8748596153812</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>247.2</v>
+        <v>298.8</v>
       </c>
       <c r="B82">
-        <v>591456.8160773788</v>
+        <v>300991.1395671658</v>
       </c>
       <c r="C82">
-        <v>36214.11573321011</v>
+        <v>26721.92156732471</v>
       </c>
       <c r="D82">
-        <v>15883.21815904281</v>
+        <v>5510.038172435299</v>
       </c>
       <c r="E82">
-        <v>7456.213288731855</v>
+        <v>3235.519551022325</v>
       </c>
       <c r="F82">
-        <v>2642.444752380623</v>
+        <v>881.3869146785032</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>249.8</v>
+        <v>301.4</v>
       </c>
       <c r="B83">
-        <v>627763.1831597093</v>
+        <v>287223.9354996008</v>
       </c>
       <c r="C83">
-        <v>38999.53177282825</v>
+        <v>28672.31220692648</v>
       </c>
       <c r="D83">
-        <v>15400.6124576275</v>
+        <v>5424.64501111093</v>
       </c>
       <c r="E83">
-        <v>7316.917146267637</v>
+        <v>3075.401911184456</v>
       </c>
       <c r="F83">
-        <v>2301.583381053818</v>
+        <v>861.3570638802901</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>251.8</v>
+        <v>303.6</v>
       </c>
       <c r="B84">
-        <v>670591.157838425</v>
+        <v>273136.3012885843</v>
       </c>
       <c r="C84">
-        <v>38525.23641868838</v>
+        <v>29669.56582505104</v>
       </c>
       <c r="D84">
-        <v>14058.60807192341</v>
+        <v>4540.081566913395</v>
       </c>
       <c r="E84">
-        <v>6831.304728987478</v>
+        <v>2781.456215937033</v>
       </c>
       <c r="F84">
-        <v>2193.997710802428</v>
+        <v>1076.716420897189</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>254.4</v>
+        <v>305.9</v>
       </c>
       <c r="B85">
-        <v>702897.5249207555</v>
+        <v>247453.7746134307</v>
       </c>
       <c r="C85">
-        <v>36390.65245830653</v>
+        <v>31117.60369854493</v>
       </c>
       <c r="D85">
-        <v>14946.0023705081</v>
+        <v>4605.310693434163</v>
       </c>
       <c r="E85">
-        <v>7542.008586523267</v>
+        <v>2600.967534541995</v>
       </c>
       <c r="F85">
-        <v>2273.136339475619</v>
+        <v>1273.228475960307</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>256.7</v>
+        <v>308.2</v>
       </c>
       <c r="B86">
-        <v>742714.6958012787</v>
+        <v>250271.2479382771</v>
       </c>
       <c r="C86">
-        <v>35741.21280104563</v>
+        <v>30655.64157203882</v>
       </c>
       <c r="D86">
-        <v>13848.69732694842</v>
+        <v>7140.539819954916</v>
       </c>
       <c r="E86">
-        <v>6794.554306651082</v>
+        <v>1710.478853146957</v>
       </c>
       <c r="F86">
-        <v>2338.912818686521</v>
+        <v>1119.740531023426</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>258.9</v>
+        <v>310.4</v>
       </c>
       <c r="B87">
-        <v>772535.467947866</v>
+        <v>247683.6137272606</v>
       </c>
       <c r="C87">
-        <v>35303.48791149179</v>
+        <v>33602.89519016339</v>
       </c>
       <c r="D87">
-        <v>13436.49250267394</v>
+        <v>4195.976375757382</v>
       </c>
       <c r="E87">
-        <v>7294.380647642907</v>
+        <v>1716.533157899527</v>
       </c>
       <c r="F87">
-        <v>1963.568581409992</v>
+        <v>815.0998880403247</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>261.2</v>
+        <v>313</v>
       </c>
       <c r="B88">
-        <v>795352.638828389</v>
+        <v>228216.4096596957</v>
       </c>
       <c r="C88">
-        <v>35814.04825423089</v>
+        <v>32703.28582976514</v>
       </c>
       <c r="D88">
-        <v>14299.18745911426</v>
+        <v>5640.583214433027</v>
       </c>
       <c r="E88">
-        <v>7676.92636777072</v>
+        <v>2216.41551806165</v>
       </c>
       <c r="F88">
-        <v>1679.345060620891</v>
+        <v>1175.070037242115</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>263.8</v>
+        <v>315.3</v>
       </c>
       <c r="B89">
-        <v>807959.0059107195</v>
+        <v>210033.882984542</v>
       </c>
       <c r="C89">
-        <v>34029.46429384903</v>
+        <v>33341.32370325903</v>
       </c>
       <c r="D89">
-        <v>13066.58175769894</v>
+        <v>4065.81234095378</v>
       </c>
       <c r="E89">
-        <v>7147.630225306502</v>
+        <v>1105.926836666612</v>
       </c>
       <c r="F89">
-        <v>1158.483689294086</v>
+        <v>921.5820923052333</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>266.1</v>
+        <v>317.6</v>
       </c>
       <c r="B90">
-        <v>789776.1767912427</v>
+        <v>203851.3563093884</v>
       </c>
       <c r="C90">
-        <v>33700.02463658816</v>
+        <v>30719.36157675289</v>
       </c>
       <c r="D90">
-        <v>10579.27671413926</v>
+        <v>3471.041467474541</v>
       </c>
       <c r="E90">
-        <v>6610.175945434317</v>
+        <v>2485.438155271574</v>
       </c>
       <c r="F90">
-        <v>1694.260168504984</v>
+        <v>738.0941473683552</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>268.4</v>
+        <v>319.9</v>
       </c>
       <c r="B91">
-        <v>767293.3476717658</v>
+        <v>195268.8296342347</v>
       </c>
       <c r="C91">
-        <v>32890.5849793273</v>
+        <v>27647.39945024678</v>
       </c>
       <c r="D91">
-        <v>12611.97167057958</v>
+        <v>5726.270593995301</v>
       </c>
       <c r="E91">
-        <v>6892.72166556214</v>
+        <v>2624.949473876536</v>
       </c>
       <c r="F91">
-        <v>1320.036647715887</v>
+        <v>514.6062024314735</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>270.7</v>
+        <v>322.1</v>
       </c>
       <c r="B92">
-        <v>725910.5185522889</v>
+        <v>202681.1954232183</v>
       </c>
       <c r="C92">
-        <v>27731.14532206643</v>
+        <v>25344.65306837135</v>
       </c>
       <c r="D92">
-        <v>12864.66662701989</v>
+        <v>5351.707149797774</v>
       </c>
       <c r="E92">
-        <v>6475.267385689946</v>
+        <v>2411.003778629113</v>
       </c>
       <c r="F92">
-        <v>1595.813126926789</v>
+        <v>1049.965559448372</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>272.9</v>
+        <v>324.4</v>
       </c>
       <c r="B93">
-        <v>684031.2906988761</v>
+        <v>194598.6687480647</v>
       </c>
       <c r="C93">
-        <v>31633.42043251256</v>
+        <v>21922.69094186524</v>
       </c>
       <c r="D93">
-        <v>13992.46180274538</v>
+        <v>4736.93627631852</v>
       </c>
       <c r="E93">
-        <v>6415.093726681771</v>
+        <v>3160.515097234075</v>
       </c>
       <c r="F93">
-        <v>1280.46888965026</v>
+        <v>1056.477614511491</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>275.5</v>
+        <v>327.1</v>
       </c>
       <c r="B94">
-        <v>612537.6577812067</v>
+        <v>188236.5722163626</v>
       </c>
       <c r="C94">
-        <v>30048.8364721307</v>
+        <v>21213.86583683628</v>
       </c>
       <c r="D94">
-        <v>12399.8561013301</v>
+        <v>3761.33568571246</v>
       </c>
       <c r="E94">
-        <v>6705.79758421756</v>
+        <v>2653.854471248589</v>
       </c>
       <c r="F94">
-        <v>1179.607518323451</v>
+        <v>577.6004617595004</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>277.5</v>
+        <v>329.3</v>
       </c>
       <c r="B95">
-        <v>552065.6324599223</v>
+        <v>189348.9380053461</v>
       </c>
       <c r="C95">
-        <v>31004.5411179908</v>
+        <v>22301.11945496085</v>
       </c>
       <c r="D95">
-        <v>11937.85171562602</v>
+        <v>5556.772241514926</v>
       </c>
       <c r="E95">
-        <v>5870.185166937394</v>
+        <v>2199.908776001159</v>
       </c>
       <c r="F95">
-        <v>1342.021848072061</v>
+        <v>482.9598187763996</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>280.1</v>
+        <v>331.6</v>
       </c>
       <c r="B96">
-        <v>503471.9995422528</v>
+        <v>184366.4113301925</v>
       </c>
       <c r="C96">
-        <v>29619.95715760894</v>
+        <v>20559.15732845474</v>
       </c>
       <c r="D96">
-        <v>11405.2460142107</v>
+        <v>5142.001368035679</v>
       </c>
       <c r="E96">
-        <v>5490.889024473182</v>
+        <v>1979.420094606121</v>
       </c>
       <c r="F96">
-        <v>1021.160476745256</v>
+        <v>389.4718738395213</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>282.4</v>
+        <v>333.9</v>
       </c>
       <c r="B97">
-        <v>461189.170422776</v>
+        <v>186983.8846550389</v>
       </c>
       <c r="C97">
-        <v>29980.51750034808</v>
+        <v>19307.19520194863</v>
       </c>
       <c r="D97">
-        <v>12657.94097065103</v>
+        <v>5057.230494556447</v>
       </c>
       <c r="E97">
-        <v>6183.434744601003</v>
+        <v>2338.931413211084</v>
       </c>
       <c r="F97">
-        <v>966.9369559561546</v>
+        <v>715.9839289026397</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>284.7</v>
+        <v>336.2</v>
       </c>
       <c r="B98">
-        <v>434006.3413032991</v>
+        <v>181401.3579798853</v>
       </c>
       <c r="C98">
-        <v>30381.07784308721</v>
+        <v>19875.23307544249</v>
       </c>
       <c r="D98">
-        <v>11280.63592709134</v>
+        <v>4452.4596210772</v>
       </c>
       <c r="E98">
-        <v>6055.980464728811</v>
+        <v>1558.442731816045</v>
       </c>
       <c r="F98">
-        <v>1242.713435167057</v>
+        <v>442.4959839657579</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>287</v>
+        <v>338.8</v>
       </c>
       <c r="B99">
-        <v>410123.5121838222</v>
+        <v>177034.1539123203</v>
       </c>
       <c r="C99">
-        <v>30441.63818582634</v>
+        <v>18375.62371504425</v>
       </c>
       <c r="D99">
-        <v>10683.33088353165</v>
+        <v>3327.066459752852</v>
       </c>
       <c r="E99">
-        <v>5098.526184856626</v>
+        <v>3108.325091978168</v>
       </c>
       <c r="F99">
-        <v>1128.489914377959</v>
+        <v>562.4661331675484</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>289.3</v>
+        <v>341.1</v>
       </c>
       <c r="B100">
-        <v>387840.6830643453</v>
+        <v>184451.6272371667</v>
       </c>
       <c r="C100">
-        <v>30392.19852856545</v>
+        <v>22523.66158853813</v>
       </c>
       <c r="D100">
-        <v>11816.02583997195</v>
+        <v>4422.295586273613</v>
       </c>
       <c r="E100">
-        <v>5571.071904984433</v>
+        <v>2587.83641058313</v>
       </c>
       <c r="F100">
-        <v>1054.266393588858</v>
+        <v>698.9781882306702</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>291.9</v>
+        <v>343.3</v>
       </c>
       <c r="B101">
-        <v>359547.0501466757</v>
+        <v>191063.9930261502</v>
       </c>
       <c r="C101">
-        <v>30317.6145681836</v>
+        <v>20500.9152066627</v>
       </c>
       <c r="D101">
-        <v>10393.42013855666</v>
+        <v>5747.732142076071</v>
       </c>
       <c r="E101">
-        <v>5121.775762520229</v>
+        <v>1723.890715335707</v>
       </c>
       <c r="F101">
-        <v>1643.405022262053</v>
+        <v>904.3375452475657</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>294.2</v>
+        <v>345.6</v>
       </c>
       <c r="B102">
-        <v>341164.2210271988</v>
+        <v>186781.4663509966</v>
       </c>
       <c r="C102">
-        <v>32808.17491092273</v>
+        <v>19088.95308015656</v>
       </c>
       <c r="D102">
-        <v>9256.115094996956</v>
+        <v>4582.961268596824</v>
       </c>
       <c r="E102">
-        <v>5294.321482648036</v>
+        <v>2523.402033940669</v>
       </c>
       <c r="F102">
-        <v>1309.181501472955</v>
+        <v>700.8496003106875</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>296.5</v>
+        <v>348.2</v>
       </c>
       <c r="B103">
-        <v>331281.3919077219</v>
+        <v>185414.2622834316</v>
       </c>
       <c r="C103">
-        <v>35108.73525366186</v>
+        <v>17519.34371975835</v>
       </c>
       <c r="D103">
-        <v>12248.81005143727</v>
+        <v>5027.568107272469</v>
       </c>
       <c r="E103">
-        <v>5146.867202775851</v>
+        <v>2603.2843941028</v>
       </c>
       <c r="F103">
-        <v>614.9579806838535</v>
+        <v>730.8197495124746</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>298.8</v>
+        <v>350.5</v>
       </c>
       <c r="B104">
-        <v>307098.562788245</v>
+        <v>188831.735608278</v>
       </c>
       <c r="C104">
-        <v>33439.295596401</v>
+        <v>16897.38159325221</v>
       </c>
       <c r="D104">
-        <v>10581.50500787759</v>
+        <v>5672.79723379323</v>
       </c>
       <c r="E104">
-        <v>5389.412922903665</v>
+        <v>2862.795712707761</v>
       </c>
       <c r="F104">
-        <v>930.7344598947557</v>
+        <v>777.3318045755964</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>301.4</v>
+        <v>352.7</v>
       </c>
       <c r="B105">
-        <v>293104.9298705756</v>
+        <v>193544.1013972616</v>
       </c>
       <c r="C105">
-        <v>35324.71163601914</v>
+        <v>19584.63521137678</v>
       </c>
       <c r="D105">
-        <v>10108.89930646228</v>
+        <v>9138.233789595703</v>
       </c>
       <c r="E105">
-        <v>5210.116780439454</v>
+        <v>3728.850017460331</v>
       </c>
       <c r="F105">
-        <v>909.873088567947</v>
+        <v>732.6911615924919</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>303.6</v>
+        <v>355</v>
       </c>
       <c r="B106">
-        <v>278825.7020171628</v>
+        <v>196861.5747221079</v>
       </c>
       <c r="C106">
-        <v>36266.98674646526</v>
+        <v>19592.67308487066</v>
       </c>
       <c r="D106">
-        <v>8896.694482187795</v>
+        <v>7893.462916116463</v>
       </c>
       <c r="E106">
-        <v>4899.943121431272</v>
+        <v>4188.361336065293</v>
       </c>
       <c r="F106">
-        <v>1124.528851291418</v>
+        <v>929.20321665561</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>305.9</v>
+        <v>357.3</v>
       </c>
       <c r="B107">
-        <v>252942.8728976859</v>
+        <v>214979.0480469543</v>
       </c>
       <c r="C107">
-        <v>37657.5470892044</v>
+        <v>21110.71095836455</v>
       </c>
       <c r="D107">
-        <v>8619.389438628103</v>
+        <v>9358.692042637209</v>
       </c>
       <c r="E107">
-        <v>4702.488841559094</v>
+        <v>4307.872654670247</v>
       </c>
       <c r="F107">
-        <v>1320.305330502321</v>
+        <v>665.7152717187319</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>308.2</v>
+        <v>359.9</v>
       </c>
       <c r="B108">
-        <v>255560.043778209</v>
+        <v>206511.8439793893</v>
       </c>
       <c r="C108">
-        <v>37138.10743194354</v>
+        <v>19621.10159796631</v>
       </c>
       <c r="D108">
-        <v>10812.0843950684</v>
+        <v>7333.298881312847</v>
       </c>
       <c r="E108">
-        <v>3795.034561686902</v>
+        <v>5147.755014832386</v>
       </c>
       <c r="F108">
-        <v>1166.081809713223</v>
+        <v>1055.685420920519</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>310.4</v>
+        <v>361.9</v>
       </c>
       <c r="B109">
-        <v>252780.8159247964</v>
+        <v>204613.9946966471</v>
       </c>
       <c r="C109">
-        <v>40030.38254238963</v>
+        <v>16726.78670535227</v>
       </c>
       <c r="D109">
-        <v>7539.879570793935</v>
+        <v>9899.150295678723</v>
       </c>
       <c r="E109">
-        <v>3784.860902678727</v>
+        <v>5496.895291880171</v>
       </c>
       <c r="F109">
-        <v>860.7375724366907</v>
+        <v>378.7393818449721</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>313</v>
+        <v>364.5</v>
       </c>
       <c r="B110">
-        <v>233087.1830071269</v>
+        <v>214146.7906290821</v>
       </c>
       <c r="C110">
-        <v>39065.79858200777</v>
+        <v>17127.17734495406</v>
       </c>
       <c r="D110">
-        <v>8597.273869378623</v>
+        <v>9833.757134354368</v>
       </c>
       <c r="E110">
-        <v>4265.564760214516</v>
+        <v>5596.777652042301</v>
       </c>
       <c r="F110">
-        <v>1219.876201109885</v>
+        <v>708.7095310467589</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>315.3</v>
+        <v>366.8</v>
       </c>
       <c r="B111">
-        <v>214704.35388765</v>
+        <v>206264.2639539285</v>
       </c>
       <c r="C111">
-        <v>39646.35892474691</v>
+        <v>17475.21521844792</v>
       </c>
       <c r="D111">
-        <v>6679.968825818927</v>
+        <v>11418.98626087513</v>
       </c>
       <c r="E111">
-        <v>3138.11048034233</v>
+        <v>7376.288970647263</v>
       </c>
       <c r="F111">
-        <v>965.6526803207878</v>
+        <v>495.2215861098808</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>317.6</v>
+        <v>369</v>
       </c>
       <c r="B112">
-        <v>208321.5247681732</v>
+        <v>226376.629742912</v>
       </c>
       <c r="C112">
-        <v>36966.91926748604</v>
+        <v>18462.46883657252</v>
       </c>
       <c r="D112">
-        <v>5742.663782259242</v>
+        <v>10404.4228166776</v>
       </c>
       <c r="E112">
-        <v>4500.656200470137</v>
+        <v>7572.34327539984</v>
       </c>
       <c r="F112">
-        <v>781.4291595316863</v>
+        <v>550.5809431267799</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>319.9</v>
+        <v>371.6</v>
       </c>
       <c r="B113">
-        <v>199538.6956486963</v>
+        <v>216109.4256753471</v>
       </c>
       <c r="C113">
-        <v>33837.47961022518</v>
+        <v>16492.85947617428</v>
       </c>
       <c r="D113">
-        <v>7655.358738699564</v>
+        <v>12249.02965535324</v>
       </c>
       <c r="E113">
-        <v>4623.20192059796</v>
+        <v>8182.225635561971</v>
       </c>
       <c r="F113">
-        <v>557.2056387425887</v>
+        <v>430.5510923285667</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>322.1</v>
+        <v>373.9</v>
       </c>
       <c r="B114">
-        <v>206759.4677952835</v>
+        <v>232426.8990001935</v>
       </c>
       <c r="C114">
-        <v>31479.7547206713</v>
+        <v>18390.89734966814</v>
       </c>
       <c r="D114">
-        <v>6953.153914425075</v>
+        <v>16084.25878187398</v>
       </c>
       <c r="E114">
-        <v>4393.028261589778</v>
+        <v>9871.736954166934</v>
       </c>
       <c r="F114">
-        <v>1091.86140146606</v>
+        <v>457.0631473916852</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>324.4</v>
+        <v>376.2</v>
       </c>
       <c r="B115">
-        <v>198476.6386758066</v>
+        <v>236944.3723250398</v>
       </c>
       <c r="C115">
-        <v>28000.31506341043</v>
+        <v>17568.93522316203</v>
       </c>
       <c r="D115">
-        <v>5995.848870865379</v>
+        <v>19109.48790839475</v>
       </c>
       <c r="E115">
-        <v>5125.573981717593</v>
+        <v>11411.24827277189</v>
       </c>
       <c r="F115">
-        <v>1097.637880676962</v>
+        <v>673.5752024548069</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>327.1</v>
+        <v>378.5</v>
       </c>
       <c r="B116">
-        <v>191879.4044920729</v>
+        <v>230261.8456498862</v>
       </c>
       <c r="C116">
-        <v>27224.01633532156</v>
+        <v>16656.97309665591</v>
       </c>
       <c r="D116">
-        <v>4618.142950164871</v>
+        <v>18194.7170349155</v>
       </c>
       <c r="E116">
-        <v>4598.99721838937</v>
+        <v>13710.75959137685</v>
       </c>
       <c r="F116">
-        <v>617.8972258375843</v>
+        <v>810.0872575179287</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>329.3</v>
+        <v>380.8</v>
       </c>
       <c r="B117">
-        <v>192800.1766386603</v>
+        <v>236279.3189747326</v>
       </c>
       <c r="C117">
-        <v>28256.29144576768</v>
+        <v>14685.01097014977</v>
       </c>
       <c r="D117">
-        <v>6085.938125890389</v>
+        <v>21539.94616143628</v>
       </c>
       <c r="E117">
-        <v>4128.823559381195</v>
+        <v>16070.27090998181</v>
       </c>
       <c r="F117">
-        <v>522.5529885610558</v>
+        <v>966.5993125810469</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>331.6</v>
+        <v>383.1</v>
       </c>
       <c r="B118">
-        <v>187617.3475191834</v>
+        <v>253296.792299579</v>
       </c>
       <c r="C118">
-        <v>26456.85178850682</v>
+        <v>17343.04884364363</v>
       </c>
       <c r="D118">
-        <v>5328.633082330689</v>
+        <v>25625.17528795704</v>
       </c>
       <c r="E118">
-        <v>3891.369279509002</v>
+        <v>19679.78222858677</v>
       </c>
       <c r="F118">
-        <v>428.3294677719543</v>
+        <v>623.1113676441689</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>333.9</v>
+        <v>385.3</v>
       </c>
       <c r="B119">
-        <v>190034.5183997065</v>
+        <v>268409.1580885625</v>
       </c>
       <c r="C119">
-        <v>25147.41213124595</v>
+        <v>16590.30246176819</v>
       </c>
       <c r="D119">
-        <v>4901.328038771007</v>
+        <v>38440.6118437595</v>
       </c>
       <c r="E119">
-        <v>4233.914999636825</v>
+        <v>23675.83653333934</v>
       </c>
       <c r="F119">
-        <v>754.1059469828567</v>
+        <v>738.4707246610642</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>336.2</v>
+        <v>387.9</v>
       </c>
       <c r="B120">
-        <v>184251.6892802296</v>
+        <v>272241.9540209976</v>
       </c>
       <c r="C120">
-        <v>25657.97247398509</v>
+        <v>17200.69310136999</v>
       </c>
       <c r="D120">
-        <v>3954.022995211326</v>
+        <v>31275.21868243513</v>
       </c>
       <c r="E120">
-        <v>3436.460719764632</v>
+        <v>27625.71889350147</v>
       </c>
       <c r="F120">
-        <v>479.8824261937589</v>
+        <v>868.4408738628549</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>338.8</v>
+        <v>390.2</v>
       </c>
       <c r="B121">
-        <v>179658.05636256</v>
+        <v>283059.427345844</v>
       </c>
       <c r="C121">
-        <v>24093.38851360323</v>
+        <v>17098.73097486387</v>
       </c>
       <c r="D121">
-        <v>2441.417293796014</v>
+        <v>33750.44780895588</v>
       </c>
       <c r="E121">
-        <v>4967.16457730042</v>
+        <v>34705.23021210643</v>
       </c>
       <c r="F121">
-        <v>599.0210548669502</v>
+        <v>484.9529289259731</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>341.1</v>
+        <v>392.5</v>
       </c>
       <c r="B122">
-        <v>186875.2272430831</v>
+        <v>302376.9006706903</v>
       </c>
       <c r="C122">
-        <v>28183.94885634234</v>
+        <v>18626.76884835773</v>
       </c>
       <c r="D122">
-        <v>3194.112250236332</v>
+        <v>42585.67693547667</v>
       </c>
       <c r="E122">
-        <v>4429.710297428235</v>
+        <v>41084.7415307114</v>
       </c>
       <c r="F122">
-        <v>734.7975340778523</v>
+        <v>371.4649839890913</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>343.3</v>
+        <v>395.1</v>
       </c>
       <c r="B123">
-        <v>193295.9993896705</v>
+        <v>331909.6966031254</v>
       </c>
       <c r="C123">
-        <v>26106.22396678849</v>
+        <v>14547.15948795949</v>
       </c>
       <c r="D123">
-        <v>4191.907425961832</v>
+        <v>48170.28377415231</v>
       </c>
       <c r="E123">
-        <v>3549.536638420061</v>
+        <v>49384.62389087352</v>
       </c>
       <c r="F123">
-        <v>939.4532968013239</v>
+        <v>881.4351331908817</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>345.6</v>
+        <v>397.4</v>
       </c>
       <c r="B124">
-        <v>188813.1702701936</v>
+        <v>381427.1699279718</v>
       </c>
       <c r="C124">
-        <v>24636.78430952759</v>
+        <v>18425.19736145338</v>
       </c>
       <c r="D124">
-        <v>2684.60238240215</v>
+        <v>58905.51290067306</v>
       </c>
       <c r="E124">
-        <v>4332.082358547867</v>
+        <v>64164.13520947849</v>
       </c>
       <c r="F124">
-        <v>735.2297760122224</v>
+        <v>487.9471882540002</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>348.2</v>
+        <v>399.7</v>
       </c>
       <c r="B125">
-        <v>187219.537352524</v>
+        <v>419344.6432528181</v>
       </c>
       <c r="C125">
-        <v>23002.20034914574</v>
+        <v>15613.23523494727</v>
       </c>
       <c r="D125">
-        <v>2741.99668098686</v>
+        <v>66420.74202719382</v>
       </c>
       <c r="E125">
-        <v>4392.786216083665</v>
+        <v>77593.64652808345</v>
       </c>
       <c r="F125">
-        <v>764.3684046854173</v>
+        <v>634.4592433171219</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>350.5</v>
+        <v>402</v>
       </c>
       <c r="B126">
-        <v>190436.7082330471</v>
+        <v>492562.1165776647</v>
       </c>
       <c r="C126">
-        <v>22322.76069188487</v>
+        <v>16851.27310844112</v>
       </c>
       <c r="D126">
-        <v>3044.69163742716</v>
+        <v>79545.97115371456</v>
       </c>
       <c r="E126">
-        <v>4635.331936211471</v>
+        <v>93963.15784668842</v>
       </c>
       <c r="F126">
-        <v>810.1448838963158</v>
+        <v>370.9712983802401</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>352.7</v>
+        <v>404.2</v>
       </c>
       <c r="B127">
-        <v>194957.4803796345</v>
+        <v>531974.4823666479</v>
       </c>
       <c r="C127">
-        <v>24955.035802331</v>
+        <v>16158.52672656569</v>
       </c>
       <c r="D127">
-        <v>6182.486813152664</v>
+        <v>92621.40770951704</v>
       </c>
       <c r="E127">
-        <v>5485.158277203303</v>
+        <v>109899.212151441</v>
       </c>
       <c r="F127">
-        <v>764.8006466197874</v>
+        <v>966.3306553971393</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>355</v>
+        <v>406.5</v>
       </c>
       <c r="B128">
-        <v>198074.6512601576</v>
+        <v>618691.9556914944</v>
       </c>
       <c r="C128">
-        <v>24905.59614507013</v>
+        <v>17886.56460005958</v>
       </c>
       <c r="D128">
-        <v>4595.181769592979</v>
+        <v>110496.6368360378</v>
       </c>
       <c r="E128">
-        <v>5927.703997331111</v>
+        <v>130878.723470046</v>
       </c>
       <c r="F128">
-        <v>960.5771258306895</v>
+        <v>752.8427104602613</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>357.3</v>
+        <v>409.1</v>
       </c>
       <c r="B129">
-        <v>215991.8221406807</v>
+        <v>686524.7516239294</v>
       </c>
       <c r="C129">
-        <v>26366.15648780926</v>
+        <v>15166.95523966134</v>
       </c>
       <c r="D129">
-        <v>5717.876726033293</v>
+        <v>127441.2436747134</v>
       </c>
       <c r="E129">
-        <v>6030.249717458926</v>
+        <v>149868.6058302081</v>
       </c>
       <c r="F129">
-        <v>696.3536050415917</v>
+        <v>1282.812859662048</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>359.9</v>
+        <v>411.4</v>
       </c>
       <c r="B130">
-        <v>207298.1892230112</v>
+        <v>787342.2249487758</v>
       </c>
       <c r="C130">
-        <v>24811.57252742741</v>
+        <v>17124.99311315523</v>
       </c>
       <c r="D130">
-        <v>3305.271024617989</v>
+        <v>154126.4728012342</v>
       </c>
       <c r="E130">
-        <v>6850.953574994715</v>
+        <v>178158.117148813</v>
       </c>
       <c r="F130">
-        <v>1085.492233714783</v>
+        <v>1029.324914725166</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>361.9</v>
+        <v>413.6</v>
       </c>
       <c r="B131">
-        <v>205226.1639017269</v>
+        <v>880654.5907377594</v>
       </c>
       <c r="C131">
-        <v>21867.27717328751</v>
+        <v>17642.2467312798</v>
       </c>
       <c r="D131">
-        <v>5573.26663891393</v>
+        <v>182661.9093570367</v>
       </c>
       <c r="E131">
-        <v>7185.341157714554</v>
+        <v>203574.1714535656</v>
       </c>
       <c r="F131">
-        <v>407.9065634633927</v>
+        <v>984.6842717420652</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>364.5</v>
+        <v>415.9</v>
       </c>
       <c r="B132">
-        <v>214532.5309840575</v>
+        <v>966672.0640626056</v>
       </c>
       <c r="C132">
-        <v>22202.69321290565</v>
+        <v>16020.28460477366</v>
       </c>
       <c r="D132">
-        <v>5120.660937498622</v>
+        <v>210517.1384835575</v>
       </c>
       <c r="E132">
-        <v>7266.045015250336</v>
+        <v>244303.6827721706</v>
       </c>
       <c r="F132">
-        <v>737.0451921365875</v>
+        <v>1361.196326805187</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>366.8</v>
+        <v>418.5</v>
       </c>
       <c r="B133">
-        <v>206449.7018645804</v>
+        <v>1106104.859995041</v>
       </c>
       <c r="C133">
-        <v>22493.25355564478</v>
+        <v>15540.67524437542</v>
       </c>
       <c r="D133">
-        <v>6363.355893938908</v>
+        <v>241951.7453222331</v>
       </c>
       <c r="E133">
-        <v>9028.590735378151</v>
+        <v>306883.5651323327</v>
       </c>
       <c r="F133">
-        <v>522.8216713474897</v>
+        <v>1481.166476006974</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>369</v>
+        <v>420.8</v>
       </c>
       <c r="B134">
-        <v>226370.4740111678</v>
+        <v>1351522.333319887</v>
       </c>
       <c r="C134">
-        <v>23425.52866609091</v>
+        <v>20948.7131178693</v>
       </c>
       <c r="D134">
-        <v>5021.151069664425</v>
+        <v>286006.9744487539</v>
       </c>
       <c r="E134">
-        <v>9208.417076369977</v>
+        <v>445213.0764509377</v>
       </c>
       <c r="F134">
-        <v>577.4774340709575</v>
+        <v>2047.678531070092</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>371.6</v>
+        <v>423</v>
       </c>
       <c r="B135">
-        <v>215876.8410934983</v>
+        <v>1855734.69910887</v>
       </c>
       <c r="C135">
-        <v>21390.94470570905</v>
+        <v>18055.96673599387</v>
       </c>
       <c r="D135">
-        <v>6478.545368249142</v>
+        <v>333922.4110045563</v>
       </c>
       <c r="E135">
-        <v>9799.120933905766</v>
+        <v>827709.1307556903</v>
       </c>
       <c r="F135">
-        <v>456.6160627441523</v>
+        <v>2613.037888086991</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>373.9</v>
+        <v>425.3</v>
       </c>
       <c r="B136">
-        <v>231994.0119740214</v>
+        <v>3144052.172433717</v>
       </c>
       <c r="C136">
-        <v>23231.50504844819</v>
+        <v>17944.00460948776</v>
       </c>
       <c r="D136">
-        <v>9971.240324689436</v>
+        <v>389347.640131077</v>
       </c>
       <c r="E136">
-        <v>11471.66665403358</v>
+        <v>1174218.642074295</v>
       </c>
       <c r="F136">
-        <v>482.3925419550511</v>
+        <v>2419.549943150113</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>376.2</v>
+        <v>427.5</v>
       </c>
       <c r="B137">
-        <v>236311.1828545445</v>
+        <v>3376364.5382227</v>
       </c>
       <c r="C137">
-        <v>22352.06539118732</v>
+        <v>21071.25822761233</v>
       </c>
       <c r="D137">
-        <v>12653.93528112975</v>
+        <v>399133.0766868795</v>
       </c>
       <c r="E137">
-        <v>12994.21237416139</v>
+        <v>555264.6963790478</v>
       </c>
       <c r="F137">
-        <v>698.1690211659534</v>
+        <v>1684.909300167009</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>378.5</v>
+        <v>430.1</v>
       </c>
       <c r="B138">
-        <v>229428.3537350677</v>
+        <v>2044897.334155136</v>
       </c>
       <c r="C138">
-        <v>21382.62573392646</v>
+        <v>21271.64886721409</v>
       </c>
       <c r="D138">
-        <v>11396.63023757007</v>
+        <v>372587.6835255552</v>
       </c>
       <c r="E138">
-        <v>15276.7580942892</v>
+        <v>236884.5787392099</v>
       </c>
       <c r="F138">
-        <v>833.9455003768555</v>
+        <v>984.8794493687953</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>380.8</v>
+        <v>432.4</v>
       </c>
       <c r="B139">
-        <v>235245.5246155908</v>
+        <v>1168014.807479982</v>
       </c>
       <c r="C139">
-        <v>19353.18607666556</v>
+        <v>16069.68674070798</v>
       </c>
       <c r="D139">
-        <v>14399.32519401038</v>
+        <v>343222.9126520759</v>
       </c>
       <c r="E139">
-        <v>17619.30381441702</v>
+        <v>126644.0900578149</v>
       </c>
       <c r="F139">
-        <v>989.7219795877577</v>
+        <v>591.3915044319174</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>383.1</v>
+        <v>434.7</v>
       </c>
       <c r="B140">
-        <v>252062.6954961139</v>
+        <v>800732.2808048283</v>
       </c>
       <c r="C140">
-        <v>21953.7464194047</v>
+        <v>20037.72461420183</v>
       </c>
       <c r="D140">
-        <v>18142.02015045067</v>
+        <v>326828.1417785967</v>
       </c>
       <c r="E140">
-        <v>21211.84953454483</v>
+        <v>94213.60137641984</v>
       </c>
       <c r="F140">
-        <v>645.4984587986564</v>
+        <v>977.9035594950394</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>385.3</v>
+        <v>436.9</v>
       </c>
       <c r="B141">
-        <v>266983.4676427012</v>
+        <v>647144.6465938118</v>
       </c>
       <c r="C141">
-        <v>21146.02152985082</v>
+        <v>18794.97823232643</v>
       </c>
       <c r="D141">
-        <v>30629.81532617619</v>
+        <v>299113.5783343991</v>
       </c>
       <c r="E141">
-        <v>25191.67587553666</v>
+        <v>76479.65568117241</v>
       </c>
       <c r="F141">
-        <v>760.1542215221277</v>
+        <v>513.2629165119349</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>387.9</v>
+        <v>439.2</v>
       </c>
       <c r="B142">
-        <v>270589.8347250317</v>
+        <v>553762.1199186583</v>
       </c>
       <c r="C142">
-        <v>21691.43756946897</v>
+        <v>16193.01610582029</v>
       </c>
       <c r="D142">
-        <v>23077.20962476091</v>
+        <v>267448.8074609198</v>
       </c>
       <c r="E142">
-        <v>29122.37973307244</v>
+        <v>67179.16699977734</v>
       </c>
       <c r="F142">
-        <v>889.292850195319</v>
+        <v>339.7749715750531</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>390.2</v>
+        <v>441.5</v>
       </c>
       <c r="B143">
-        <v>281207.0056055547</v>
+        <v>516779.5932435047</v>
       </c>
       <c r="C143">
-        <v>21531.9979122081</v>
+        <v>15431.05397931418</v>
       </c>
       <c r="D143">
-        <v>25209.9045812012</v>
+        <v>245034.0365874407</v>
       </c>
       <c r="E143">
-        <v>36184.92545320027</v>
+        <v>62568.6783183823</v>
       </c>
       <c r="F143">
-        <v>505.0693294062214</v>
+        <v>1066.287026638175</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>392.5</v>
+        <v>444</v>
       </c>
       <c r="B144">
-        <v>300324.1764860778</v>
+        <v>494407.2816400768</v>
       </c>
       <c r="C144">
-        <v>23002.55825494723</v>
+        <v>18300.66036354665</v>
       </c>
       <c r="D144">
-        <v>33702.59953764151</v>
+        <v>220998.850855398</v>
       </c>
       <c r="E144">
-        <v>42547.47117332807</v>
+        <v>55725.10366469205</v>
       </c>
       <c r="F144">
-        <v>390.8458086171236</v>
+        <v>695.1044777937425</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>395.1</v>
+        <v>446.3</v>
       </c>
       <c r="B145">
-        <v>329630.5435684083</v>
+        <v>445224.7549649232</v>
       </c>
       <c r="C145">
-        <v>18857.97429456537</v>
+        <v>16728.69823704051</v>
       </c>
       <c r="D145">
-        <v>38899.9938362262</v>
+        <v>195894.0799819188</v>
       </c>
       <c r="E145">
-        <v>50828.17503086386</v>
+        <v>51154.61498329701</v>
       </c>
       <c r="F145">
-        <v>899.9844372903146</v>
+        <v>651.6165328568607</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>397.4</v>
+        <v>448.6</v>
       </c>
       <c r="B146">
-        <v>378947.7144489314</v>
+        <v>420042.2282897696</v>
       </c>
       <c r="C146">
-        <v>22678.53463730448</v>
+        <v>16836.73611053436</v>
       </c>
       <c r="D146">
-        <v>49292.68879266652</v>
+        <v>170259.3091084395</v>
       </c>
       <c r="E146">
-        <v>65590.72075099166</v>
+        <v>46844.12630190198</v>
       </c>
       <c r="F146">
-        <v>505.7609165012171</v>
+        <v>518.1285879199827</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>399.7</v>
+        <v>450.8</v>
       </c>
       <c r="B147">
-        <v>416664.8853294545</v>
+        <v>376354.5940787531</v>
       </c>
       <c r="C147">
-        <v>19809.09498004365</v>
+        <v>13893.98972865896</v>
       </c>
       <c r="D147">
-        <v>56465.38374910684</v>
+        <v>147654.745664242</v>
       </c>
       <c r="E147">
-        <v>79003.26647111948</v>
+        <v>41040.18060665453</v>
       </c>
       <c r="F147">
-        <v>651.5373957121192</v>
+        <v>1273.487944936878</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>402</v>
+        <v>453.1</v>
       </c>
       <c r="B148">
-        <v>489682.0562099776</v>
+        <v>359572.0674035995</v>
       </c>
       <c r="C148">
-        <v>20989.65532278275</v>
+        <v>18742.02760215282</v>
       </c>
       <c r="D148">
-        <v>69248.07870554716</v>
+        <v>132789.9747907628</v>
       </c>
       <c r="E148">
-        <v>95355.8121912473</v>
+        <v>41059.6919252595</v>
       </c>
       <c r="F148">
-        <v>387.3138749230179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>404.2</v>
+        <v>455.7</v>
       </c>
       <c r="B149">
-        <v>528902.828356565</v>
+        <v>321504.8633360345</v>
       </c>
       <c r="C149">
-        <v>20241.93043322888</v>
+        <v>15992.41824175461</v>
       </c>
       <c r="D149">
-        <v>81995.87388127268</v>
+        <v>115944.5816294384</v>
       </c>
       <c r="E149">
-        <v>111275.6385322391</v>
+        <v>36619.57428542163</v>
       </c>
       <c r="F149">
-        <v>981.9696376464892</v>
+        <v>759.9701492017869</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>406.5</v>
+        <v>458</v>
       </c>
       <c r="B150">
-        <v>615419.9992370881</v>
+        <v>288722.3366608809</v>
       </c>
       <c r="C150">
-        <v>21912.49077596801</v>
+        <v>13530.45611524847</v>
       </c>
       <c r="D150">
-        <v>99528.56883771296</v>
+        <v>104979.8107559591</v>
       </c>
       <c r="E150">
-        <v>132238.1842523669</v>
+        <v>34199.08560402659</v>
       </c>
       <c r="F150">
-        <v>767.7461168573916</v>
+        <v>606.482204264905</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>409.1</v>
+        <v>460.3</v>
       </c>
       <c r="B151">
-        <v>683026.3663194187</v>
+        <v>271839.8099857273</v>
       </c>
       <c r="C151">
-        <v>19127.90681558615</v>
+        <v>17128.49398874236</v>
       </c>
       <c r="D151">
-        <v>116085.9631362977</v>
+        <v>97835.03988247989</v>
       </c>
       <c r="E151">
-        <v>151208.8881099027</v>
+        <v>33968.59692263155</v>
       </c>
       <c r="F151">
-        <v>1296.884745530583</v>
+        <v>372.9942593280271</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>411.4</v>
+        <v>462.6</v>
       </c>
       <c r="B152">
-        <v>783643.5371999418</v>
+        <v>272957.2833105737</v>
       </c>
       <c r="C152">
-        <v>21028.46715832529</v>
+        <v>18506.53186223621</v>
       </c>
       <c r="D152">
-        <v>142428.658092738</v>
+        <v>97010.26900900067</v>
       </c>
       <c r="E152">
-        <v>179481.4338300305</v>
+        <v>32368.10824123651</v>
       </c>
       <c r="F152">
-        <v>1042.661224741485</v>
+        <v>679.5063143911489</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>413.6</v>
+        <v>464.9</v>
       </c>
       <c r="B153">
-        <v>876764.309346529</v>
+        <v>259174.7566354201</v>
       </c>
       <c r="C153">
-        <v>21490.74226877141</v>
+        <v>16124.5697357301</v>
       </c>
       <c r="D153">
-        <v>170636.4532684635</v>
+        <v>94515.49813552144</v>
       </c>
       <c r="E153">
-        <v>204881.2601710224</v>
+        <v>29907.61955984147</v>
       </c>
       <c r="F153">
-        <v>997.3169874649564</v>
+        <v>616.0183694542673</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>415.9</v>
+        <v>467.5</v>
       </c>
       <c r="B154">
-        <v>962581.4802270521</v>
+        <v>235407.5525678551</v>
       </c>
       <c r="C154">
-        <v>19811.30261151052</v>
+        <v>12194.96037533186</v>
       </c>
       <c r="D154">
-        <v>198149.1482249038</v>
+        <v>85880.10497419706</v>
       </c>
       <c r="E154">
-        <v>245593.8058911501</v>
+        <v>26487.5019200036</v>
       </c>
       <c r="F154">
-        <v>1373.093466675859</v>
+        <v>715.9885186560539</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>418.5</v>
+        <v>469.4</v>
       </c>
       <c r="B155">
-        <v>1101787.847309383</v>
+        <v>226104.5957492499</v>
       </c>
       <c r="C155">
-        <v>19266.71865112866</v>
+        <v>15329.86122734856</v>
       </c>
       <c r="D155">
-        <v>229196.5425234885</v>
+        <v>86326.16381784466</v>
       </c>
       <c r="E155">
-        <v>308154.5097486859</v>
+        <v>26913.18518319901</v>
       </c>
       <c r="F155">
-        <v>1492.23209534905</v>
+        <v>507.8897815342846</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>420.8</v>
+        <v>472</v>
       </c>
       <c r="B156">
-        <v>1347005.018189906</v>
+        <v>210437.391681685</v>
       </c>
       <c r="C156">
-        <v>24617.27899386783</v>
+        <v>12920.25186695032</v>
       </c>
       <c r="D156">
-        <v>272909.2374799288</v>
+        <v>82020.77065652028</v>
       </c>
       <c r="E156">
-        <v>446467.0554688137</v>
+        <v>24693.06754336114</v>
       </c>
       <c r="F156">
-        <v>2058.008574559952</v>
+        <v>747.8599307360748</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>423</v>
+        <v>474.3</v>
       </c>
       <c r="B157">
-        <v>1851025.790336493</v>
+        <v>211354.8650065314</v>
       </c>
       <c r="C157">
-        <v>21669.55410431392</v>
+        <v>15838.28974044418</v>
       </c>
       <c r="D157">
-        <v>320497.0326556543</v>
+        <v>86195.99978304104</v>
       </c>
       <c r="E157">
-        <v>828946.8818098056</v>
+        <v>26052.57886196609</v>
       </c>
       <c r="F157">
-        <v>2622.664337283424</v>
+        <v>1294.371985799193</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>425.3</v>
+        <v>476.6</v>
       </c>
       <c r="B158">
-        <v>3139142.961217016</v>
+        <v>226872.3383313777</v>
       </c>
       <c r="C158">
-        <v>21500.11444705305</v>
+        <v>15616.32761393807</v>
       </c>
       <c r="D158">
-        <v>375579.7276120946</v>
+        <v>82971.2289095618</v>
       </c>
       <c r="E158">
-        <v>1175439.427529933</v>
+        <v>23662.09018057105</v>
       </c>
       <c r="F158">
-        <v>2428.440816494322</v>
+        <v>920.884040862315</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>427.5</v>
+        <v>479.2</v>
       </c>
       <c r="B159">
-        <v>3371263.733363604</v>
+        <v>199005.1342638128</v>
       </c>
       <c r="C159">
-        <v>24572.38955749918</v>
+        <v>14916.71825353982</v>
       </c>
       <c r="D159">
-        <v>385037.5227878201</v>
+        <v>77015.83574823746</v>
       </c>
       <c r="E159">
-        <v>556469.2538709253</v>
+        <v>22211.97254073319</v>
       </c>
       <c r="F159">
-        <v>1693.096579217794</v>
+        <v>1090.854190064102</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>430.1</v>
+        <v>481.8</v>
       </c>
       <c r="B160">
-        <v>2039570.100445934</v>
+        <v>181237.9301962478</v>
       </c>
       <c r="C160">
-        <v>24707.80559711732</v>
+        <v>13947.10889314158</v>
       </c>
       <c r="D160">
-        <v>358104.9170864049</v>
+        <v>76200.44258691309</v>
       </c>
       <c r="E160">
-        <v>238069.957728461</v>
+        <v>19241.85490089532</v>
       </c>
       <c r="F160">
-        <v>992.2352078909882</v>
+        <v>650.8243392658924</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>432.4</v>
+        <v>484.1</v>
       </c>
       <c r="B161">
-        <v>1162487.271326457</v>
+        <v>171455.4035210942</v>
       </c>
       <c r="C161">
-        <v>19448.36593985646</v>
+        <v>11575.14676663547</v>
       </c>
       <c r="D161">
-        <v>328397.6120428452</v>
+        <v>75945.67171343385</v>
       </c>
       <c r="E161">
-        <v>127812.5034485888</v>
+        <v>20821.36621950028</v>
       </c>
       <c r="F161">
-        <v>598.011687101887</v>
+        <v>557.3363943290105</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>434.7</v>
+        <v>486.3</v>
       </c>
       <c r="B162">
-        <v>795004.4422069801</v>
+        <v>178267.7693100777</v>
       </c>
       <c r="C162">
-        <v>23358.92628259559</v>
+        <v>14902.40038476004</v>
       </c>
       <c r="D162">
-        <v>311660.3069992855</v>
+        <v>77171.10826923631</v>
       </c>
       <c r="E162">
-        <v>95365.04916871667</v>
+        <v>19217.42052425285</v>
       </c>
       <c r="F162">
-        <v>983.7881663127894</v>
+        <v>782.695751345906</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>436.9</v>
+        <v>488.6</v>
       </c>
       <c r="B163">
-        <v>641225.2143535676</v>
+        <v>156585.2426349242</v>
       </c>
       <c r="C163">
-        <v>22061.20139304171</v>
+        <v>12390.43825825393</v>
       </c>
       <c r="D163">
-        <v>283618.102175011</v>
+        <v>70196.33739575707</v>
       </c>
       <c r="E163">
-        <v>77614.87550970846</v>
+        <v>17296.93184285782</v>
       </c>
       <c r="F163">
-        <v>518.443929036257</v>
+        <v>709.2078064090279</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>439.2</v>
+        <v>491.2</v>
       </c>
       <c r="B164">
-        <v>547642.3852340907</v>
+        <v>163118.0385673592</v>
       </c>
       <c r="C164">
-        <v>19401.76173578085</v>
+        <v>11590.82889785569</v>
       </c>
       <c r="D164">
-        <v>251610.7971314513</v>
+        <v>71410.94423443273</v>
       </c>
       <c r="E164">
-        <v>68297.42122983628</v>
+        <v>17056.81420301995</v>
       </c>
       <c r="F164">
-        <v>344.2204082471594</v>
+        <v>609.1779556108147</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>441.5</v>
+        <v>493.4</v>
       </c>
       <c r="B165">
-        <v>510459.5561146137</v>
+        <v>140230.4043563427</v>
       </c>
       <c r="C165">
-        <v>18582.32207851995</v>
+        <v>9708.082515980288</v>
       </c>
       <c r="D165">
-        <v>228853.4920878916</v>
+        <v>66076.38079023518</v>
       </c>
       <c r="E165">
-        <v>63669.96694996409</v>
+        <v>15872.86850777252</v>
       </c>
       <c r="F165">
-        <v>1069.996887458062</v>
+        <v>944.5373126277138</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>444</v>
+        <v>495.7</v>
       </c>
       <c r="B166">
-        <v>487869.5244630084</v>
+        <v>144147.8776811891</v>
       </c>
       <c r="C166">
-        <v>21389.45288584508</v>
+        <v>14416.12038947414</v>
       </c>
       <c r="D166">
-        <v>204445.9866057615</v>
+        <v>68111.60991675594</v>
       </c>
       <c r="E166">
-        <v>56807.9514283639</v>
+        <v>14902.37982637748</v>
       </c>
       <c r="F166">
-        <v>698.014799643822</v>
+        <v>1011.049367690832</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>446.3</v>
+        <v>498</v>
       </c>
       <c r="B167">
-        <v>438486.6953435315</v>
+        <v>143865.3510060355</v>
       </c>
       <c r="C167">
-        <v>19760.01322858425</v>
+        <v>12124.158262968</v>
       </c>
       <c r="D167">
-        <v>178998.6815622018</v>
+        <v>65146.83904327669</v>
       </c>
       <c r="E167">
-        <v>52220.49714849171</v>
+        <v>14961.89114498244</v>
       </c>
       <c r="F167">
-        <v>653.7912788547242</v>
+        <v>467.5614227539541</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>448.6</v>
+        <v>500.2</v>
       </c>
       <c r="B168">
-        <v>413103.8662240546</v>
+        <v>125877.7167950189</v>
       </c>
       <c r="C168">
-        <v>19810.57357132335</v>
+        <v>10911.41188109257</v>
       </c>
       <c r="D168">
-        <v>153021.3765186421</v>
+        <v>65012.27559907916</v>
       </c>
       <c r="E168">
-        <v>47893.04286861952</v>
+        <v>12077.94544973501</v>
       </c>
       <c r="F168">
-        <v>519.5677580656263</v>
+        <v>432.9207797708532</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>450.8</v>
+        <v>502.9</v>
       </c>
       <c r="B169">
-        <v>369224.6383706419</v>
+        <v>112215.6202633169</v>
       </c>
       <c r="C169">
-        <v>16812.84868176948</v>
+        <v>9072.586776063679</v>
       </c>
       <c r="D169">
-        <v>130089.1716943676</v>
+        <v>60366.67500847309</v>
       </c>
       <c r="E169">
-        <v>42072.86920961134</v>
+        <v>10151.28482374953</v>
       </c>
       <c r="F169">
-        <v>1274.223520789098</v>
+        <v>474.0436270188628</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>453.1</v>
+        <v>504.8</v>
       </c>
       <c r="B170">
-        <v>352241.809251165</v>
+        <v>126612.6634447117</v>
       </c>
       <c r="C170">
-        <v>21603.40902450861</v>
+        <v>12727.48762808035</v>
       </c>
       <c r="D170">
-        <v>114881.866650808</v>
+        <v>64212.7338521207</v>
       </c>
       <c r="E170">
-        <v>42075.41492973916</v>
+        <v>13076.96808694493</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>535.9448898970932</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>455.7</v>
+        <v>507.1</v>
       </c>
       <c r="B171">
-        <v>313948.1763334955</v>
+        <v>117230.136769558</v>
       </c>
       <c r="C171">
-        <v>18788.82506412676</v>
+        <v>10895.5255015742</v>
       </c>
       <c r="D171">
-        <v>97649.26094939266</v>
+        <v>60177.96297864143</v>
       </c>
       <c r="E171">
-        <v>37616.11878727495</v>
+        <v>10446.4794055499</v>
       </c>
       <c r="F171">
-        <v>759.1386286731913</v>
+        <v>542.4569449602113</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>458</v>
+        <v>509.6</v>
       </c>
       <c r="B172">
-        <v>280965.3472140186</v>
+        <v>100557.8251661302</v>
       </c>
       <c r="C172">
-        <v>16269.38540686589</v>
+        <v>8055.131885806673</v>
       </c>
       <c r="D172">
-        <v>86341.95590583296</v>
+        <v>58802.77724659879</v>
       </c>
       <c r="E172">
-        <v>35178.66450740276</v>
+        <v>10662.90475185963</v>
       </c>
       <c r="F172">
-        <v>604.9151078840937</v>
+        <v>551.2743961157789</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>460.3</v>
+        <v>511.9</v>
       </c>
       <c r="B173">
-        <v>263882.5180945418</v>
+        <v>103975.2984909766</v>
       </c>
       <c r="C173">
-        <v>19809.94574960502</v>
+        <v>7993.169759300563</v>
       </c>
       <c r="D173">
-        <v>78854.65086227327</v>
+        <v>54538.00637311956</v>
       </c>
       <c r="E173">
-        <v>34931.21022753058</v>
+        <v>8642.416070464596</v>
       </c>
       <c r="F173">
-        <v>370.6915870949958</v>
+        <v>557.7864511788976</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>462.6</v>
+        <v>514.2</v>
       </c>
       <c r="B174">
-        <v>264799.6889750649</v>
+        <v>101292.771815823</v>
       </c>
       <c r="C174">
-        <v>21130.50609234413</v>
+        <v>10631.20763279442</v>
       </c>
       <c r="D174">
-        <v>77687.3458187136</v>
+        <v>58073.2354996403</v>
       </c>
       <c r="E174">
-        <v>33313.75594765839</v>
+        <v>8831.927389069551</v>
       </c>
       <c r="F174">
-        <v>676.4680663058946</v>
+        <v>904.2985062420191</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>464.9</v>
+        <v>516.7</v>
       </c>
       <c r="B175">
-        <v>250816.859855588</v>
+        <v>95320.46021239521</v>
       </c>
       <c r="C175">
-        <v>18691.06643508327</v>
+        <v>9600.814017026889</v>
       </c>
       <c r="D175">
-        <v>74850.0407751539</v>
+        <v>52458.04976759765</v>
       </c>
       <c r="E175">
-        <v>30836.3016677862</v>
+        <v>6108.352735379296</v>
       </c>
       <c r="F175">
-        <v>612.244545516797</v>
+        <v>353.1159573975831</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>467.5</v>
+        <v>518.7</v>
       </c>
       <c r="B176">
-        <v>226823.2269379184</v>
+        <v>76322.61092965293</v>
       </c>
       <c r="C176">
-        <v>14696.48247470141</v>
+        <v>8756.499124412876</v>
       </c>
       <c r="D176">
-        <v>65827.43507373858</v>
+        <v>55013.90118196352</v>
       </c>
       <c r="E176">
-        <v>27397.00552532199</v>
+        <v>8457.49301242709</v>
       </c>
       <c r="F176">
-        <v>711.383174189988</v>
+        <v>1116.169918322036</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>469.4</v>
+        <v>521.3</v>
       </c>
       <c r="B177">
-        <v>217354.8028826983</v>
+        <v>70955.40686208796</v>
       </c>
       <c r="C177">
-        <v>17783.90188826853</v>
+        <v>6816.889764014668</v>
       </c>
       <c r="D177">
-        <v>65990.53090731973</v>
+        <v>47858.50802063917</v>
       </c>
       <c r="E177">
-        <v>27808.67372890584</v>
+        <v>7317.37537258922</v>
       </c>
       <c r="F177">
-        <v>502.6767874511669</v>
+        <v>626.1400675238235</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>472</v>
+        <v>523.6</v>
       </c>
       <c r="B178">
-        <v>201461.1699650289</v>
+        <v>65472.88018693434</v>
       </c>
       <c r="C178">
-        <v>15309.31792788667</v>
+        <v>7394.927637508496</v>
       </c>
       <c r="D178">
-        <v>61297.92520590442</v>
+        <v>51953.73714715995</v>
       </c>
       <c r="E178">
-        <v>25569.37758644162</v>
+        <v>13726.88669119418</v>
       </c>
       <c r="F178">
-        <v>741.8154161243617</v>
+        <v>1342.652122586945</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>474.3</v>
+        <v>526.5</v>
       </c>
       <c r="B179">
-        <v>202178.340845552</v>
+        <v>72120.99872695803</v>
       </c>
       <c r="C179">
-        <v>18169.8782706258</v>
+        <v>10737.67104321819</v>
       </c>
       <c r="D179">
-        <v>65130.62016234471</v>
+        <v>51187.72169799045</v>
       </c>
       <c r="E179">
-        <v>26911.92330656944</v>
+        <v>6327.140092913481</v>
       </c>
       <c r="F179">
-        <v>1287.591895335264</v>
+        <v>1036.080365927401</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>476.6</v>
+        <v>528.8</v>
       </c>
       <c r="B180">
-        <v>217495.5117260751</v>
+        <v>61238.4720518044</v>
       </c>
       <c r="C180">
-        <v>17890.43861336491</v>
+        <v>6935.708916712076</v>
       </c>
       <c r="D180">
-        <v>61563.31511878502</v>
+        <v>47122.95082451122</v>
       </c>
       <c r="E180">
-        <v>24504.46902669725</v>
+        <v>5186.651411518443</v>
       </c>
       <c r="F180">
-        <v>913.3683745461626</v>
+        <v>542.592420990519</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>479.2</v>
+        <v>531</v>
       </c>
       <c r="B181">
-        <v>189401.8788084055</v>
+        <v>59550.83784078794</v>
       </c>
       <c r="C181">
-        <v>17125.85465298305</v>
+        <v>6692.962534836643</v>
       </c>
       <c r="D181">
-        <v>55220.70941736975</v>
+        <v>47348.38738031367</v>
       </c>
       <c r="E181">
-        <v>23035.17288423304</v>
+        <v>5002.705716271013</v>
       </c>
       <c r="F181">
-        <v>1082.507003219357</v>
+        <v>267.9517780074179</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>481.8</v>
+        <v>533.6</v>
       </c>
       <c r="B182">
-        <v>171408.245890736</v>
+        <v>51383.63377322298</v>
       </c>
       <c r="C182">
-        <v>16091.27069260119</v>
+        <v>5893.353174438398</v>
       </c>
       <c r="D182">
-        <v>54018.10371595441</v>
+        <v>44972.99421898932</v>
       </c>
       <c r="E182">
-        <v>20045.87674176883</v>
+        <v>4752.588076433135</v>
       </c>
       <c r="F182">
-        <v>641.6456318925484</v>
+        <v>1167.921927209205</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>484.1</v>
+        <v>535.9</v>
       </c>
       <c r="B183">
-        <v>161425.4167712591</v>
+        <v>59001.10709806935</v>
       </c>
       <c r="C183">
-        <v>13661.83103534034</v>
+        <v>12141.39104793226</v>
       </c>
       <c r="D183">
-        <v>53420.79867239473</v>
+        <v>47118.22334551008</v>
       </c>
       <c r="E183">
-        <v>21608.42246189664</v>
+        <v>5102.099395038104</v>
       </c>
       <c r="F183">
-        <v>547.4221111034508</v>
+        <v>504.4339822723232</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>486.3</v>
+        <v>538.1</v>
       </c>
       <c r="B184">
-        <v>168046.1889178465</v>
+        <v>49213.4728870529</v>
       </c>
       <c r="C184">
-        <v>16934.10614578645</v>
+        <v>9738.644666056825</v>
       </c>
       <c r="D184">
-        <v>54318.59384812024</v>
+        <v>44853.65990131254</v>
       </c>
       <c r="E184">
-        <v>19988.24880288847</v>
+        <v>3418.153699790674</v>
       </c>
       <c r="F184">
-        <v>772.0778738269223</v>
+        <v>599.7933392892221</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>488.6</v>
+        <v>540.4</v>
       </c>
       <c r="B185">
-        <v>146163.3597983696</v>
+        <v>38330.94621189927</v>
       </c>
       <c r="C185">
-        <v>14364.66648852559</v>
+        <v>7006.682539550719</v>
       </c>
       <c r="D185">
-        <v>47001.28880456055</v>
+        <v>42758.8890278333</v>
       </c>
       <c r="E185">
-        <v>18050.79452301628</v>
+        <v>3947.665018395636</v>
       </c>
       <c r="F185">
-        <v>697.8543530378208</v>
+        <v>996.3053943523441</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>491.2</v>
+        <v>542.7</v>
       </c>
       <c r="B186">
-        <v>152469.7268807</v>
+        <v>49348.41953674566</v>
       </c>
       <c r="C186">
-        <v>13500.08252814374</v>
+        <v>8064.720413044601</v>
       </c>
       <c r="D186">
-        <v>47828.68310314525</v>
+        <v>41954.11815435406</v>
       </c>
       <c r="E186">
-        <v>17791.49838055207</v>
+        <v>3557.176337000597</v>
       </c>
       <c r="F186">
-        <v>596.9929817110158</v>
+        <v>922.8174494154621</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>493.4</v>
+        <v>544.9</v>
       </c>
       <c r="B187">
-        <v>129390.4990272873</v>
+        <v>48160.78532572919</v>
       </c>
       <c r="C187">
-        <v>11562.35763858987</v>
+        <v>5271.974031169171</v>
       </c>
       <c r="D187">
-        <v>42166.47827887077</v>
+        <v>44609.55471015655</v>
       </c>
       <c r="E187">
-        <v>16591.32472154389</v>
+        <v>4703.230641753168</v>
       </c>
       <c r="F187">
-        <v>931.6487444344871</v>
+        <v>908.1768064323614</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>495.7</v>
+        <v>547.5</v>
       </c>
       <c r="B188">
-        <v>133107.6699078105</v>
+        <v>55593.58125816423</v>
       </c>
       <c r="C188">
-        <v>16212.91798132899</v>
+        <v>8992.364670770959</v>
       </c>
       <c r="D188">
-        <v>43859.17323531108</v>
+        <v>43504.16154883218</v>
       </c>
       <c r="E188">
-        <v>15603.8704416717</v>
+        <v>3883.113001915299</v>
       </c>
       <c r="F188">
-        <v>997.4252236453858</v>
+        <v>928.1469556341481</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>498</v>
+        <v>550.1</v>
       </c>
       <c r="B189">
-        <v>132624.8407883336</v>
+        <v>48926.37719059927</v>
       </c>
       <c r="C189">
-        <v>13863.47832406812</v>
+        <v>9032.75531037269</v>
       </c>
       <c r="D189">
-        <v>40551.8681917514</v>
+        <v>57618.76838750781</v>
       </c>
       <c r="E189">
-        <v>15646.41616179952</v>
+        <v>2832.995362077421</v>
       </c>
       <c r="F189">
-        <v>453.2017028562879</v>
+        <v>958.1171048359386</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>500.2</v>
+        <v>553</v>
       </c>
       <c r="B190">
-        <v>114445.6129349209</v>
+        <v>44974.49573062296</v>
       </c>
       <c r="C190">
-        <v>12595.75343451424</v>
+        <v>5955.49871608238</v>
       </c>
       <c r="D190">
-        <v>40089.66336747691</v>
+        <v>39842.75293833835</v>
       </c>
       <c r="E190">
-        <v>12746.24250279134</v>
+        <v>3213.248763796727</v>
       </c>
       <c r="F190">
-        <v>417.8574655797594</v>
+        <v>471.5453481763942</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>502.9</v>
+        <v>555.3</v>
       </c>
       <c r="B191">
-        <v>100548.3787511871</v>
+        <v>46891.96905546934</v>
       </c>
       <c r="C191">
-        <v>10689.4547064254</v>
+        <v>4963.536589576273</v>
       </c>
       <c r="D191">
-        <v>35041.95744677641</v>
+        <v>38547.9820648591</v>
       </c>
       <c r="E191">
-        <v>10799.66573946312</v>
+        <v>2222.76008240169</v>
       </c>
       <c r="F191">
-        <v>458.1168107403814</v>
+        <v>408.0574032395125</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>504.8</v>
+        <v>558.5</v>
       </c>
       <c r="B192">
-        <v>114779.954695967</v>
+        <v>54555.41020308168</v>
       </c>
       <c r="C192">
-        <v>14296.8741199925</v>
+        <v>11588.6327613938</v>
       </c>
       <c r="D192">
-        <v>38605.05328035752</v>
+        <v>41331.34432784449</v>
       </c>
       <c r="E192">
-        <v>13711.33394304696</v>
+        <v>4283.384525678156</v>
       </c>
       <c r="F192">
-        <v>519.4104240015602</v>
+        <v>974.9437407186363</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>507.1</v>
+        <v>560.8</v>
       </c>
       <c r="B193">
-        <v>105197.1255764902</v>
+        <v>43072.88352792805</v>
       </c>
       <c r="C193">
-        <v>12407.43446273162</v>
+        <v>9206.670634887691</v>
       </c>
       <c r="D193">
-        <v>34227.74823679783</v>
+        <v>40876.57345436527</v>
       </c>
       <c r="E193">
-        <v>11063.87966317478</v>
+        <v>3452.895844283118</v>
       </c>
       <c r="F193">
-        <v>525.1869032124625</v>
+        <v>971.4557957817547</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>509.6</v>
+        <v>563.1</v>
       </c>
       <c r="B194">
-        <v>88307.09392488492</v>
+        <v>39090.35685277444</v>
       </c>
       <c r="C194">
-        <v>9504.565270056766</v>
+        <v>4374.708508381576</v>
       </c>
       <c r="D194">
-        <v>32480.24275466772</v>
+        <v>34651.802580886</v>
       </c>
       <c r="E194">
-        <v>11261.86414157458</v>
+        <v>2132.407162888072</v>
       </c>
       <c r="F194">
-        <v>533.2048153982264</v>
+        <v>617.9678508448799</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>511.9</v>
+        <v>565.3</v>
       </c>
       <c r="B195">
-        <v>91524.26480540802</v>
+        <v>32302.72264175797</v>
       </c>
       <c r="C195">
-        <v>9385.125612795902</v>
+        <v>1321.962126506151</v>
       </c>
       <c r="D195">
-        <v>27872.93771110805</v>
+        <v>38247.23913668849</v>
       </c>
       <c r="E195">
-        <v>9224.409861702397</v>
+        <v>2118.46146764065</v>
       </c>
       <c r="F195">
-        <v>538.9812946091251</v>
+        <v>633.3272078617756</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>514.2</v>
+        <v>567.6</v>
       </c>
       <c r="B196">
-        <v>88641.43568593112</v>
+        <v>26820.19596660437</v>
       </c>
       <c r="C196">
-        <v>11965.68595553501</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>31065.63266754836</v>
+        <v>36152.46826320925</v>
       </c>
       <c r="E196">
-        <v>9396.955581830196</v>
+        <v>2157.972786245611</v>
       </c>
       <c r="F196">
-        <v>884.7577738200273</v>
+        <v>1049.839262924894</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>516.7</v>
+        <v>570.2</v>
       </c>
       <c r="B197">
-        <v>82451.40403432577</v>
+        <v>27852.99189903941</v>
       </c>
       <c r="C197">
-        <v>10872.81676286015</v>
+        <v>5600.390639601763</v>
       </c>
       <c r="D197">
-        <v>25078.12718541825</v>
+        <v>39477.07510188488</v>
       </c>
       <c r="E197">
-        <v>6654.940060229997</v>
+        <v>3087.855146407742</v>
       </c>
       <c r="F197">
-        <v>332.7756860057914</v>
+        <v>1069.809412126684</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>518.7</v>
+        <v>572.4</v>
       </c>
       <c r="B198">
-        <v>63279.37871304149</v>
+        <v>34865.35768802294</v>
       </c>
       <c r="C198">
-        <v>9978.521408720262</v>
+        <v>6127.644257726359</v>
       </c>
       <c r="D198">
-        <v>27336.12279971416</v>
+        <v>38022.51165768734</v>
       </c>
       <c r="E198">
-        <v>8989.327642949836</v>
+        <v>1603.909451160313</v>
       </c>
       <c r="F198">
-        <v>1095.190015754401</v>
+        <v>865.1687691435795</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>521.3</v>
+        <v>574.7</v>
       </c>
       <c r="B199">
-        <v>57685.745795372</v>
+        <v>34082.83101286933</v>
       </c>
       <c r="C199">
-        <v>7973.937448338427</v>
+        <v>6305.682131220216</v>
       </c>
       <c r="D199">
-        <v>19793.51709829889</v>
+        <v>36017.7407842081</v>
       </c>
       <c r="E199">
-        <v>7830.031500485635</v>
+        <v>1853.420769765266</v>
       </c>
       <c r="F199">
-        <v>604.3286444275886</v>
+        <v>911.6808242067013</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>523.6</v>
+        <v>576.9</v>
       </c>
       <c r="B200">
-        <v>52002.91667589513</v>
+        <v>28295.19680185273</v>
       </c>
       <c r="C200">
-        <v>8494.497791077541</v>
+        <v>2872.93574934479</v>
       </c>
       <c r="D200">
-        <v>23546.2120547392</v>
+        <v>38463.17734001059</v>
       </c>
       <c r="E200">
-        <v>14222.57722061344</v>
+        <v>1229.475074517844</v>
       </c>
       <c r="F200">
-        <v>1320.105123638494</v>
+        <v>757.0401812235968</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>526.5</v>
+        <v>579.2</v>
       </c>
       <c r="B201">
-        <v>58398.47996003293</v>
+        <v>37812.67012669912</v>
       </c>
       <c r="C201">
-        <v>11764.76952757471</v>
+        <v>8940.973622838676</v>
       </c>
       <c r="D201">
-        <v>22348.30569546827</v>
+        <v>41388.40646653132</v>
       </c>
       <c r="E201">
-        <v>6801.439215557211</v>
+        <v>2658.986393122806</v>
       </c>
       <c r="F201">
-        <v>1012.605901773978</v>
+        <v>1083.552236286719</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>528.8</v>
+        <v>581.4</v>
       </c>
       <c r="B202">
-        <v>47315.65084055605</v>
+        <v>38225.03591568265</v>
       </c>
       <c r="C202">
-        <v>7905.329870313846</v>
+        <v>6668.227240963242</v>
       </c>
       <c r="D202">
-        <v>17941.00065190859</v>
+        <v>42503.84302233381</v>
       </c>
       <c r="E202">
-        <v>5643.984935685027</v>
+        <v>3205.040697875376</v>
       </c>
       <c r="F202">
-        <v>518.382380984877</v>
+        <v>988.9115933036178</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="B203">
-        <v>45436.42298714339</v>
+        <v>37657.83184811769</v>
       </c>
       <c r="C203">
-        <v>7607.604980759967</v>
+        <v>2318.617880565034</v>
       </c>
       <c r="D203">
-        <v>17838.7958276341</v>
+        <v>39088.44986100944</v>
       </c>
       <c r="E203">
-        <v>5443.811276676844</v>
+        <v>1434.923058037506</v>
       </c>
       <c r="F203">
-        <v>243.0381437083483</v>
+        <v>938.8817425054046</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>533.6</v>
+        <v>586.3</v>
       </c>
       <c r="B204">
-        <v>37042.79006947381</v>
+        <v>38675.30517296408</v>
       </c>
       <c r="C204">
-        <v>6743.02102037811</v>
+        <v>7246.65575405892</v>
       </c>
       <c r="D204">
-        <v>15076.19012621879</v>
+        <v>39513.67898753019</v>
       </c>
       <c r="E204">
-        <v>5174.515134212634</v>
+        <v>2204.434376642468</v>
       </c>
       <c r="F204">
-        <v>1142.176772381543</v>
+        <v>495.3937975685231</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>535.9</v>
+        <v>588.5</v>
       </c>
       <c r="B205">
-        <v>44459.96094999692</v>
+        <v>33287.67096194761</v>
       </c>
       <c r="C205">
-        <v>12933.58136311725</v>
+        <v>4533.909372183487</v>
       </c>
       <c r="D205">
-        <v>16878.88508265911</v>
+        <v>42889.11554333266</v>
       </c>
       <c r="E205">
-        <v>5507.060854340449</v>
+        <v>1670.488681395038</v>
       </c>
       <c r="F205">
-        <v>477.9532515924417</v>
+        <v>640.753154585422</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>538.1</v>
+        <v>590.8</v>
       </c>
       <c r="B206">
-        <v>34480.73309658427</v>
+        <v>24205.14428679399</v>
       </c>
       <c r="C206">
-        <v>10475.85647356335</v>
+        <v>3371.947245677351</v>
       </c>
       <c r="D206">
-        <v>14286.68025838462</v>
+        <v>39174.34466985341</v>
       </c>
       <c r="E206">
-        <v>3806.887195332266</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>572.6090143159131</v>
+        <v>1107.265209648544</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>540.4</v>
+        <v>593.1</v>
       </c>
       <c r="B207">
-        <v>23397.90397710739</v>
+        <v>21722.61761164038</v>
       </c>
       <c r="C207">
-        <v>7686.416816302488</v>
+        <v>2439.985119171208</v>
       </c>
       <c r="D207">
-        <v>11849.37521482494</v>
+        <v>41469.57379637417</v>
       </c>
       <c r="E207">
-        <v>4319.432915460081</v>
+        <v>1679.511318604961</v>
       </c>
       <c r="F207">
-        <v>968.3854935268155</v>
+        <v>653.7772647116622</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>542.7</v>
+        <v>595.3</v>
       </c>
       <c r="B208">
-        <v>34215.0748576305</v>
+        <v>30134.98340062392</v>
       </c>
       <c r="C208">
-        <v>8686.977159041606</v>
+        <v>2907.238737295804</v>
       </c>
       <c r="D208">
-        <v>10702.07017126523</v>
+        <v>42075.01035217663</v>
       </c>
       <c r="E208">
-        <v>3911.978635587895</v>
+        <v>2115.565623357532</v>
       </c>
       <c r="F208">
-        <v>894.1619727377176</v>
+        <v>1439.136621728558</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>544.9</v>
+        <v>597.9</v>
       </c>
       <c r="B209">
-        <v>32835.84700421785</v>
+        <v>36167.77933305894</v>
       </c>
       <c r="C209">
-        <v>5839.252269487748</v>
+        <v>3397.629376897567</v>
       </c>
       <c r="D209">
-        <v>13029.86534699074</v>
+        <v>46399.61719085228</v>
       </c>
       <c r="E209">
-        <v>5041.80497657972</v>
+        <v>1295.447983519663</v>
       </c>
       <c r="F209">
-        <v>878.8177354611855</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>547.5</v>
-      </c>
-      <c r="B210">
-        <v>40042.21408654826</v>
-      </c>
-      <c r="C210">
-        <v>9494.668309105888</v>
-      </c>
-      <c r="D210">
-        <v>11537.25964557547</v>
-      </c>
-      <c r="E210">
-        <v>4202.508834115502</v>
-      </c>
-      <c r="F210">
-        <v>897.9563641343802</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>550.1</v>
-      </c>
-      <c r="B211">
-        <v>33148.58116887878</v>
-      </c>
-      <c r="C211">
-        <v>9470.084348724031</v>
-      </c>
-      <c r="D211">
-        <v>25264.65394416016</v>
-      </c>
-      <c r="E211">
-        <v>3133.212691651292</v>
-      </c>
-      <c r="F211">
-        <v>927.0949928075713</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>553</v>
-      </c>
-      <c r="B212">
-        <v>28944.14445301658</v>
-      </c>
-      <c r="C212">
-        <v>6320.356085221196</v>
-      </c>
-      <c r="D212">
-        <v>7056.747584889257</v>
-      </c>
-      <c r="E212">
-        <v>3492.074686595062</v>
-      </c>
-      <c r="F212">
-        <v>439.5957709430551</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>555.3</v>
-      </c>
-      <c r="B213">
-        <v>30661.31533353969</v>
-      </c>
-      <c r="C213">
-        <v>5270.916427960336</v>
-      </c>
-      <c r="D213">
-        <v>5419.442541329547</v>
-      </c>
-      <c r="E213">
-        <v>2484.620406722877</v>
-      </c>
-      <c r="F213">
-        <v>375.3722501539576</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>558.5</v>
-      </c>
-      <c r="B214">
-        <v>38046.07481948491</v>
-      </c>
-      <c r="C214">
-        <v>11816.04386133649</v>
-      </c>
-      <c r="D214">
-        <v>7726.235524203017</v>
-      </c>
-      <c r="E214">
-        <v>4521.640539074615</v>
-      </c>
-      <c r="F214">
-        <v>941.2351777517338</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>560.8</v>
-      </c>
-      <c r="B215">
-        <v>26363.24570000802</v>
-      </c>
-      <c r="C215">
-        <v>9376.60420407564</v>
-      </c>
-      <c r="D215">
-        <v>6928.930480643336</v>
-      </c>
-      <c r="E215">
-        <v>3674.18625920243</v>
-      </c>
-      <c r="F215">
-        <v>937.0116569626325</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>563.1</v>
-      </c>
-      <c r="B216">
-        <v>22180.41658053114</v>
-      </c>
-      <c r="C216">
-        <v>4487.164546814744</v>
-      </c>
-      <c r="D216">
-        <v>361.6254370836468</v>
-      </c>
-      <c r="E216">
-        <v>2336.731979330236</v>
-      </c>
-      <c r="F216">
-        <v>582.7881361735347</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>565.3</v>
-      </c>
-      <c r="B217">
-        <v>15201.18872711849</v>
-      </c>
-      <c r="C217">
-        <v>1379.439657260886</v>
-      </c>
-      <c r="D217">
-        <v>3629.420612809168</v>
-      </c>
-      <c r="E217">
-        <v>2306.558320322062</v>
-      </c>
-      <c r="F217">
-        <v>597.4438988970062</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>567.6</v>
-      </c>
-      <c r="B218">
-        <v>9518.359607641611</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>1192.11556924945</v>
-      </c>
-      <c r="E218">
-        <v>2329.104040449876</v>
-      </c>
-      <c r="F218">
-        <v>1013.220378107908</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>570.2</v>
-      </c>
-      <c r="B219">
-        <v>10324.72668997201</v>
-      </c>
-      <c r="C219">
-        <v>5535.416039618143</v>
-      </c>
-      <c r="D219">
-        <v>4129.509867834167</v>
-      </c>
-      <c r="E219">
-        <v>3239.807897985665</v>
-      </c>
-      <c r="F219">
-        <v>1032.359006781099</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>572.4</v>
-      </c>
-      <c r="B220">
-        <v>17145.49883655936</v>
-      </c>
-      <c r="C220">
-        <v>6007.691150064285</v>
-      </c>
-      <c r="D220">
-        <v>2347.305043559689</v>
-      </c>
-      <c r="E220">
-        <v>1739.634238977491</v>
-      </c>
-      <c r="F220">
-        <v>827.0147695045709</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>574.7</v>
-      </c>
-      <c r="B221">
-        <v>16162.66971708248</v>
-      </c>
-      <c r="C221">
-        <v>6128.251492803385</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>1972.179959105298</v>
-      </c>
-      <c r="F221">
-        <v>872.7912487154731</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>576.9</v>
-      </c>
-      <c r="B222">
-        <v>10183.44186366983</v>
-      </c>
-      <c r="C222">
-        <v>2640.526603249527</v>
-      </c>
-      <c r="D222">
-        <v>2117.795175725521</v>
-      </c>
-      <c r="E222">
-        <v>1332.006300097124</v>
-      </c>
-      <c r="F222">
-        <v>717.4470114389446</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>579.2</v>
-      </c>
-      <c r="B223">
-        <v>19500.61274419295</v>
-      </c>
-      <c r="C223">
-        <v>8651.086945988645</v>
-      </c>
-      <c r="D223">
-        <v>4700.490132165804</v>
-      </c>
-      <c r="E223">
-        <v>2744.55202022493</v>
-      </c>
-      <c r="F223">
-        <v>1043.223490649843</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>581.4</v>
-      </c>
-      <c r="B224">
-        <v>19721.38489078019</v>
-      </c>
-      <c r="C224">
-        <v>6323.362056434788</v>
-      </c>
-      <c r="D224">
-        <v>5488.285307891325</v>
-      </c>
-      <c r="E224">
-        <v>3274.378361216756</v>
-      </c>
-      <c r="F224">
-        <v>947.8792533733147</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>584</v>
-      </c>
-      <c r="B225">
-        <v>18927.7519731107</v>
-      </c>
-      <c r="C225">
-        <v>1908.778096052927</v>
-      </c>
-      <c r="D225">
-        <v>1685.67960647602</v>
-      </c>
-      <c r="E225">
-        <v>1485.082218752545</v>
-      </c>
-      <c r="F225">
-        <v>897.0178820465094</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>586.3</v>
-      </c>
-      <c r="B226">
-        <v>19744.92285363382</v>
-      </c>
-      <c r="C226">
-        <v>6779.338438792063</v>
-      </c>
-      <c r="D226">
-        <v>1768.374562916339</v>
-      </c>
-      <c r="E226">
-        <v>2237.62793888036</v>
-      </c>
-      <c r="F226">
-        <v>452.7943612574081</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>588.5</v>
-      </c>
-      <c r="B227">
-        <v>14165.69500022117</v>
-      </c>
-      <c r="C227">
-        <v>4011.613549238173</v>
-      </c>
-      <c r="D227">
-        <v>4816.169738641853</v>
-      </c>
-      <c r="E227">
-        <v>1687.454279872185</v>
-      </c>
-      <c r="F227">
-        <v>597.4501239808794</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>590.8</v>
-      </c>
-      <c r="B228">
-        <v>4882.865880744288</v>
-      </c>
-      <c r="C228">
-        <v>2792.173891977309</v>
-      </c>
-      <c r="D228">
-        <v>758.8646950821712</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>1063.226603191778</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>593.1</v>
-      </c>
-      <c r="B229">
-        <v>2200.036761267405</v>
-      </c>
-      <c r="C229">
-        <v>1802.734234716427</v>
-      </c>
-      <c r="D229">
-        <v>2711.559651522482</v>
-      </c>
-      <c r="E229">
-        <v>1662.545720127807</v>
-      </c>
-      <c r="F229">
-        <v>609.003082402684</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>595.3</v>
-      </c>
-      <c r="B230">
-        <v>10420.80890785464</v>
-      </c>
-      <c r="C230">
-        <v>2215.009345162565</v>
-      </c>
-      <c r="D230">
-        <v>2989.354827248004</v>
-      </c>
-      <c r="E230">
-        <v>2082.372061119632</v>
-      </c>
-      <c r="F230">
-        <v>1393.658845126152</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>597.9</v>
-      </c>
-      <c r="B231">
-        <v>16227.17599018516</v>
-      </c>
-      <c r="C231">
-        <v>2640.425384780709</v>
-      </c>
-      <c r="D231">
-        <v>6926.749125832692</v>
-      </c>
-      <c r="E231">
-        <v>1243.075918655421</v>
-      </c>
-      <c r="F231">
-        <v>802.7974737993429</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>600.1</v>
-      </c>
-      <c r="B232">
-        <v>11347.94813677251</v>
-      </c>
-      <c r="C232">
-        <v>3152.700495226814</v>
-      </c>
-      <c r="D232">
-        <v>5184.544301558206</v>
-      </c>
-      <c r="E232">
-        <v>1402.902259647239</v>
-      </c>
-      <c r="F232">
-        <v>557.4532365228144</v>
+        <v>849.1067709303481</v>
       </c>
     </row>
   </sheetData>
